--- a/Data_file/Cancel_SO.xlsx
+++ b/Data_file/Cancel_SO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="357">
   <si>
     <t>MT00681110</t>
   </si>
@@ -584,6 +584,516 @@
   </si>
   <si>
     <t>PO-6800127</t>
+  </si>
+  <si>
+    <t>PD-6700491</t>
+  </si>
+  <si>
+    <t>PD-6700506</t>
+  </si>
+  <si>
+    <t>PD-6700507</t>
+  </si>
+  <si>
+    <t>PD-6700542</t>
+  </si>
+  <si>
+    <t>PD-6700549</t>
+  </si>
+  <si>
+    <t>PD-6800044</t>
+  </si>
+  <si>
+    <t>PD-6800080</t>
+  </si>
+  <si>
+    <t>PD-6800091</t>
+  </si>
+  <si>
+    <t>PD-6800093</t>
+  </si>
+  <si>
+    <t>PD-6800100</t>
+  </si>
+  <si>
+    <t>PD-6800110</t>
+  </si>
+  <si>
+    <t>PD-6800118</t>
+  </si>
+  <si>
+    <t>PD-6800119</t>
+  </si>
+  <si>
+    <t>PD-6800120</t>
+  </si>
+  <si>
+    <t>PD-6800121</t>
+  </si>
+  <si>
+    <t>PD-6800123</t>
+  </si>
+  <si>
+    <t>PD-6800124</t>
+  </si>
+  <si>
+    <t>PD-6800125</t>
+  </si>
+  <si>
+    <t>PD-6800126</t>
+  </si>
+  <si>
+    <t>PD-6800127</t>
+  </si>
+  <si>
+    <t>PD-6800128</t>
+  </si>
+  <si>
+    <t>PD-6800129</t>
+  </si>
+  <si>
+    <t>PD-6800130</t>
+  </si>
+  <si>
+    <t>PD-6800132</t>
+  </si>
+  <si>
+    <t>PD-6800133</t>
+  </si>
+  <si>
+    <t>PD-6800134</t>
+  </si>
+  <si>
+    <t>PD-6800135</t>
+  </si>
+  <si>
+    <t>PD-6800136</t>
+  </si>
+  <si>
+    <t>PD-6800137</t>
+  </si>
+  <si>
+    <t>PD-6800138</t>
+  </si>
+  <si>
+    <t>PD-6800139</t>
+  </si>
+  <si>
+    <t>PD-6800140</t>
+  </si>
+  <si>
+    <t>PD-6800141</t>
+  </si>
+  <si>
+    <t>PD-6800142</t>
+  </si>
+  <si>
+    <t>PD-6800143</t>
+  </si>
+  <si>
+    <t>PD-6800144</t>
+  </si>
+  <si>
+    <t>PD-6800145</t>
+  </si>
+  <si>
+    <t>PD-6800146</t>
+  </si>
+  <si>
+    <t>PD-6800147</t>
+  </si>
+  <si>
+    <t>PD-6800148</t>
+  </si>
+  <si>
+    <t>PD-6800149</t>
+  </si>
+  <si>
+    <t>PD-6800153</t>
+  </si>
+  <si>
+    <t>PD-6800155</t>
+  </si>
+  <si>
+    <t>PD-6800156</t>
+  </si>
+  <si>
+    <t>PD-6800158</t>
+  </si>
+  <si>
+    <t>PD-6800159</t>
+  </si>
+  <si>
+    <t>PD-6800160</t>
+  </si>
+  <si>
+    <t>PD-6800161</t>
+  </si>
+  <si>
+    <t>PD-6800162</t>
+  </si>
+  <si>
+    <t>PD-6800163</t>
+  </si>
+  <si>
+    <t>PD-6800164</t>
+  </si>
+  <si>
+    <t>PD-6800165</t>
+  </si>
+  <si>
+    <t>PD-6800170</t>
+  </si>
+  <si>
+    <t>PD-6800171</t>
+  </si>
+  <si>
+    <t>PD-6800172</t>
+  </si>
+  <si>
+    <t>PD-6800174</t>
+  </si>
+  <si>
+    <t>PD-6800177</t>
+  </si>
+  <si>
+    <t>PD-6800182</t>
+  </si>
+  <si>
+    <t>PD-6800183</t>
+  </si>
+  <si>
+    <t>PD-6800184</t>
+  </si>
+  <si>
+    <t>PD-6800185</t>
+  </si>
+  <si>
+    <t>BPD-6800032</t>
+  </si>
+  <si>
+    <t>BPD-6800086</t>
+  </si>
+  <si>
+    <t>BPD-6800087</t>
+  </si>
+  <si>
+    <t>BPD-6800090</t>
+  </si>
+  <si>
+    <t>BPD-6800092</t>
+  </si>
+  <si>
+    <t>BPD-6800104</t>
+  </si>
+  <si>
+    <t>BPD-6800118</t>
+  </si>
+  <si>
+    <t>BPD-6800119</t>
+  </si>
+  <si>
+    <t>BPD-6800177</t>
+  </si>
+  <si>
+    <t>BPD-6800178</t>
+  </si>
+  <si>
+    <t>BPD-6800179</t>
+  </si>
+  <si>
+    <t>BPD-6800183</t>
+  </si>
+  <si>
+    <t>BPD-6800184</t>
+  </si>
+  <si>
+    <t>BPD-6800185</t>
+  </si>
+  <si>
+    <t>BPD-6800186</t>
+  </si>
+  <si>
+    <t>BPD-6800187</t>
+  </si>
+  <si>
+    <t>BPD-6800188</t>
+  </si>
+  <si>
+    <t>BPD-6800189</t>
+  </si>
+  <si>
+    <t>BPD-6800190</t>
+  </si>
+  <si>
+    <t>BPD-6800192</t>
+  </si>
+  <si>
+    <t>BPD-6800193</t>
+  </si>
+  <si>
+    <t>BPD-6800194</t>
+  </si>
+  <si>
+    <t>BPD-6800196</t>
+  </si>
+  <si>
+    <t>BPD-6800203</t>
+  </si>
+  <si>
+    <t>BPD-6800204</t>
+  </si>
+  <si>
+    <t>BPD-6800205</t>
+  </si>
+  <si>
+    <t>BPD-6800207</t>
+  </si>
+  <si>
+    <t>BPD-6800208</t>
+  </si>
+  <si>
+    <t>BPD-6800209</t>
+  </si>
+  <si>
+    <t>BPD-6800210</t>
+  </si>
+  <si>
+    <t>BPD-6800212</t>
+  </si>
+  <si>
+    <t>BPD-6800213</t>
+  </si>
+  <si>
+    <t>BPD-6800214</t>
+  </si>
+  <si>
+    <t>BPD-6800215</t>
+  </si>
+  <si>
+    <t>BPD-6800216</t>
+  </si>
+  <si>
+    <t>BPD-6800217</t>
+  </si>
+  <si>
+    <t>BPD-6800220</t>
+  </si>
+  <si>
+    <t>BPD-6800221</t>
+  </si>
+  <si>
+    <t>BPD-6800222</t>
+  </si>
+  <si>
+    <t>BPD-6800223</t>
+  </si>
+  <si>
+    <t>BPD-6800224</t>
+  </si>
+  <si>
+    <t>BPD-6800225</t>
+  </si>
+  <si>
+    <t>BPD-6800226</t>
+  </si>
+  <si>
+    <t>BPD-6800227</t>
+  </si>
+  <si>
+    <t>BPD-6800228</t>
+  </si>
+  <si>
+    <t>BPD-6800229</t>
+  </si>
+  <si>
+    <t>BPD-6800230</t>
+  </si>
+  <si>
+    <t>BPD-6800231</t>
+  </si>
+  <si>
+    <t>BPD-6800232</t>
+  </si>
+  <si>
+    <t>BPD-6800233</t>
+  </si>
+  <si>
+    <t>BPD-6800234</t>
+  </si>
+  <si>
+    <t>BPD-6800237</t>
+  </si>
+  <si>
+    <t>BPD-6800238</t>
+  </si>
+  <si>
+    <t>BPD-6800239</t>
+  </si>
+  <si>
+    <t>BPD-6800241</t>
+  </si>
+  <si>
+    <t>BPD-6800242</t>
+  </si>
+  <si>
+    <t>BPD-6800243</t>
+  </si>
+  <si>
+    <t>BPD-6800244</t>
+  </si>
+  <si>
+    <t>BPD-6800245</t>
+  </si>
+  <si>
+    <t>BPD-6800246</t>
+  </si>
+  <si>
+    <t>BPD-6800247</t>
+  </si>
+  <si>
+    <t>BPD-6800248</t>
+  </si>
+  <si>
+    <t>BPD-6800249</t>
+  </si>
+  <si>
+    <t>BPD-6800251</t>
+  </si>
+  <si>
+    <t>BPD-6800252</t>
+  </si>
+  <si>
+    <t>BPD-6800253</t>
+  </si>
+  <si>
+    <t>BPD-6800254</t>
+  </si>
+  <si>
+    <t>BPD-6800256</t>
+  </si>
+  <si>
+    <t>BPD-6800257</t>
+  </si>
+  <si>
+    <t>BPD-6800258</t>
+  </si>
+  <si>
+    <t>BPD-6800259</t>
+  </si>
+  <si>
+    <t>BPD-6800260</t>
+  </si>
+  <si>
+    <t>BPD-6800261</t>
+  </si>
+  <si>
+    <t>BPD-6800262</t>
+  </si>
+  <si>
+    <t>BPD-6800263</t>
+  </si>
+  <si>
+    <t>BPD-6800264</t>
+  </si>
+  <si>
+    <t>BPD-6800265</t>
+  </si>
+  <si>
+    <t>BPD-6800266</t>
+  </si>
+  <si>
+    <t>BPD-6800267</t>
+  </si>
+  <si>
+    <t>BPD-6800268</t>
+  </si>
+  <si>
+    <t>BPD-6800269</t>
+  </si>
+  <si>
+    <t>BPD-6800270</t>
+  </si>
+  <si>
+    <t>BPD-6800271</t>
+  </si>
+  <si>
+    <t>BPD-6800275</t>
+  </si>
+  <si>
+    <t>BPD-6800278</t>
+  </si>
+  <si>
+    <t>BPD-6800281</t>
+  </si>
+  <si>
+    <t>BPD-6800282</t>
+  </si>
+  <si>
+    <t>BPD-6800284</t>
+  </si>
+  <si>
+    <t>BPD-6800285</t>
+  </si>
+  <si>
+    <t>BPD-6800286</t>
+  </si>
+  <si>
+    <t>BPD-6800287</t>
+  </si>
+  <si>
+    <t>BPD-6800288</t>
+  </si>
+  <si>
+    <t>BPD-6800289</t>
+  </si>
+  <si>
+    <t>BPD-6800290</t>
+  </si>
+  <si>
+    <t>BPD-6800291</t>
+  </si>
+  <si>
+    <t>BPD-6800292</t>
+  </si>
+  <si>
+    <t>BPD-6800293</t>
+  </si>
+  <si>
+    <t>BPD-6800294</t>
+  </si>
+  <si>
+    <t>BPD-6800295</t>
+  </si>
+  <si>
+    <t>BPD-6800297</t>
+  </si>
+  <si>
+    <t>BPD-6800299</t>
+  </si>
+  <si>
+    <t>BPD-6800302</t>
+  </si>
+  <si>
+    <t>BPD-6800303</t>
+  </si>
+  <si>
+    <t>BPD-6800304</t>
+  </si>
+  <si>
+    <t>BPD-6800305</t>
+  </si>
+  <si>
+    <t>BPD-6800307</t>
+  </si>
+  <si>
+    <t>BPD-6800309</t>
+  </si>
+  <si>
+    <t>BPD-6800311</t>
+  </si>
+  <si>
+    <t>BPD-6800312</t>
   </si>
 </sst>
 </file>
@@ -982,10 +1492,10 @@
   <dimension ref="A1:B6148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C462" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C885" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B468" sqref="B468"/>
+      <selection pane="bottomRight" activeCell="B887" sqref="B887"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4915,1317 +5425,3432 @@
       </c>
     </row>
     <row r="491" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B491" s="1"/>
+      <c r="A491" t="s">
+        <v>47</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="492" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B492" s="1"/>
+      <c r="A492" t="s">
+        <v>48</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="493" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B493" s="1"/>
+      <c r="A493" t="s">
+        <v>49</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="494" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B494" s="1"/>
+      <c r="A494" t="s">
+        <v>49</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="495" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B495" s="1"/>
+      <c r="A495" t="s">
+        <v>50</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="496" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B496" s="1"/>
-    </row>
-    <row r="497" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B497" s="1"/>
-    </row>
-    <row r="498" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B498" s="1"/>
-    </row>
-    <row r="499" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B499" s="1"/>
-    </row>
-    <row r="500" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B500" s="1"/>
-    </row>
-    <row r="501" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B501" s="1"/>
-    </row>
-    <row r="502" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B502" s="1"/>
-    </row>
-    <row r="503" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B503" s="1"/>
-    </row>
-    <row r="504" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B504" s="1"/>
-    </row>
-    <row r="505" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B505" s="1"/>
-    </row>
-    <row r="506" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B506" s="1"/>
-    </row>
-    <row r="507" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B507" s="1"/>
-    </row>
-    <row r="508" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B508" s="1"/>
-    </row>
-    <row r="509" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B509" s="1"/>
-    </row>
-    <row r="510" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B510" s="1"/>
-    </row>
-    <row r="511" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B511" s="1"/>
-    </row>
-    <row r="512" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B512" s="1"/>
-    </row>
-    <row r="513" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B513" s="1"/>
-    </row>
-    <row r="514" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B514" s="1"/>
-    </row>
-    <row r="515" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B515" s="1"/>
-    </row>
-    <row r="516" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B516" s="1"/>
-    </row>
-    <row r="517" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B517" s="1"/>
-    </row>
-    <row r="518" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B518" s="1"/>
-    </row>
-    <row r="519" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B519" s="1"/>
-    </row>
-    <row r="520" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B520" s="1"/>
-    </row>
-    <row r="521" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B521" s="1"/>
-    </row>
-    <row r="522" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B522" s="1"/>
-    </row>
-    <row r="523" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B523" s="1"/>
-    </row>
-    <row r="524" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B524" s="1"/>
-    </row>
-    <row r="525" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B525" s="1"/>
-    </row>
-    <row r="526" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B526" s="1"/>
-    </row>
-    <row r="527" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B527" s="1"/>
-    </row>
-    <row r="528" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B528" s="1"/>
-    </row>
-    <row r="529" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B529" s="1"/>
-    </row>
-    <row r="530" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B530" s="1"/>
-    </row>
-    <row r="531" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B531" s="1"/>
-    </row>
-    <row r="532" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B532" s="1"/>
-    </row>
-    <row r="533" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B533" s="1"/>
-    </row>
-    <row r="534" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B534" s="1"/>
-    </row>
-    <row r="535" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B535" s="1"/>
-    </row>
-    <row r="536" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B536" s="1"/>
-    </row>
-    <row r="537" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B537" s="1"/>
-    </row>
-    <row r="538" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B538" s="1"/>
-    </row>
-    <row r="539" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B539" s="1"/>
-    </row>
-    <row r="540" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B540" s="1"/>
-    </row>
-    <row r="541" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B541" s="1"/>
-    </row>
-    <row r="542" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B542" s="1"/>
-    </row>
-    <row r="543" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B543" s="1"/>
-    </row>
-    <row r="544" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B544" s="1"/>
-    </row>
-    <row r="545" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B545" s="1"/>
-    </row>
-    <row r="546" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B546" s="1"/>
-    </row>
-    <row r="547" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B547" s="1"/>
-    </row>
-    <row r="548" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B548" s="1"/>
-    </row>
-    <row r="549" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B549" s="1"/>
-    </row>
-    <row r="550" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B550" s="1"/>
-    </row>
-    <row r="551" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B551" s="1"/>
-    </row>
-    <row r="552" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B552" s="1"/>
-    </row>
-    <row r="553" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B553" s="1"/>
-    </row>
-    <row r="554" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B554" s="1"/>
-    </row>
-    <row r="555" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B555" s="1"/>
-    </row>
-    <row r="556" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B556" s="1"/>
-    </row>
-    <row r="557" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B557" s="1"/>
-    </row>
-    <row r="558" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B558" s="1"/>
-    </row>
-    <row r="559" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B559" s="1"/>
-    </row>
-    <row r="560" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B560" s="1"/>
-    </row>
-    <row r="561" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B561" s="1"/>
-    </row>
-    <row r="562" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B562" s="1"/>
-    </row>
-    <row r="563" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B563" s="1"/>
-    </row>
-    <row r="564" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B564" s="1"/>
-    </row>
-    <row r="565" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B565" s="1"/>
-    </row>
-    <row r="566" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B566" s="1"/>
-    </row>
-    <row r="567" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B567" s="1"/>
-    </row>
-    <row r="568" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B568" s="1"/>
-    </row>
-    <row r="569" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B569" s="1"/>
-    </row>
-    <row r="570" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B570" s="1"/>
-    </row>
-    <row r="571" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B571" s="1"/>
-    </row>
-    <row r="572" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B572" s="1"/>
-    </row>
-    <row r="573" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B573" s="1"/>
-    </row>
-    <row r="574" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B574" s="1"/>
-    </row>
-    <row r="575" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B575" s="1"/>
-    </row>
-    <row r="576" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B576" s="1"/>
-    </row>
-    <row r="577" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B577" s="1"/>
-    </row>
-    <row r="578" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B578" s="1"/>
-    </row>
-    <row r="579" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B579" s="1"/>
-    </row>
-    <row r="580" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B580" s="1"/>
-    </row>
-    <row r="581" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B581" s="1"/>
-    </row>
-    <row r="582" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B582" s="1"/>
-    </row>
-    <row r="583" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B583" s="1"/>
-    </row>
-    <row r="584" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B584" s="1"/>
-    </row>
-    <row r="585" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B585" s="1"/>
-    </row>
-    <row r="586" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B586" s="1"/>
-    </row>
-    <row r="587" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B587" s="1"/>
-    </row>
-    <row r="588" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B588" s="1"/>
-    </row>
-    <row r="589" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B589" s="1"/>
-    </row>
-    <row r="590" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B590" s="1"/>
-    </row>
-    <row r="591" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B591" s="1"/>
-    </row>
-    <row r="592" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B592" s="1"/>
-    </row>
-    <row r="593" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B593" s="1"/>
-    </row>
-    <row r="594" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B594" s="1"/>
-    </row>
-    <row r="595" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B595" s="1"/>
-    </row>
-    <row r="596" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B596" s="1"/>
-    </row>
-    <row r="597" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B597" s="1"/>
-    </row>
-    <row r="598" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B598" s="1"/>
-    </row>
-    <row r="599" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B599" s="1"/>
-    </row>
-    <row r="600" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B600" s="1"/>
-    </row>
-    <row r="601" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B601" s="1"/>
-    </row>
-    <row r="602" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B602" s="1"/>
-    </row>
-    <row r="603" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B603" s="1"/>
-    </row>
-    <row r="604" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B604" s="1"/>
-    </row>
-    <row r="605" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B605" s="1"/>
-    </row>
-    <row r="606" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B606" s="1"/>
-    </row>
-    <row r="607" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B607" s="1"/>
-    </row>
-    <row r="608" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B608" s="1"/>
-    </row>
-    <row r="609" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B609" s="1"/>
-    </row>
-    <row r="610" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B610" s="1"/>
-    </row>
-    <row r="611" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B611" s="1"/>
-    </row>
-    <row r="612" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B612" s="1"/>
-    </row>
-    <row r="613" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B613" s="1"/>
-    </row>
-    <row r="614" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B614" s="1"/>
-    </row>
-    <row r="615" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B615" s="1"/>
-    </row>
-    <row r="616" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B616" s="1"/>
-    </row>
-    <row r="617" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B617" s="1"/>
-    </row>
-    <row r="618" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B618" s="1"/>
-    </row>
-    <row r="619" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B619" s="1"/>
-    </row>
-    <row r="620" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B620" s="1"/>
-    </row>
-    <row r="621" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B621" s="1"/>
-    </row>
-    <row r="622" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B622" s="1"/>
-    </row>
-    <row r="623" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B623" s="1"/>
-    </row>
-    <row r="624" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B624" s="1"/>
-    </row>
-    <row r="625" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B625" s="1"/>
-    </row>
-    <row r="626" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B626" s="1"/>
-    </row>
-    <row r="627" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B627" s="1"/>
-    </row>
-    <row r="628" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B628" s="1"/>
-    </row>
-    <row r="629" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B629" s="1"/>
-    </row>
-    <row r="630" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B630" s="1"/>
-    </row>
-    <row r="631" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B631" s="1"/>
-    </row>
-    <row r="632" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B632" s="1"/>
-    </row>
-    <row r="633" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B633" s="1"/>
-    </row>
-    <row r="634" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B634" s="1"/>
-    </row>
-    <row r="635" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B635" s="1"/>
-    </row>
-    <row r="636" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B636" s="1"/>
-    </row>
-    <row r="637" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B637" s="1"/>
-    </row>
-    <row r="638" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B638" s="1"/>
-    </row>
-    <row r="639" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B639" s="1"/>
-    </row>
-    <row r="640" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B640" s="1"/>
-    </row>
-    <row r="641" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B641" s="1"/>
-    </row>
-    <row r="642" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B642" s="1"/>
-    </row>
-    <row r="643" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B643" s="1"/>
-    </row>
-    <row r="644" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B644" s="1"/>
-    </row>
-    <row r="645" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B645" s="1"/>
-    </row>
-    <row r="646" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B646" s="1"/>
-    </row>
-    <row r="647" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B647" s="1"/>
-    </row>
-    <row r="648" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B648" s="1"/>
-    </row>
-    <row r="649" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B649" s="1"/>
-    </row>
-    <row r="650" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B650" s="1"/>
-    </row>
-    <row r="651" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B651" s="1"/>
-    </row>
-    <row r="652" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B652" s="1"/>
-    </row>
-    <row r="653" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B653" s="1"/>
-    </row>
-    <row r="654" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B654" s="1"/>
-    </row>
-    <row r="655" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B655" s="1"/>
-    </row>
-    <row r="656" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B656" s="1"/>
-    </row>
-    <row r="657" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B657" s="1"/>
-    </row>
-    <row r="658" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B658" s="1"/>
-    </row>
-    <row r="659" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B659" s="1"/>
-    </row>
-    <row r="660" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B660" s="1"/>
-    </row>
-    <row r="661" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B661" s="1"/>
-    </row>
-    <row r="662" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B662" s="1"/>
-    </row>
-    <row r="663" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B663" s="1"/>
-    </row>
-    <row r="664" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B664" s="1"/>
-    </row>
-    <row r="665" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B665" s="1"/>
-    </row>
-    <row r="666" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B666" s="1"/>
-    </row>
-    <row r="667" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B667" s="1"/>
-    </row>
-    <row r="668" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B668" s="1"/>
-    </row>
-    <row r="669" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B669" s="1"/>
-    </row>
-    <row r="670" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B670" s="1"/>
-    </row>
-    <row r="671" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B671" s="1"/>
-    </row>
-    <row r="672" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B672" s="1"/>
-    </row>
-    <row r="673" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B673" s="1"/>
-    </row>
-    <row r="674" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B674" s="1"/>
-    </row>
-    <row r="675" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B675" s="1"/>
-    </row>
-    <row r="676" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B676" s="1"/>
-    </row>
-    <row r="677" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B677" s="1"/>
-    </row>
-    <row r="678" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B678" s="1"/>
-    </row>
-    <row r="679" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B679" s="1"/>
-    </row>
-    <row r="680" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B680" s="1"/>
-    </row>
-    <row r="681" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B681" s="1"/>
-    </row>
-    <row r="682" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B682" s="1"/>
-    </row>
-    <row r="683" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B683" s="1"/>
-    </row>
-    <row r="684" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B684" s="1"/>
-    </row>
-    <row r="685" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B685" s="1"/>
-    </row>
-    <row r="686" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B686" s="1"/>
-    </row>
-    <row r="687" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B687" s="1"/>
-    </row>
-    <row r="688" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B688" s="1"/>
-    </row>
-    <row r="689" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B689" s="1"/>
-    </row>
-    <row r="690" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B690" s="1"/>
-    </row>
-    <row r="691" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B691" s="1"/>
-    </row>
-    <row r="692" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B692" s="1"/>
-    </row>
-    <row r="693" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B693" s="1"/>
-    </row>
-    <row r="694" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B694" s="1"/>
-    </row>
-    <row r="695" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B695" s="1"/>
-    </row>
-    <row r="696" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B696" s="1"/>
-    </row>
-    <row r="697" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B697" s="1"/>
-    </row>
-    <row r="698" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B698" s="1"/>
-    </row>
-    <row r="699" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B699" s="1"/>
-    </row>
-    <row r="700" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B700" s="1"/>
-    </row>
-    <row r="701" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B701" s="1"/>
-    </row>
-    <row r="702" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B702" s="1"/>
-    </row>
-    <row r="703" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B703" s="1"/>
-    </row>
-    <row r="704" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B704" s="1"/>
-    </row>
-    <row r="705" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B705" s="1"/>
-    </row>
-    <row r="706" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B706" s="1"/>
-    </row>
-    <row r="707" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B707" s="1"/>
-    </row>
-    <row r="708" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B708" s="1"/>
-    </row>
-    <row r="709" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B709" s="1"/>
-    </row>
-    <row r="710" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B710" s="1"/>
-    </row>
-    <row r="711" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B711" s="1"/>
-    </row>
-    <row r="712" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B712" s="1"/>
-    </row>
-    <row r="713" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B713" s="1"/>
-    </row>
-    <row r="714" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B714" s="1"/>
-    </row>
-    <row r="715" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B715" s="1"/>
-    </row>
-    <row r="716" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B716" s="1"/>
-    </row>
-    <row r="717" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B717" s="1"/>
-    </row>
-    <row r="718" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B718" s="1"/>
-    </row>
-    <row r="719" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B719" s="1"/>
-    </row>
-    <row r="720" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B720" s="1"/>
-    </row>
-    <row r="721" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B721" s="1"/>
-    </row>
-    <row r="722" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B722" s="1"/>
-    </row>
-    <row r="723" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B723" s="1"/>
-    </row>
-    <row r="724" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B724" s="1"/>
-    </row>
-    <row r="725" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B725" s="1"/>
-    </row>
-    <row r="726" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B726" s="1"/>
-    </row>
-    <row r="727" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B727" s="1"/>
-    </row>
-    <row r="728" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B728" s="1"/>
-    </row>
-    <row r="729" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B729" s="1"/>
-    </row>
-    <row r="730" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B730" s="1"/>
-    </row>
-    <row r="731" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B731" s="1"/>
-    </row>
-    <row r="732" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B732" s="1"/>
-    </row>
-    <row r="733" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B733" s="1"/>
-    </row>
-    <row r="734" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B734" s="1"/>
-    </row>
-    <row r="735" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B735" s="1"/>
-    </row>
-    <row r="736" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B736" s="1"/>
-    </row>
-    <row r="737" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B737" s="1"/>
-    </row>
-    <row r="738" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B738" s="1"/>
-    </row>
-    <row r="739" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B739" s="1"/>
-    </row>
-    <row r="740" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B740" s="1"/>
-    </row>
-    <row r="741" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B741" s="1"/>
-    </row>
-    <row r="742" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B742" s="1"/>
-    </row>
-    <row r="743" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B743" s="1"/>
-    </row>
-    <row r="744" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B744" s="1"/>
-    </row>
-    <row r="745" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B745" s="1"/>
-    </row>
-    <row r="746" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B746" s="1"/>
-    </row>
-    <row r="747" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B747" s="1"/>
-    </row>
-    <row r="748" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B748" s="1"/>
-    </row>
-    <row r="749" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B749" s="1"/>
-    </row>
-    <row r="750" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B750" s="1"/>
-    </row>
-    <row r="751" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B751" s="1"/>
-    </row>
-    <row r="752" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B752" s="1"/>
-    </row>
-    <row r="753" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B753" s="1"/>
-    </row>
-    <row r="754" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B754" s="1"/>
-    </row>
-    <row r="755" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B755" s="1"/>
-    </row>
-    <row r="756" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B756" s="1"/>
-    </row>
-    <row r="757" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B757" s="1"/>
-    </row>
-    <row r="758" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B758" s="1"/>
-    </row>
-    <row r="759" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B759" s="1"/>
-    </row>
-    <row r="760" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B760" s="1"/>
-    </row>
-    <row r="761" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B761" s="1"/>
-    </row>
-    <row r="762" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B762" s="1"/>
-    </row>
-    <row r="763" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B763" s="1"/>
-    </row>
-    <row r="764" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B764" s="1"/>
-    </row>
-    <row r="765" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B765" s="1"/>
-    </row>
-    <row r="766" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B766" s="1"/>
-    </row>
-    <row r="767" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B767" s="1"/>
-    </row>
-    <row r="768" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B768" s="1"/>
-    </row>
-    <row r="769" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B769" s="1"/>
-    </row>
-    <row r="770" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B770" s="1"/>
-    </row>
-    <row r="771" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B771" s="1"/>
-    </row>
-    <row r="772" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B772" s="1"/>
-    </row>
-    <row r="773" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B773" s="1"/>
-    </row>
-    <row r="774" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B774" s="1"/>
-    </row>
-    <row r="775" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B775" s="1"/>
-    </row>
-    <row r="776" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B776" s="1"/>
-    </row>
-    <row r="777" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B777" s="1"/>
-    </row>
-    <row r="778" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B778" s="1"/>
-    </row>
-    <row r="779" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B779" s="1"/>
-    </row>
-    <row r="780" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B780" s="1"/>
-    </row>
-    <row r="781" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B781" s="1"/>
-    </row>
-    <row r="782" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B782" s="1"/>
-    </row>
-    <row r="783" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B783" s="1"/>
-    </row>
-    <row r="784" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B784" s="1"/>
-    </row>
-    <row r="785" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B785" s="1"/>
-    </row>
-    <row r="786" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B786" s="1"/>
-    </row>
-    <row r="787" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B787" s="1"/>
-    </row>
-    <row r="788" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B788" s="1"/>
-    </row>
-    <row r="789" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B789" s="1"/>
-    </row>
-    <row r="790" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B790" s="1"/>
-    </row>
-    <row r="791" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B791" s="1"/>
-    </row>
-    <row r="792" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B792" s="1"/>
-    </row>
-    <row r="793" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B793" s="1"/>
-    </row>
-    <row r="794" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B794" s="1"/>
-    </row>
-    <row r="795" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B795" s="1"/>
-    </row>
-    <row r="796" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B796" s="1"/>
-    </row>
-    <row r="797" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B797" s="1"/>
-    </row>
-    <row r="798" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B798" s="1"/>
-    </row>
-    <row r="799" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B799" s="1"/>
-    </row>
-    <row r="800" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B800" s="1"/>
-    </row>
-    <row r="801" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B801" s="1"/>
-    </row>
-    <row r="802" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B802" s="1"/>
-    </row>
-    <row r="803" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B803" s="1"/>
-    </row>
-    <row r="804" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B804" s="1"/>
-    </row>
-    <row r="805" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B805" s="1"/>
-    </row>
-    <row r="806" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B806" s="1"/>
-    </row>
-    <row r="807" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B807" s="1"/>
-    </row>
-    <row r="808" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B808" s="1"/>
-    </row>
-    <row r="809" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B809" s="1"/>
-    </row>
-    <row r="810" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B810" s="1"/>
-    </row>
-    <row r="811" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B811" s="1"/>
-    </row>
-    <row r="812" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B812" s="1"/>
-    </row>
-    <row r="813" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B813" s="1"/>
-    </row>
-    <row r="814" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B814" s="1"/>
-    </row>
-    <row r="815" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B815" s="1"/>
-    </row>
-    <row r="816" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B816" s="1"/>
-    </row>
-    <row r="817" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B817" s="1"/>
-    </row>
-    <row r="818" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B818" s="1"/>
-    </row>
-    <row r="819" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B819" s="1"/>
-    </row>
-    <row r="820" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B820" s="1"/>
-    </row>
-    <row r="821" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B821" s="1"/>
-    </row>
-    <row r="822" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B822" s="1"/>
-    </row>
-    <row r="823" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B823" s="1"/>
-    </row>
-    <row r="824" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B824" s="1"/>
-    </row>
-    <row r="825" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B825" s="1"/>
-    </row>
-    <row r="826" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B826" s="1"/>
-    </row>
-    <row r="827" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B827" s="1"/>
-    </row>
-    <row r="828" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B828" s="1"/>
-    </row>
-    <row r="829" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B829" s="1"/>
-    </row>
-    <row r="830" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B830" s="1"/>
-    </row>
-    <row r="831" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B831" s="1"/>
-    </row>
-    <row r="832" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B832" s="1"/>
-    </row>
-    <row r="833" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B833" s="1"/>
-    </row>
-    <row r="834" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B834" s="1"/>
-    </row>
-    <row r="835" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B835" s="1"/>
-    </row>
-    <row r="836" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B836" s="1"/>
-    </row>
-    <row r="837" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B837" s="1"/>
-    </row>
-    <row r="838" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B838" s="1"/>
-    </row>
-    <row r="839" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B839" s="1"/>
-    </row>
-    <row r="840" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B840" s="1"/>
-    </row>
-    <row r="841" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B841" s="1"/>
-    </row>
-    <row r="842" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B842" s="1"/>
-    </row>
-    <row r="843" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B843" s="1"/>
-    </row>
-    <row r="844" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B844" s="1"/>
-    </row>
-    <row r="845" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B845" s="1"/>
-    </row>
-    <row r="846" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B846" s="1"/>
-    </row>
-    <row r="847" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B847" s="1"/>
-    </row>
-    <row r="848" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B848" s="1"/>
-    </row>
-    <row r="849" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B849" s="1"/>
-    </row>
-    <row r="850" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B850" s="1"/>
-    </row>
-    <row r="851" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B851" s="1"/>
-    </row>
-    <row r="852" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B852" s="1"/>
-    </row>
-    <row r="853" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B853" s="1"/>
-    </row>
-    <row r="854" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B854" s="1"/>
-    </row>
-    <row r="855" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B855" s="1"/>
-    </row>
-    <row r="856" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B856" s="1"/>
-    </row>
-    <row r="857" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B857" s="1"/>
-    </row>
-    <row r="858" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B858" s="1"/>
-    </row>
-    <row r="859" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B859" s="1"/>
-    </row>
-    <row r="860" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B860" s="1"/>
-    </row>
-    <row r="861" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B861" s="1"/>
-    </row>
-    <row r="862" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B862" s="1"/>
-    </row>
-    <row r="863" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B863" s="1"/>
-    </row>
-    <row r="864" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B864" s="1"/>
-    </row>
-    <row r="865" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B865" s="1"/>
-    </row>
-    <row r="866" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B866" s="1"/>
-    </row>
-    <row r="867" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B867" s="1"/>
-    </row>
-    <row r="868" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B868" s="1"/>
-    </row>
-    <row r="869" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B869" s="1"/>
-    </row>
-    <row r="870" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B870" s="1"/>
-    </row>
-    <row r="871" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B871" s="1"/>
-    </row>
-    <row r="872" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B872" s="1"/>
-    </row>
-    <row r="873" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B873" s="1"/>
-    </row>
-    <row r="874" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B874" s="1"/>
-    </row>
-    <row r="875" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B875" s="1"/>
-    </row>
-    <row r="876" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B876" s="1"/>
-    </row>
-    <row r="877" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B877" s="1"/>
-    </row>
-    <row r="878" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B878" s="1"/>
-    </row>
-    <row r="879" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B879" s="1"/>
-    </row>
-    <row r="880" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B880" s="1"/>
-    </row>
-    <row r="881" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B881" s="1"/>
-    </row>
-    <row r="882" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B882" s="1"/>
-    </row>
-    <row r="883" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B883" s="1"/>
-    </row>
-    <row r="884" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B884" s="1"/>
-    </row>
-    <row r="885" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B885" s="1"/>
-    </row>
-    <row r="886" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B886" s="1"/>
-    </row>
-    <row r="887" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B887" s="1"/>
-    </row>
-    <row r="888" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B888" s="1"/>
-    </row>
-    <row r="889" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B889" s="1"/>
-    </row>
-    <row r="890" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B890" s="1"/>
-    </row>
-    <row r="891" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B891" s="1"/>
-    </row>
-    <row r="892" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B892" s="1"/>
-    </row>
-    <row r="893" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B893" s="1"/>
-    </row>
-    <row r="894" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B894" s="1"/>
-    </row>
-    <row r="895" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B895" s="1"/>
-    </row>
-    <row r="896" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B896" s="1"/>
-    </row>
-    <row r="897" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B897" s="1"/>
-    </row>
-    <row r="898" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B898" s="1"/>
-    </row>
-    <row r="899" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B899" s="1"/>
-    </row>
-    <row r="900" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B900" s="1"/>
-    </row>
-    <row r="901" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B901" s="1"/>
-    </row>
-    <row r="902" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B902" s="1"/>
-    </row>
-    <row r="903" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B903" s="1"/>
-    </row>
-    <row r="904" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B904" s="1"/>
-    </row>
-    <row r="905" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B905" s="1"/>
-    </row>
-    <row r="906" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B906" s="1"/>
-    </row>
-    <row r="907" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B907" s="1"/>
-    </row>
-    <row r="908" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B908" s="1"/>
-    </row>
-    <row r="909" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B909" s="1"/>
-    </row>
-    <row r="910" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B910" s="1"/>
-    </row>
-    <row r="911" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B911" s="1"/>
-    </row>
-    <row r="912" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B912" s="1"/>
-    </row>
-    <row r="913" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B913" s="1"/>
-    </row>
-    <row r="914" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>51</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>52</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>52</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>187</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>187</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>188</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>189</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>189</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>190</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>191</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>53</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>53</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>53</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>192</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>54</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>54</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>54</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>55</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>55</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>55</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>193</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>56</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>56</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>56</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>56</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>194</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>195</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>196</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>196</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>197</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>198</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>199</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>200</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>200</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>201</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>201</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>201</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>201</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>202</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>203</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>204</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>204</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>205</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>206</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>207</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>208</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>208</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>208</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>208</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>209</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>209</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>209</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>209</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>210</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>210</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>210</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>210</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>210</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>210</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>211</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>211</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>211</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>211</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>212</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>213</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>213</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>213</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>213</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>213</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>213</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>213</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>213</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>214</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>215</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>216</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>217</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>218</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>219</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>220</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>220</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>220</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>221</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>222</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>223</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>224</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>225</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>225</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>226</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>226</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>227</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>228</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>228</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>228</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>228</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>229</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>230</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>231</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>231</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>232</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>233</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>233</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>234</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>235</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>236</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>237</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>237</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>238</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>57</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>58</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>59</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>59</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>59</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>59</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>59</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>59</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>60</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>60</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>60</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>239</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>240</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>240</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>240</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>240</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>241</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>241</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>241</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>61</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>61</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>61</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>61</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>61</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>61</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>61</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>61</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>61</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>242</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>243</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>243</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>62</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>63</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>63</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>63</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>64</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>64</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>64</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>64</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>64</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>65</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>244</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>245</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>246</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>247</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>247</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>66</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>66</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>66</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>66</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>66</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>66</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>66</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>248</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>248</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>249</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>249</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>249</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>249</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>249</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>249</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>249</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>249</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>249</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>249</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>249</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>249</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>249</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>249</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>249</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>249</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>249</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>249</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>249</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>249</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>249</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>250</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>251</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>251</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>251</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>251</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>251</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>251</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>252</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>252</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>67</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>67</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>67</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>67</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>67</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>67</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>253</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>254</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>255</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>68</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>256</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>257</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>257</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>257</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>258</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>259</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>259</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>259</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>260</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>260</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>260</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>260</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>260</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>260</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>260</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>260</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>260</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>261</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>261</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>262</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>263</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>264</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>265</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>266</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>267</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>268</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>268</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>269</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>270</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>271</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>272</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>273</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>274</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>274</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>274</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>274</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>275</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>275</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>276</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>277</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>277</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>278</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>279</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>280</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>281</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>281</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>282</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>282</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>283</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>284</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>284</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>285</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>285</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>286</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>287</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>288</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>288</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>288</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>288</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>288</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>289</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>290</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>290</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>291</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>292</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>293</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>294</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>295</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>296</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>296</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>296</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>296</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>297</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>297</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>297</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>298</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>69</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>70</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>299</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>299</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>299</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>299</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>299</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>299</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>299</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>299</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>300</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>301</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>71</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>71</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>71</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>71</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>71</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>71</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>71</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>71</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>71</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>71</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>71</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>71</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>71</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>71</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>71</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>71</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>302</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>302</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>302</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>302</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>302</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>303</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>304</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>304</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>305</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>306</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>307</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>308</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>308</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>308</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>309</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>309</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>309</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>309</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>309</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>310</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>72</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>311</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>312</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>313</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>313</v>
+      </c>
+      <c r="B826" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>313</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>314</v>
+      </c>
+      <c r="B828" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>314</v>
+      </c>
+      <c r="B829" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>73</v>
+      </c>
+      <c r="B830" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>315</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>315</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>315</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>315</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>315</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>316</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>317</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>317</v>
+      </c>
+      <c r="B838" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>318</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>318</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>318</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>319</v>
+      </c>
+      <c r="B842" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>319</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>319</v>
+      </c>
+      <c r="B844" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>319</v>
+      </c>
+      <c r="B845" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>319</v>
+      </c>
+      <c r="B846" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>319</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>319</v>
+      </c>
+      <c r="B848" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>319</v>
+      </c>
+      <c r="B849" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>319</v>
+      </c>
+      <c r="B850" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>319</v>
+      </c>
+      <c r="B851" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>320</v>
+      </c>
+      <c r="B852" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>321</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>321</v>
+      </c>
+      <c r="B854" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>322</v>
+      </c>
+      <c r="B855" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>323</v>
+      </c>
+      <c r="B856" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>324</v>
+      </c>
+      <c r="B857" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>324</v>
+      </c>
+      <c r="B858" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>325</v>
+      </c>
+      <c r="B859" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>326</v>
+      </c>
+      <c r="B860" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>327</v>
+      </c>
+      <c r="B861" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>328</v>
+      </c>
+      <c r="B862" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>329</v>
+      </c>
+      <c r="B863" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>330</v>
+      </c>
+      <c r="B864" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>330</v>
+      </c>
+      <c r="B865" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>74</v>
+      </c>
+      <c r="B866" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>75</v>
+      </c>
+      <c r="B867" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>76</v>
+      </c>
+      <c r="B868" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>331</v>
+      </c>
+      <c r="B869" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>77</v>
+      </c>
+      <c r="B870" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>77</v>
+      </c>
+      <c r="B871" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>332</v>
+      </c>
+      <c r="B872" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>78</v>
+      </c>
+      <c r="B873" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>79</v>
+      </c>
+      <c r="B874" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>79</v>
+      </c>
+      <c r="B875" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>333</v>
+      </c>
+      <c r="B876" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>334</v>
+      </c>
+      <c r="B877" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>334</v>
+      </c>
+      <c r="B878" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>334</v>
+      </c>
+      <c r="B879" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>334</v>
+      </c>
+      <c r="B880" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>335</v>
+      </c>
+      <c r="B881" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>336</v>
+      </c>
+      <c r="B882" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>337</v>
+      </c>
+      <c r="B883" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>338</v>
+      </c>
+      <c r="B884" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>339</v>
+      </c>
+      <c r="B885" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>339</v>
+      </c>
+      <c r="B886" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>340</v>
+      </c>
+      <c r="B887" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>341</v>
+      </c>
+      <c r="B888" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>342</v>
+      </c>
+      <c r="B889" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>342</v>
+      </c>
+      <c r="B890" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>342</v>
+      </c>
+      <c r="B891" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>342</v>
+      </c>
+      <c r="B892" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>342</v>
+      </c>
+      <c r="B893" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>343</v>
+      </c>
+      <c r="B894" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>344</v>
+      </c>
+      <c r="B895" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>344</v>
+      </c>
+      <c r="B896" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>344</v>
+      </c>
+      <c r="B897" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>345</v>
+      </c>
+      <c r="B898" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>346</v>
+      </c>
+      <c r="B899" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>346</v>
+      </c>
+      <c r="B900" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>346</v>
+      </c>
+      <c r="B901" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>346</v>
+      </c>
+      <c r="B902" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>347</v>
+      </c>
+      <c r="B903" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>347</v>
+      </c>
+      <c r="B904" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>348</v>
+      </c>
+      <c r="B905" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>349</v>
+      </c>
+      <c r="B906" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>350</v>
+      </c>
+      <c r="B907" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>351</v>
+      </c>
+      <c r="B908" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>352</v>
+      </c>
+      <c r="B909" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>353</v>
+      </c>
+      <c r="B910" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>354</v>
+      </c>
+      <c r="B911" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>355</v>
+      </c>
+      <c r="B912" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>356</v>
+      </c>
+      <c r="B913" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B914" s="1"/>
     </row>
-    <row r="915" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B915" s="1"/>
     </row>
-    <row r="916" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B916" s="1"/>
     </row>
-    <row r="917" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B917" s="1"/>
     </row>
-    <row r="918" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B918" s="1"/>
     </row>
-    <row r="919" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B919" s="1"/>
     </row>
-    <row r="920" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B920" s="1"/>
     </row>
-    <row r="921" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B921" s="1"/>
     </row>
-    <row r="922" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B922" s="1"/>
     </row>
-    <row r="923" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B923" s="1"/>
     </row>
-    <row r="924" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B924" s="1"/>
     </row>
-    <row r="925" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B925" s="1"/>
     </row>
-    <row r="926" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B926" s="1"/>
     </row>
-    <row r="927" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B927" s="1"/>
     </row>
-    <row r="928" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B928" s="1"/>
     </row>
     <row r="929" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">

--- a/Data_file/Cancel_SO.xlsx
+++ b/Data_file/Cancel_SO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="257">
   <si>
     <t>MT00681110</t>
   </si>
@@ -268,9 +268,6 @@
     <t>PO</t>
   </si>
   <si>
-    <t>เลขที่เอกสาร</t>
-  </si>
-  <si>
     <t>BPD-6700364</t>
   </si>
   <si>
@@ -337,255 +334,6 @@
     <t>PD-6800207</t>
   </si>
   <si>
-    <t>BPO-6700008</t>
-  </si>
-  <si>
-    <t>BPO-6700023</t>
-  </si>
-  <si>
-    <t>BPO-6700107</t>
-  </si>
-  <si>
-    <t>BPO-6700132</t>
-  </si>
-  <si>
-    <t>BPO-6700155</t>
-  </si>
-  <si>
-    <t>BPO-6700156</t>
-  </si>
-  <si>
-    <t>BPO-6700208</t>
-  </si>
-  <si>
-    <t>BPO-6700214</t>
-  </si>
-  <si>
-    <t>BPO-6700218</t>
-  </si>
-  <si>
-    <t>BPO-6700239</t>
-  </si>
-  <si>
-    <t>BPO-6700252</t>
-  </si>
-  <si>
-    <t>BPO-6700289</t>
-  </si>
-  <si>
-    <t>BPO-6700309</t>
-  </si>
-  <si>
-    <t>BPO-6700314</t>
-  </si>
-  <si>
-    <t>BPO-6700315</t>
-  </si>
-  <si>
-    <t>BPO-6800003</t>
-  </si>
-  <si>
-    <t>BPO-6800005</t>
-  </si>
-  <si>
-    <t>BPO-6800011</t>
-  </si>
-  <si>
-    <t>BPO-6800012</t>
-  </si>
-  <si>
-    <t>BPO-6800015</t>
-  </si>
-  <si>
-    <t>BPO-6800028</t>
-  </si>
-  <si>
-    <t>BPO-6800029</t>
-  </si>
-  <si>
-    <t>BPO-6800033</t>
-  </si>
-  <si>
-    <t>BPO-6800036</t>
-  </si>
-  <si>
-    <t>BPO-6800044</t>
-  </si>
-  <si>
-    <t>BPO-6800045</t>
-  </si>
-  <si>
-    <t>BPO-6800046</t>
-  </si>
-  <si>
-    <t>BPO-6800055</t>
-  </si>
-  <si>
-    <t>BPO-6800064</t>
-  </si>
-  <si>
-    <t>BPO-6800077</t>
-  </si>
-  <si>
-    <t>BPO-6800078</t>
-  </si>
-  <si>
-    <t>BPO-6800081</t>
-  </si>
-  <si>
-    <t>BPO-6800083</t>
-  </si>
-  <si>
-    <t>BPO-6800086</t>
-  </si>
-  <si>
-    <t>BPO-6800087</t>
-  </si>
-  <si>
-    <t>BPO-6800088</t>
-  </si>
-  <si>
-    <t>BPO-6800089</t>
-  </si>
-  <si>
-    <t>BPO-6800093</t>
-  </si>
-  <si>
-    <t>BPO-6800094</t>
-  </si>
-  <si>
-    <t>BPO-6800095</t>
-  </si>
-  <si>
-    <t>BPO-6800096</t>
-  </si>
-  <si>
-    <t>BPO-6800097</t>
-  </si>
-  <si>
-    <t>BPO-6800099</t>
-  </si>
-  <si>
-    <t>BPO-6800100</t>
-  </si>
-  <si>
-    <t>BPO-6800101</t>
-  </si>
-  <si>
-    <t>BPO-6800103</t>
-  </si>
-  <si>
-    <t>BPO-6800104</t>
-  </si>
-  <si>
-    <t>BPO-6800105</t>
-  </si>
-  <si>
-    <t>PO-0000143</t>
-  </si>
-  <si>
-    <t>PO-6300567</t>
-  </si>
-  <si>
-    <t>PO-6300568</t>
-  </si>
-  <si>
-    <t>PO-6300569</t>
-  </si>
-  <si>
-    <t>PO-6400285</t>
-  </si>
-  <si>
-    <t>PO-6500103</t>
-  </si>
-  <si>
-    <t>PO-6500219</t>
-  </si>
-  <si>
-    <t>PO-6500540</t>
-  </si>
-  <si>
-    <t>PO-6500765</t>
-  </si>
-  <si>
-    <t>PO-6600222</t>
-  </si>
-  <si>
-    <t>PO-6600351</t>
-  </si>
-  <si>
-    <t>PO-6600361</t>
-  </si>
-  <si>
-    <t>PO-6600500</t>
-  </si>
-  <si>
-    <t>PO-6600524</t>
-  </si>
-  <si>
-    <t>PO-6600580</t>
-  </si>
-  <si>
-    <t>PO-6700178</t>
-  </si>
-  <si>
-    <t>PO-6700208</t>
-  </si>
-  <si>
-    <t>PO-6700253</t>
-  </si>
-  <si>
-    <t>PO-6700318</t>
-  </si>
-  <si>
-    <t>PO-6700330</t>
-  </si>
-  <si>
-    <t>PO-6700351</t>
-  </si>
-  <si>
-    <t>PO-6700352</t>
-  </si>
-  <si>
-    <t>PO-6700426</t>
-  </si>
-  <si>
-    <t>PO-6700435</t>
-  </si>
-  <si>
-    <t>PO-6800005</t>
-  </si>
-  <si>
-    <t>PO-6800035</t>
-  </si>
-  <si>
-    <t>PO-6800044</t>
-  </si>
-  <si>
-    <t>PO-6800057</t>
-  </si>
-  <si>
-    <t>PO-6800100</t>
-  </si>
-  <si>
-    <t>PO-6800115</t>
-  </si>
-  <si>
-    <t>PO-6800119</t>
-  </si>
-  <si>
-    <t>PO-6800122</t>
-  </si>
-  <si>
-    <t>PO-6800123</t>
-  </si>
-  <si>
-    <t>PO-6800125</t>
-  </si>
-  <si>
-    <t>PO-6800127</t>
-  </si>
-  <si>
     <t>PD-6700491</t>
   </si>
   <si>
@@ -898,9 +646,6 @@
     <t>BPD-6800226</t>
   </si>
   <si>
-    <t>BPD-6800227</t>
-  </si>
-  <si>
     <t>BPD-6800228</t>
   </si>
   <si>
@@ -931,9 +676,6 @@
     <t>BPD-6800239</t>
   </si>
   <si>
-    <t>BPD-6800241</t>
-  </si>
-  <si>
     <t>BPD-6800242</t>
   </si>
   <si>
@@ -1024,76 +766,34 @@
     <t>BPD-6800278</t>
   </si>
   <si>
-    <t>BPD-6800281</t>
-  </si>
-  <si>
-    <t>BPD-6800282</t>
-  </si>
-  <si>
-    <t>BPD-6800284</t>
-  </si>
-  <si>
-    <t>BPD-6800285</t>
-  </si>
-  <si>
-    <t>BPD-6800286</t>
-  </si>
-  <si>
-    <t>BPD-6800287</t>
-  </si>
-  <si>
-    <t>BPD-6800288</t>
-  </si>
-  <si>
-    <t>BPD-6800289</t>
-  </si>
-  <si>
-    <t>BPD-6800290</t>
-  </si>
-  <si>
-    <t>BPD-6800291</t>
-  </si>
-  <si>
-    <t>BPD-6800292</t>
-  </si>
-  <si>
-    <t>BPD-6800293</t>
-  </si>
-  <si>
-    <t>BPD-6800294</t>
-  </si>
-  <si>
-    <t>BPD-6800295</t>
-  </si>
-  <si>
-    <t>BPD-6800297</t>
-  </si>
-  <si>
-    <t>BPD-6800299</t>
-  </si>
-  <si>
-    <t>BPD-6800302</t>
-  </si>
-  <si>
-    <t>BPD-6800303</t>
-  </si>
-  <si>
-    <t>BPD-6800304</t>
-  </si>
-  <si>
-    <t>BPD-6800305</t>
-  </si>
-  <si>
-    <t>BPD-6800307</t>
-  </si>
-  <si>
-    <t>BPD-6800309</t>
-  </si>
-  <si>
-    <t>BPD-6800311</t>
-  </si>
-  <si>
-    <t>BPD-6800312</t>
+    <t>PD-6800204</t>
+  </si>
+  <si>
+    <t>PD-6800195</t>
+  </si>
+  <si>
+    <t>PD-6800188</t>
+  </si>
+  <si>
+    <t>PD-6800189</t>
+  </si>
+  <si>
+    <t>PD-6800190</t>
+  </si>
+  <si>
+    <t>PD-6800191</t>
+  </si>
+  <si>
+    <t>PD-6800196</t>
+  </si>
+  <si>
+    <t>PD-6800197</t>
+  </si>
+  <si>
+    <t>PD-6800198</t>
+  </si>
+  <si>
+    <t>PD-6800200</t>
   </si>
 </sst>
 </file>
@@ -1492,10 +1192,10 @@
   <dimension ref="A1:B6148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C885" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C887" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B887" sqref="B887"/>
+      <selection pane="bottomRight" activeCell="E906" sqref="E906"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1522,7 +1222,7 @@
     </row>
     <row r="3" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>80</v>
@@ -1538,7 +1238,7 @@
     </row>
     <row r="5" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>80</v>
@@ -1546,7 +1246,7 @@
     </row>
     <row r="6" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>80</v>
@@ -1554,7 +1254,7 @@
     </row>
     <row r="7" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>80</v>
@@ -1610,7 +1310,7 @@
     </row>
     <row r="14" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>80</v>
@@ -1618,7 +1318,7 @@
     </row>
     <row r="15" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>80</v>
@@ -1626,7 +1326,7 @@
     </row>
     <row r="16" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>80</v>
@@ -1642,7 +1342,7 @@
     </row>
     <row r="18" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>80</v>
@@ -1650,7 +1350,7 @@
     </row>
     <row r="19" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>80</v>
@@ -1658,7 +1358,7 @@
     </row>
     <row r="20" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>80</v>
@@ -1666,7 +1366,7 @@
     </row>
     <row r="21" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>80</v>
@@ -1674,7 +1374,7 @@
     </row>
     <row r="22" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>80</v>
@@ -1682,7 +1382,7 @@
     </row>
     <row r="23" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>80</v>
@@ -1690,7 +1390,7 @@
     </row>
     <row r="24" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>80</v>
@@ -1698,7 +1398,7 @@
     </row>
     <row r="25" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>80</v>
@@ -1706,7 +1406,7 @@
     </row>
     <row r="26" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>80</v>
@@ -1714,7 +1414,7 @@
     </row>
     <row r="27" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>80</v>
@@ -1906,7 +1606,7 @@
     </row>
     <row r="51" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>80</v>
@@ -1914,7 +1614,7 @@
     </row>
     <row r="52" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>80</v>
@@ -1922,7 +1622,7 @@
     </row>
     <row r="53" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>80</v>
@@ -1930,7 +1630,7 @@
     </row>
     <row r="54" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>80</v>
@@ -1938,7 +1638,7 @@
     </row>
     <row r="55" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>80</v>
@@ -1946,7 +1646,7 @@
     </row>
     <row r="56" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>80</v>
@@ -1962,7 +1662,7 @@
     </row>
     <row r="58" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>80</v>
@@ -2002,7 +1702,7 @@
     </row>
     <row r="63" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>80</v>
@@ -2010,7 +1710,7 @@
     </row>
     <row r="64" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>80</v>
@@ -2050,7 +1750,7 @@
     </row>
     <row r="69" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>80</v>
@@ -2074,7 +1774,7 @@
     </row>
     <row r="72" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>80</v>
@@ -2098,7 +1798,7 @@
     </row>
     <row r="75" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>80</v>
@@ -2122,7 +1822,7 @@
     </row>
     <row r="78" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>80</v>
@@ -2130,7 +1830,7 @@
     </row>
     <row r="79" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>80</v>
@@ -2482,7 +2182,7 @@
     </row>
     <row r="123" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>80</v>
@@ -2490,7 +2190,7 @@
     </row>
     <row r="124" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>80</v>
@@ -2498,7 +2198,7 @@
     </row>
     <row r="125" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>80</v>
@@ -2506,7 +2206,7 @@
     </row>
     <row r="126" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>80</v>
@@ -2514,7 +2214,7 @@
     </row>
     <row r="127" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>80</v>
@@ -2522,7 +2222,7 @@
     </row>
     <row r="128" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>80</v>
@@ -2530,7 +2230,7 @@
     </row>
     <row r="129" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>80</v>
@@ -2538,7 +2238,7 @@
     </row>
     <row r="130" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>80</v>
@@ -2546,7 +2246,7 @@
     </row>
     <row r="131" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>80</v>
@@ -2554,7 +2254,7 @@
     </row>
     <row r="132" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>80</v>
@@ -2562,7 +2262,7 @@
     </row>
     <row r="133" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>80</v>
@@ -2570,7 +2270,7 @@
     </row>
     <row r="134" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>80</v>
@@ -2578,7 +2278,7 @@
     </row>
     <row r="135" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>80</v>
@@ -2586,7 +2286,7 @@
     </row>
     <row r="136" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>80</v>
@@ -2594,7 +2294,7 @@
     </row>
     <row r="137" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>80</v>
@@ -2602,7 +2302,7 @@
     </row>
     <row r="138" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>80</v>
@@ -2610,7 +2310,7 @@
     </row>
     <row r="139" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>80</v>
@@ -2618,7 +2318,7 @@
     </row>
     <row r="140" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>80</v>
@@ -2626,7 +2326,7 @@
     </row>
     <row r="141" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>80</v>
@@ -2634,7 +2334,7 @@
     </row>
     <row r="142" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>80</v>
@@ -2642,7 +2342,7 @@
     </row>
     <row r="143" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>80</v>
@@ -2650,7 +2350,7 @@
     </row>
     <row r="144" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>80</v>
@@ -2658,7 +2358,7 @@
     </row>
     <row r="145" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>80</v>
@@ -2666,7 +2366,7 @@
     </row>
     <row r="146" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>80</v>
@@ -2674,7 +2374,7 @@
     </row>
     <row r="147" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>80</v>
@@ -2682,7 +2382,7 @@
     </row>
     <row r="148" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>80</v>
@@ -2690,7 +2390,7 @@
     </row>
     <row r="149" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>80</v>
@@ -2698,7 +2398,7 @@
     </row>
     <row r="150" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>80</v>
@@ -2706,7 +2406,7 @@
     </row>
     <row r="151" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>80</v>
@@ -2714,7 +2414,7 @@
     </row>
     <row r="152" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>80</v>
@@ -2722,7 +2422,7 @@
     </row>
     <row r="153" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>80</v>
@@ -2730,7 +2430,7 @@
     </row>
     <row r="154" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>80</v>
@@ -2738,7 +2438,7 @@
     </row>
     <row r="155" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>80</v>
@@ -2746,7 +2446,7 @@
     </row>
     <row r="156" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>80</v>
@@ -2754,7 +2454,7 @@
     </row>
     <row r="157" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>80</v>
@@ -2762,7 +2462,7 @@
     </row>
     <row r="158" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>80</v>
@@ -2770,7 +2470,7 @@
     </row>
     <row r="159" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>80</v>
@@ -2778,7 +2478,7 @@
     </row>
     <row r="160" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>80</v>
@@ -2786,7 +2486,7 @@
     </row>
     <row r="161" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>80</v>
@@ -2794,7 +2494,7 @@
     </row>
     <row r="162" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>80</v>
@@ -2802,7 +2502,7 @@
     </row>
     <row r="163" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>80</v>
@@ -2810,7 +2510,7 @@
     </row>
     <row r="164" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>80</v>
@@ -2818,7 +2518,7 @@
     </row>
     <row r="165" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>80</v>
@@ -2826,7 +2526,7 @@
     </row>
     <row r="166" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>80</v>
@@ -2834,7 +2534,7 @@
     </row>
     <row r="167" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>80</v>
@@ -2842,7 +2542,7 @@
     </row>
     <row r="168" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>80</v>
@@ -2850,7 +2550,7 @@
     </row>
     <row r="169" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>80</v>
@@ -2858,7 +2558,7 @@
     </row>
     <row r="170" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>80</v>
@@ -2866,7 +2566,7 @@
     </row>
     <row r="171" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>80</v>
@@ -2874,7 +2574,7 @@
     </row>
     <row r="172" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>80</v>
@@ -2882,7 +2582,7 @@
     </row>
     <row r="173" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>80</v>
@@ -2890,7 +2590,7 @@
     </row>
     <row r="174" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>80</v>
@@ -2898,7 +2598,7 @@
     </row>
     <row r="175" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>80</v>
@@ -2906,7 +2606,7 @@
     </row>
     <row r="176" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>80</v>
@@ -2914,7 +2614,7 @@
     </row>
     <row r="177" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>80</v>
@@ -2922,7 +2622,7 @@
     </row>
     <row r="178" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>80</v>
@@ -2930,7 +2630,7 @@
     </row>
     <row r="179" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>80</v>
@@ -2938,7 +2638,7 @@
     </row>
     <row r="180" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>80</v>
@@ -2946,7 +2646,7 @@
     </row>
     <row r="181" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>80</v>
@@ -2954,7 +2654,7 @@
     </row>
     <row r="182" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>80</v>
@@ -2962,7 +2662,7 @@
     </row>
     <row r="183" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>80</v>
@@ -2970,7 +2670,7 @@
     </row>
     <row r="184" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>80</v>
@@ -2978,7 +2678,7 @@
     </row>
     <row r="185" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>80</v>
@@ -2986,7 +2686,7 @@
     </row>
     <row r="186" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>80</v>
@@ -2994,7 +2694,7 @@
     </row>
     <row r="187" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>80</v>
@@ -3002,7 +2702,7 @@
     </row>
     <row r="188" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>80</v>
@@ -3010,7 +2710,7 @@
     </row>
     <row r="189" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>80</v>
@@ -3018,7 +2718,7 @@
     </row>
     <row r="190" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>80</v>
@@ -3026,7 +2726,7 @@
     </row>
     <row r="191" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>80</v>
@@ -3034,7 +2734,7 @@
     </row>
     <row r="192" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>80</v>
@@ -3042,7 +2742,7 @@
     </row>
     <row r="193" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>80</v>
@@ -3050,7 +2750,7 @@
     </row>
     <row r="194" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>80</v>
@@ -3058,7 +2758,7 @@
     </row>
     <row r="195" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>80</v>
@@ -3066,7 +2766,7 @@
     </row>
     <row r="196" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>80</v>
@@ -3074,7 +2774,7 @@
     </row>
     <row r="197" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>80</v>
@@ -3082,7 +2782,7 @@
     </row>
     <row r="198" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>80</v>
@@ -3090,7 +2790,7 @@
     </row>
     <row r="199" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>80</v>
@@ -3098,7 +2798,7 @@
     </row>
     <row r="200" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>80</v>
@@ -3106,7 +2806,7 @@
     </row>
     <row r="201" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>80</v>
@@ -3114,7 +2814,7 @@
     </row>
     <row r="202" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>80</v>
@@ -3122,7 +2822,7 @@
     </row>
     <row r="203" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>80</v>
@@ -3130,7 +2830,7 @@
     </row>
     <row r="204" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>80</v>
@@ -3138,7 +2838,7 @@
     </row>
     <row r="205" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>80</v>
@@ -3146,7 +2846,7 @@
     </row>
     <row r="206" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>80</v>
@@ -3154,7 +2854,7 @@
     </row>
     <row r="207" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>80</v>
@@ -3162,7 +2862,7 @@
     </row>
     <row r="208" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>80</v>
@@ -3170,7 +2870,7 @@
     </row>
     <row r="209" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>80</v>
@@ -3178,7 +2878,7 @@
     </row>
     <row r="210" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>80</v>
@@ -3186,7 +2886,7 @@
     </row>
     <row r="211" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>80</v>
@@ -3194,7 +2894,7 @@
     </row>
     <row r="212" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>80</v>
@@ -3202,7 +2902,7 @@
     </row>
     <row r="213" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>80</v>
@@ -3210,7 +2910,7 @@
     </row>
     <row r="214" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>80</v>
@@ -3218,7 +2918,7 @@
     </row>
     <row r="215" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>80</v>
@@ -3226,7 +2926,7 @@
     </row>
     <row r="216" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>80</v>
@@ -3234,7 +2934,7 @@
     </row>
     <row r="217" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>80</v>
@@ -3242,7 +2942,7 @@
     </row>
     <row r="218" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>80</v>
@@ -3250,7 +2950,7 @@
     </row>
     <row r="219" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>80</v>
@@ -3258,7 +2958,7 @@
     </row>
     <row r="220" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>80</v>
@@ -3266,7 +2966,7 @@
     </row>
     <row r="221" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>80</v>
@@ -3274,7 +2974,7 @@
     </row>
     <row r="222" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>80</v>
@@ -3282,7 +2982,7 @@
     </row>
     <row r="223" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>80</v>
@@ -3290,7 +2990,7 @@
     </row>
     <row r="224" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>80</v>
@@ -3298,7 +2998,7 @@
     </row>
     <row r="225" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>80</v>
@@ -3306,7 +3006,7 @@
     </row>
     <row r="226" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>80</v>
@@ -3314,7 +3014,7 @@
     </row>
     <row r="227" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>80</v>
@@ -3322,7 +3022,7 @@
     </row>
     <row r="228" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>80</v>
@@ -3330,7 +3030,7 @@
     </row>
     <row r="229" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>80</v>
@@ -3338,7 +3038,7 @@
     </row>
     <row r="230" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>80</v>
@@ -3346,7 +3046,7 @@
     </row>
     <row r="231" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>80</v>
@@ -3354,7 +3054,7 @@
     </row>
     <row r="232" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>80</v>
@@ -3362,7 +3062,7 @@
     </row>
     <row r="233" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>80</v>
@@ -3370,7 +3070,7 @@
     </row>
     <row r="234" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>80</v>
@@ -3378,7 +3078,7 @@
     </row>
     <row r="235" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>80</v>
@@ -3386,7 +3086,7 @@
     </row>
     <row r="236" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>80</v>
@@ -3394,7 +3094,7 @@
     </row>
     <row r="237" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>80</v>
@@ -3402,7 +3102,7 @@
     </row>
     <row r="238" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>80</v>
@@ -3410,7 +3110,7 @@
     </row>
     <row r="239" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>80</v>
@@ -3418,7 +3118,7 @@
     </row>
     <row r="240" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>80</v>
@@ -3426,7 +3126,7 @@
     </row>
     <row r="241" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>80</v>
@@ -3434,7 +3134,7 @@
     </row>
     <row r="242" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>80</v>
@@ -3442,7 +3142,7 @@
     </row>
     <row r="243" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>80</v>
@@ -3450,7 +3150,7 @@
     </row>
     <row r="244" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>80</v>
@@ -3458,7 +3158,7 @@
     </row>
     <row r="245" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>80</v>
@@ -3466,7 +3166,7 @@
     </row>
     <row r="246" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>80</v>
@@ -3474,7 +3174,7 @@
     </row>
     <row r="247" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>80</v>
@@ -3482,7 +3182,7 @@
     </row>
     <row r="248" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>80</v>
@@ -3490,7 +3190,7 @@
     </row>
     <row r="249" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>80</v>
@@ -3498,7 +3198,7 @@
     </row>
     <row r="250" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>80</v>
@@ -3506,7 +3206,7 @@
     </row>
     <row r="251" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>80</v>
@@ -3514,7 +3214,7 @@
     </row>
     <row r="252" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>80</v>
@@ -3522,7 +3222,7 @@
     </row>
     <row r="253" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>80</v>
@@ -3530,7 +3230,7 @@
     </row>
     <row r="254" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>80</v>
@@ -3538,7 +3238,7 @@
     </row>
     <row r="255" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>80</v>
@@ -3546,7 +3246,7 @@
     </row>
     <row r="256" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>80</v>
@@ -3554,7 +3254,7 @@
     </row>
     <row r="257" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>80</v>
@@ -3562,7 +3262,7 @@
     </row>
     <row r="258" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>80</v>
@@ -3570,7 +3270,7 @@
     </row>
     <row r="259" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>80</v>
@@ -3578,7 +3278,7 @@
     </row>
     <row r="260" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>80</v>
@@ -3586,7 +3286,7 @@
     </row>
     <row r="261" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>80</v>
@@ -3594,7 +3294,7 @@
     </row>
     <row r="262" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>80</v>
@@ -3602,7 +3302,7 @@
     </row>
     <row r="263" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>80</v>
@@ -3610,7 +3310,7 @@
     </row>
     <row r="264" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>80</v>
@@ -3618,7 +3318,7 @@
     </row>
     <row r="265" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>80</v>
@@ -3626,7 +3326,7 @@
     </row>
     <row r="266" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>80</v>
@@ -3634,7 +3334,7 @@
     </row>
     <row r="267" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>80</v>
@@ -3642,7 +3342,7 @@
     </row>
     <row r="268" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>80</v>
@@ -3650,7 +3350,7 @@
     </row>
     <row r="269" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>80</v>
@@ -3658,7 +3358,7 @@
     </row>
     <row r="270" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>80</v>
@@ -3666,7 +3366,7 @@
     </row>
     <row r="271" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>80</v>
@@ -3674,7 +3374,7 @@
     </row>
     <row r="272" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>80</v>
@@ -3682,7 +3382,7 @@
     </row>
     <row r="273" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>80</v>
@@ -3690,7 +3390,7 @@
     </row>
     <row r="274" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>80</v>
@@ -3698,7 +3398,7 @@
     </row>
     <row r="275" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>80</v>
@@ -3706,7 +3406,7 @@
     </row>
     <row r="276" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>80</v>
@@ -3714,7 +3414,7 @@
     </row>
     <row r="277" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>80</v>
@@ -3722,7 +3422,7 @@
     </row>
     <row r="278" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>80</v>
@@ -3730,7 +3430,7 @@
     </row>
     <row r="279" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>80</v>
@@ -3738,7 +3438,7 @@
     </row>
     <row r="280" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>80</v>
@@ -3746,7 +3446,7 @@
     </row>
     <row r="281" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>80</v>
@@ -3754,7 +3454,7 @@
     </row>
     <row r="282" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>80</v>
@@ -3762,7 +3462,7 @@
     </row>
     <row r="283" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>80</v>
@@ -3770,7 +3470,7 @@
     </row>
     <row r="284" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>80</v>
@@ -3778,7 +3478,7 @@
     </row>
     <row r="285" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>80</v>
@@ -3786,7 +3486,7 @@
     </row>
     <row r="286" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>80</v>
@@ -3794,7 +3494,7 @@
     </row>
     <row r="287" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>80</v>
@@ -3802,7 +3502,7 @@
     </row>
     <row r="288" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>80</v>
@@ -3810,7 +3510,7 @@
     </row>
     <row r="289" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>80</v>
@@ -3818,7 +3518,7 @@
     </row>
     <row r="290" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>80</v>
@@ -3826,7 +3526,7 @@
     </row>
     <row r="291" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>80</v>
@@ -3834,7 +3534,7 @@
     </row>
     <row r="292" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>141</v>
+        <v>230</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>80</v>
@@ -3842,7 +3542,7 @@
     </row>
     <row r="293" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>80</v>
@@ -3850,7 +3550,7 @@
     </row>
     <row r="294" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>80</v>
@@ -3858,7 +3558,7 @@
     </row>
     <row r="295" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>80</v>
@@ -3866,7 +3566,7 @@
     </row>
     <row r="296" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>80</v>
@@ -3874,7 +3574,7 @@
     </row>
     <row r="297" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>80</v>
@@ -3882,7 +3582,7 @@
     </row>
     <row r="298" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>80</v>
@@ -3890,7 +3590,7 @@
     </row>
     <row r="299" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>80</v>
@@ -3898,7 +3598,7 @@
     </row>
     <row r="300" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>80</v>
@@ -3906,7 +3606,7 @@
     </row>
     <row r="301" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>80</v>
@@ -3914,7 +3614,7 @@
     </row>
     <row r="302" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>80</v>
@@ -3922,7 +3622,7 @@
     </row>
     <row r="303" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>80</v>
@@ -3930,7 +3630,7 @@
     </row>
     <row r="304" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>80</v>
@@ -3938,7 +3638,7 @@
     </row>
     <row r="305" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>80</v>
@@ -3946,7 +3646,7 @@
     </row>
     <row r="306" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>80</v>
@@ -3954,7 +3654,7 @@
     </row>
     <row r="307" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>80</v>
@@ -3962,7 +3662,7 @@
     </row>
     <row r="308" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>80</v>
@@ -3970,7 +3670,7 @@
     </row>
     <row r="309" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>80</v>
@@ -3978,7 +3678,7 @@
     </row>
     <row r="310" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>80</v>
@@ -3986,7 +3686,7 @@
     </row>
     <row r="311" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>80</v>
@@ -3994,7 +3694,7 @@
     </row>
     <row r="312" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>80</v>
@@ -4002,7 +3702,7 @@
     </row>
     <row r="313" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>80</v>
@@ -4010,7 +3710,7 @@
     </row>
     <row r="314" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>80</v>
@@ -4018,7 +3718,7 @@
     </row>
     <row r="315" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>80</v>
@@ -4026,7 +3726,7 @@
     </row>
     <row r="316" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>80</v>
@@ -4034,7 +3734,7 @@
     </row>
     <row r="317" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>80</v>
@@ -4042,7 +3742,7 @@
     </row>
     <row r="318" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>80</v>
@@ -4050,7 +3750,7 @@
     </row>
     <row r="319" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>142</v>
+        <v>239</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>80</v>
@@ -4058,7 +3758,7 @@
     </row>
     <row r="320" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>80</v>
@@ -4066,7 +3766,7 @@
     </row>
     <row r="321" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>142</v>
+        <v>241</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>80</v>
@@ -4074,7 +3774,7 @@
     </row>
     <row r="322" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>80</v>
@@ -4082,7 +3782,7 @@
     </row>
     <row r="323" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>80</v>
@@ -4090,7 +3790,7 @@
     </row>
     <row r="324" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>80</v>
@@ -4098,7 +3798,7 @@
     </row>
     <row r="325" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>80</v>
@@ -4106,7 +3806,7 @@
     </row>
     <row r="326" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>80</v>
@@ -4114,7 +3814,7 @@
     </row>
     <row r="327" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>80</v>
@@ -4122,7 +3822,7 @@
     </row>
     <row r="328" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>80</v>
@@ -4130,7 +3830,7 @@
     </row>
     <row r="329" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>80</v>
@@ -4138,7 +3838,7 @@
     </row>
     <row r="330" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>80</v>
@@ -4146,7 +3846,7 @@
     </row>
     <row r="331" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>80</v>
@@ -4154,7 +3854,7 @@
     </row>
     <row r="332" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>80</v>
@@ -4162,7 +3862,7 @@
     </row>
     <row r="333" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>80</v>
@@ -4170,7 +3870,7 @@
     </row>
     <row r="334" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>80</v>
@@ -4178,7 +3878,7 @@
     </row>
     <row r="335" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>80</v>
@@ -4186,7 +3886,7 @@
     </row>
     <row r="336" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>80</v>
@@ -4194,7 +3894,7 @@
     </row>
     <row r="337" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>80</v>
@@ -4202,7 +3902,7 @@
     </row>
     <row r="338" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>80</v>
@@ -4218,7 +3918,7 @@
     </row>
     <row r="340" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>80</v>
@@ -4226,7 +3926,7 @@
     </row>
     <row r="341" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>80</v>
@@ -4234,7 +3934,7 @@
     </row>
     <row r="342" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>80</v>
@@ -4242,7 +3942,7 @@
     </row>
     <row r="343" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>80</v>
@@ -4250,7 +3950,7 @@
     </row>
     <row r="344" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>80</v>
@@ -4258,7 +3958,7 @@
     </row>
     <row r="345" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>80</v>
@@ -4266,7 +3966,7 @@
     </row>
     <row r="346" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>80</v>
@@ -4274,7 +3974,7 @@
     </row>
     <row r="347" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>80</v>
@@ -4282,7 +3982,7 @@
     </row>
     <row r="348" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>80</v>
@@ -4290,7 +3990,7 @@
     </row>
     <row r="349" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>80</v>
@@ -4298,7 +3998,7 @@
     </row>
     <row r="350" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>80</v>
@@ -4306,7 +4006,7 @@
     </row>
     <row r="351" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>80</v>
@@ -4314,7 +4014,7 @@
     </row>
     <row r="352" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>80</v>
@@ -4322,7 +4022,7 @@
     </row>
     <row r="353" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>80</v>
@@ -4330,7 +4030,7 @@
     </row>
     <row r="354" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>80</v>
@@ -4338,7 +4038,7 @@
     </row>
     <row r="355" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>80</v>
@@ -4346,7 +4046,7 @@
     </row>
     <row r="356" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>80</v>
@@ -4354,7 +4054,7 @@
     </row>
     <row r="357" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>80</v>
@@ -4362,7 +4062,7 @@
     </row>
     <row r="358" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>80</v>
@@ -4370,7 +4070,7 @@
     </row>
     <row r="359" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>80</v>
@@ -4378,7 +4078,7 @@
     </row>
     <row r="360" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>80</v>
@@ -4386,7 +4086,7 @@
     </row>
     <row r="361" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>80</v>
@@ -4394,7 +4094,7 @@
     </row>
     <row r="362" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>80</v>
@@ -4402,7 +4102,7 @@
     </row>
     <row r="363" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>80</v>
@@ -4410,7 +4110,7 @@
     </row>
     <row r="364" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>80</v>
@@ -4418,7 +4118,7 @@
     </row>
     <row r="365" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>80</v>
@@ -4426,7 +4126,7 @@
     </row>
     <row r="366" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>80</v>
@@ -4434,7 +4134,7 @@
     </row>
     <row r="367" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>80</v>
@@ -4442,7 +4142,7 @@
     </row>
     <row r="368" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>80</v>
@@ -4450,7 +4150,7 @@
     </row>
     <row r="369" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>80</v>
@@ -4458,7 +4158,7 @@
     </row>
     <row r="370" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>80</v>
@@ -4466,7 +4166,7 @@
     </row>
     <row r="371" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>80</v>
@@ -4474,7 +4174,7 @@
     </row>
     <row r="372" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>80</v>
@@ -4482,7 +4182,7 @@
     </row>
     <row r="373" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>80</v>
@@ -4490,7 +4190,7 @@
     </row>
     <row r="374" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>80</v>
@@ -4498,7 +4198,7 @@
     </row>
     <row r="375" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>80</v>
@@ -4506,7 +4206,7 @@
     </row>
     <row r="376" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>80</v>
@@ -4514,7 +4214,7 @@
     </row>
     <row r="377" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>80</v>
@@ -4522,7 +4222,7 @@
     </row>
     <row r="378" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>80</v>
@@ -4530,7 +4230,7 @@
     </row>
     <row r="379" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>80</v>
@@ -4538,7 +4238,7 @@
     </row>
     <row r="380" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>80</v>
@@ -4546,7 +4246,7 @@
     </row>
     <row r="381" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>80</v>
@@ -4554,7 +4254,7 @@
     </row>
     <row r="382" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>80</v>
@@ -4562,7 +4262,7 @@
     </row>
     <row r="383" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>80</v>
@@ -4570,7 +4270,7 @@
     </row>
     <row r="384" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>80</v>
@@ -4578,7 +4278,7 @@
     </row>
     <row r="385" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>80</v>
@@ -4586,7 +4286,7 @@
     </row>
     <row r="386" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>80</v>
@@ -4594,7 +4294,7 @@
     </row>
     <row r="387" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>80</v>
@@ -4602,7 +4302,7 @@
     </row>
     <row r="388" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>80</v>
@@ -4610,7 +4310,7 @@
     </row>
     <row r="389" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>80</v>
@@ -4618,7 +4318,7 @@
     </row>
     <row r="390" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>80</v>
@@ -4626,7 +4326,7 @@
     </row>
     <row r="391" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>80</v>
@@ -4634,7 +4334,7 @@
     </row>
     <row r="392" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>80</v>
@@ -4642,7 +4342,7 @@
     </row>
     <row r="393" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>80</v>
@@ -4650,7 +4350,7 @@
     </row>
     <row r="394" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>80</v>
@@ -4658,7 +4358,7 @@
     </row>
     <row r="395" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>80</v>
@@ -4666,7 +4366,7 @@
     </row>
     <row r="396" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>80</v>
@@ -4674,7 +4374,7 @@
     </row>
     <row r="397" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>80</v>
@@ -4682,7 +4382,7 @@
     </row>
     <row r="398" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>80</v>
@@ -4690,7 +4390,7 @@
     </row>
     <row r="399" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>80</v>
@@ -4698,7 +4398,7 @@
     </row>
     <row r="400" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>80</v>
@@ -4706,7 +4406,7 @@
     </row>
     <row r="401" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>80</v>
@@ -4714,7 +4414,7 @@
     </row>
     <row r="402" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>80</v>
@@ -4722,7 +4422,7 @@
     </row>
     <row r="403" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>80</v>
@@ -4730,7 +4430,7 @@
     </row>
     <row r="404" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>80</v>
@@ -4738,7 +4438,7 @@
     </row>
     <row r="405" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>80</v>
@@ -4746,7 +4446,7 @@
     </row>
     <row r="406" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>80</v>
@@ -4754,7 +4454,7 @@
     </row>
     <row r="407" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>80</v>
@@ -4762,7 +4462,7 @@
     </row>
     <row r="408" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>80</v>
@@ -4770,7 +4470,7 @@
     </row>
     <row r="409" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>80</v>
@@ -4778,7 +4478,7 @@
     </row>
     <row r="410" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>80</v>
@@ -4786,7 +4486,7 @@
     </row>
     <row r="411" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>80</v>
@@ -4794,7 +4494,7 @@
     </row>
     <row r="412" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>80</v>
@@ -4802,7 +4502,7 @@
     </row>
     <row r="413" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>80</v>
@@ -4810,7 +4510,7 @@
     </row>
     <row r="414" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>80</v>
@@ -4818,7 +4518,7 @@
     </row>
     <row r="415" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>80</v>
@@ -4826,7 +4526,7 @@
     </row>
     <row r="416" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>80</v>
@@ -4834,7 +4534,7 @@
     </row>
     <row r="417" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>80</v>
@@ -4842,7 +4542,7 @@
     </row>
     <row r="418" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>80</v>
@@ -4850,7 +4550,7 @@
     </row>
     <row r="419" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>80</v>
@@ -4858,7 +4558,7 @@
     </row>
     <row r="420" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>80</v>
@@ -4866,7 +4566,7 @@
     </row>
     <row r="421" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>80</v>
@@ -4874,7 +4574,7 @@
     </row>
     <row r="422" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>80</v>
@@ -4882,7 +4582,7 @@
     </row>
     <row r="423" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>80</v>
@@ -4890,7 +4590,7 @@
     </row>
     <row r="424" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>80</v>
@@ -4898,7 +4598,7 @@
     </row>
     <row r="425" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>80</v>
@@ -4906,7 +4606,7 @@
     </row>
     <row r="426" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>80</v>
@@ -4914,7 +4614,7 @@
     </row>
     <row r="427" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>80</v>
@@ -4922,7 +4622,7 @@
     </row>
     <row r="428" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>80</v>
@@ -4930,7 +4630,7 @@
     </row>
     <row r="429" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>80</v>
@@ -4938,7 +4638,7 @@
     </row>
     <row r="430" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>80</v>
@@ -4946,7 +4646,7 @@
     </row>
     <row r="431" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>80</v>
@@ -4954,7 +4654,7 @@
     </row>
     <row r="432" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>80</v>
@@ -4962,7 +4662,7 @@
     </row>
     <row r="433" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>80</v>
@@ -4970,7 +4670,7 @@
     </row>
     <row r="434" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>80</v>
@@ -4978,7 +4678,7 @@
     </row>
     <row r="435" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>80</v>
@@ -4986,7 +4686,7 @@
     </row>
     <row r="436" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>80</v>
@@ -4994,7 +4694,7 @@
     </row>
     <row r="437" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>80</v>
@@ -5002,7 +4702,7 @@
     </row>
     <row r="438" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>80</v>
@@ -5010,7 +4710,7 @@
     </row>
     <row r="439" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>80</v>
@@ -5018,7 +4718,7 @@
     </row>
     <row r="440" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>80</v>
@@ -5026,7 +4726,7 @@
     </row>
     <row r="441" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>80</v>
@@ -5034,7 +4734,7 @@
     </row>
     <row r="442" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>80</v>
@@ -5042,7 +4742,7 @@
     </row>
     <row r="443" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>80</v>
@@ -5050,7 +4750,7 @@
     </row>
     <row r="444" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>80</v>
@@ -5058,7 +4758,7 @@
     </row>
     <row r="445" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>80</v>
@@ -5066,7 +4766,7 @@
     </row>
     <row r="446" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>80</v>
@@ -5074,7 +4774,7 @@
     </row>
     <row r="447" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>80</v>
@@ -5082,7 +4782,7 @@
     </row>
     <row r="448" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>80</v>
@@ -5090,7 +4790,7 @@
     </row>
     <row r="449" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>80</v>
@@ -5098,7 +4798,7 @@
     </row>
     <row r="450" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>80</v>
@@ -5106,7 +4806,7 @@
     </row>
     <row r="451" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>80</v>
@@ -5114,7 +4814,7 @@
     </row>
     <row r="452" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>80</v>
@@ -5122,7 +4822,7 @@
     </row>
     <row r="453" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>80</v>
@@ -5130,7 +4830,7 @@
     </row>
     <row r="454" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>80</v>
@@ -5138,7 +4838,7 @@
     </row>
     <row r="455" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>80</v>
@@ -5146,7 +4846,7 @@
     </row>
     <row r="456" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>80</v>
@@ -5154,7 +4854,7 @@
     </row>
     <row r="457" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>80</v>
@@ -5162,7 +4862,7 @@
     </row>
     <row r="458" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>80</v>
@@ -5170,7 +4870,7 @@
     </row>
     <row r="459" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>80</v>
@@ -5178,7 +4878,7 @@
     </row>
     <row r="460" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>80</v>
@@ -5186,7 +4886,7 @@
     </row>
     <row r="461" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>80</v>
@@ -5194,7 +4894,7 @@
     </row>
     <row r="462" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>80</v>
@@ -5202,7 +4902,7 @@
     </row>
     <row r="463" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>80</v>
@@ -5210,7 +4910,7 @@
     </row>
     <row r="464" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>80</v>
@@ -5218,7 +4918,7 @@
     </row>
     <row r="465" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>80</v>
@@ -5226,7 +4926,7 @@
     </row>
     <row r="466" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>178</v>
+        <v>251</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>80</v>
@@ -5234,7 +4934,7 @@
     </row>
     <row r="467" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>80</v>
@@ -5242,7 +4942,7 @@
     </row>
     <row r="468" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>80</v>
@@ -5250,7 +4950,7 @@
     </row>
     <row r="469" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>80</v>
@@ -5258,7 +4958,7 @@
     </row>
     <row r="470" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>80</v>
@@ -5266,7 +4966,7 @@
     </row>
     <row r="471" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>181</v>
+        <v>254</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>80</v>
@@ -5274,7 +4974,7 @@
     </row>
     <row r="472" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>181</v>
+        <v>254</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>80</v>
@@ -5282,7 +4982,7 @@
     </row>
     <row r="473" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>80</v>
@@ -5290,7 +4990,7 @@
     </row>
     <row r="474" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>80</v>
@@ -5298,7 +4998,7 @@
     </row>
     <row r="475" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>80</v>
@@ -5306,7 +5006,7 @@
     </row>
     <row r="476" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>80</v>
@@ -5314,7 +5014,7 @@
     </row>
     <row r="477" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>80</v>
@@ -5322,7 +5022,7 @@
     </row>
     <row r="478" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>80</v>
@@ -5330,7 +5030,7 @@
     </row>
     <row r="479" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>80</v>
@@ -5338,7 +5038,7 @@
     </row>
     <row r="480" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>80</v>
@@ -5346,7 +5046,7 @@
     </row>
     <row r="481" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>80</v>
@@ -5354,3503 +5054,1348 @@
     </row>
     <row r="482" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
-        <v>186</v>
-      </c>
-      <c r="B483" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B483" s="1"/>
     </row>
     <row r="484" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
-        <v>186</v>
-      </c>
-      <c r="B484" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B484" s="1"/>
     </row>
     <row r="485" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
-        <v>186</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B485" s="1"/>
     </row>
     <row r="486" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
-        <v>186</v>
-      </c>
-      <c r="B486" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B486" s="1"/>
     </row>
     <row r="487" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
-        <v>186</v>
-      </c>
-      <c r="B487" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B487" s="1"/>
     </row>
     <row r="488" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
-        <v>186</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B488" s="1"/>
     </row>
     <row r="489" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
-        <v>186</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B489" s="1"/>
     </row>
     <row r="490" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
-        <v>186</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B490" s="1"/>
     </row>
     <row r="491" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
-        <v>47</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B491" s="1"/>
     </row>
     <row r="492" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
-        <v>48</v>
-      </c>
-      <c r="B492" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B492" s="1"/>
     </row>
     <row r="493" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
-        <v>49</v>
-      </c>
-      <c r="B493" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B493" s="1"/>
     </row>
     <row r="494" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
-        <v>49</v>
-      </c>
-      <c r="B494" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B494" s="1"/>
     </row>
     <row r="495" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
-        <v>50</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B495" s="1"/>
     </row>
     <row r="496" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
-        <v>51</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
-        <v>52</v>
-      </c>
-      <c r="B497" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
-        <v>52</v>
-      </c>
-      <c r="B498" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
-        <v>187</v>
-      </c>
-      <c r="B499" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
-        <v>187</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
-        <v>188</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
-        <v>189</v>
-      </c>
-      <c r="B502" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
-        <v>189</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
-        <v>190</v>
-      </c>
-      <c r="B504" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
-        <v>191</v>
-      </c>
-      <c r="B505" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
-        <v>53</v>
-      </c>
-      <c r="B506" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
-        <v>53</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
-        <v>53</v>
-      </c>
-      <c r="B508" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A509" t="s">
-        <v>192</v>
-      </c>
-      <c r="B509" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
-        <v>54</v>
-      </c>
-      <c r="B510" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
-        <v>54</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
-        <v>54</v>
-      </c>
-      <c r="B512" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
-        <v>55</v>
-      </c>
-      <c r="B513" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
-        <v>55</v>
-      </c>
-      <c r="B514" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A515" t="s">
-        <v>55</v>
-      </c>
-      <c r="B515" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
-        <v>193</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
-        <v>56</v>
-      </c>
-      <c r="B517" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A518" t="s">
-        <v>56</v>
-      </c>
-      <c r="B518" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
-        <v>56</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
-        <v>56</v>
-      </c>
-      <c r="B520" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
-        <v>194</v>
-      </c>
-      <c r="B521" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
-        <v>195</v>
-      </c>
-      <c r="B522" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
-        <v>196</v>
-      </c>
-      <c r="B523" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
-        <v>196</v>
-      </c>
-      <c r="B524" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A525" t="s">
-        <v>197</v>
-      </c>
-      <c r="B525" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A526" t="s">
-        <v>198</v>
-      </c>
-      <c r="B526" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A527" t="s">
-        <v>199</v>
-      </c>
-      <c r="B527" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A528" t="s">
-        <v>200</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
-        <v>200</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A530" t="s">
-        <v>201</v>
-      </c>
-      <c r="B530" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
-        <v>201</v>
-      </c>
-      <c r="B531" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
-        <v>201</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
-        <v>201</v>
-      </c>
-      <c r="B533" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
-        <v>202</v>
-      </c>
-      <c r="B534" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
-        <v>203</v>
-      </c>
-      <c r="B535" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
-        <v>204</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
-        <v>204</v>
-      </c>
-      <c r="B537" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
-        <v>205</v>
-      </c>
-      <c r="B538" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
-        <v>206</v>
-      </c>
-      <c r="B539" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A540" t="s">
-        <v>207</v>
-      </c>
-      <c r="B540" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
-        <v>208</v>
-      </c>
-      <c r="B541" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
-        <v>208</v>
-      </c>
-      <c r="B542" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
-        <v>208</v>
-      </c>
-      <c r="B543" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
-        <v>208</v>
-      </c>
-      <c r="B544" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A545" t="s">
-        <v>209</v>
-      </c>
-      <c r="B545" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A546" t="s">
-        <v>209</v>
-      </c>
-      <c r="B546" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A547" t="s">
-        <v>209</v>
-      </c>
-      <c r="B547" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
-        <v>209</v>
-      </c>
-      <c r="B548" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
-        <v>210</v>
-      </c>
-      <c r="B549" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
-        <v>210</v>
-      </c>
-      <c r="B550" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
-        <v>210</v>
-      </c>
-      <c r="B551" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
-        <v>210</v>
-      </c>
-      <c r="B552" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
-        <v>210</v>
-      </c>
-      <c r="B553" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
-        <v>210</v>
-      </c>
-      <c r="B554" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
-        <v>211</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
-        <v>211</v>
-      </c>
-      <c r="B556" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A557" t="s">
-        <v>211</v>
-      </c>
-      <c r="B557" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
-        <v>211</v>
-      </c>
-      <c r="B558" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
-        <v>212</v>
-      </c>
-      <c r="B559" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
-        <v>213</v>
-      </c>
-      <c r="B560" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
-        <v>213</v>
-      </c>
-      <c r="B561" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
-        <v>213</v>
-      </c>
-      <c r="B562" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
-        <v>213</v>
-      </c>
-      <c r="B563" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
-        <v>213</v>
-      </c>
-      <c r="B564" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A565" t="s">
-        <v>213</v>
-      </c>
-      <c r="B565" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A566" t="s">
-        <v>213</v>
-      </c>
-      <c r="B566" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
-        <v>213</v>
-      </c>
-      <c r="B567" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A568" t="s">
-        <v>214</v>
-      </c>
-      <c r="B568" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
-        <v>215</v>
-      </c>
-      <c r="B569" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
-        <v>216</v>
-      </c>
-      <c r="B570" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A571" t="s">
-        <v>217</v>
-      </c>
-      <c r="B571" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
-        <v>218</v>
-      </c>
-      <c r="B572" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
-        <v>219</v>
-      </c>
-      <c r="B573" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
-        <v>220</v>
-      </c>
-      <c r="B574" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A575" t="s">
-        <v>220</v>
-      </c>
-      <c r="B575" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
-        <v>220</v>
-      </c>
-      <c r="B576" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
-        <v>221</v>
-      </c>
-      <c r="B577" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
-        <v>222</v>
-      </c>
-      <c r="B578" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
-        <v>223</v>
-      </c>
-      <c r="B579" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A580" t="s">
-        <v>224</v>
-      </c>
-      <c r="B580" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
-        <v>225</v>
-      </c>
-      <c r="B581" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A582" t="s">
-        <v>225</v>
-      </c>
-      <c r="B582" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A583" t="s">
-        <v>226</v>
-      </c>
-      <c r="B583" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
-        <v>226</v>
-      </c>
-      <c r="B584" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
-        <v>227</v>
-      </c>
-      <c r="B585" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A586" t="s">
-        <v>228</v>
-      </c>
-      <c r="B586" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A587" t="s">
-        <v>228</v>
-      </c>
-      <c r="B587" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A588" t="s">
-        <v>228</v>
-      </c>
-      <c r="B588" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A589" t="s">
-        <v>228</v>
-      </c>
-      <c r="B589" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A590" t="s">
-        <v>229</v>
-      </c>
-      <c r="B590" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A591" t="s">
-        <v>230</v>
-      </c>
-      <c r="B591" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
-        <v>231</v>
-      </c>
-      <c r="B592" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A593" t="s">
-        <v>231</v>
-      </c>
-      <c r="B593" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
-        <v>232</v>
-      </c>
-      <c r="B594" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A595" t="s">
-        <v>233</v>
-      </c>
-      <c r="B595" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
-        <v>233</v>
-      </c>
-      <c r="B596" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A597" t="s">
-        <v>234</v>
-      </c>
-      <c r="B597" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A598" t="s">
-        <v>235</v>
-      </c>
-      <c r="B598" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A599" t="s">
-        <v>236</v>
-      </c>
-      <c r="B599" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A600" t="s">
-        <v>237</v>
-      </c>
-      <c r="B600" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
-        <v>237</v>
-      </c>
-      <c r="B601" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
-        <v>238</v>
-      </c>
-      <c r="B602" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
-        <v>57</v>
-      </c>
-      <c r="B603" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
-        <v>58</v>
-      </c>
-      <c r="B604" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A605" t="s">
-        <v>59</v>
-      </c>
-      <c r="B605" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A606" t="s">
-        <v>59</v>
-      </c>
-      <c r="B606" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A607" t="s">
-        <v>59</v>
-      </c>
-      <c r="B607" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A608" t="s">
-        <v>59</v>
-      </c>
-      <c r="B608" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
-        <v>59</v>
-      </c>
-      <c r="B609" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A610" t="s">
-        <v>59</v>
-      </c>
-      <c r="B610" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A611" t="s">
-        <v>60</v>
-      </c>
-      <c r="B611" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A612" t="s">
-        <v>60</v>
-      </c>
-      <c r="B612" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A613" t="s">
-        <v>60</v>
-      </c>
-      <c r="B613" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A614" t="s">
-        <v>239</v>
-      </c>
-      <c r="B614" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A615" t="s">
-        <v>240</v>
-      </c>
-      <c r="B615" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A616" t="s">
-        <v>240</v>
-      </c>
-      <c r="B616" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A617" t="s">
-        <v>240</v>
-      </c>
-      <c r="B617" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A618" t="s">
-        <v>240</v>
-      </c>
-      <c r="B618" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A619" t="s">
-        <v>241</v>
-      </c>
-      <c r="B619" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A620" t="s">
-        <v>241</v>
-      </c>
-      <c r="B620" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A621" t="s">
-        <v>241</v>
-      </c>
-      <c r="B621" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A622" t="s">
-        <v>61</v>
-      </c>
-      <c r="B622" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A623" t="s">
-        <v>61</v>
-      </c>
-      <c r="B623" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A624" t="s">
-        <v>61</v>
-      </c>
-      <c r="B624" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A625" t="s">
-        <v>61</v>
-      </c>
-      <c r="B625" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A626" t="s">
-        <v>61</v>
-      </c>
-      <c r="B626" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A627" t="s">
-        <v>61</v>
-      </c>
-      <c r="B627" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A628" t="s">
-        <v>61</v>
-      </c>
-      <c r="B628" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A629" t="s">
-        <v>61</v>
-      </c>
-      <c r="B629" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="630" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A630" t="s">
-        <v>61</v>
-      </c>
-      <c r="B630" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A631" t="s">
-        <v>242</v>
-      </c>
-      <c r="B631" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="632" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A632" t="s">
-        <v>243</v>
-      </c>
-      <c r="B632" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="633" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A633" t="s">
-        <v>243</v>
-      </c>
-      <c r="B633" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="634" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A634" t="s">
-        <v>62</v>
-      </c>
-      <c r="B634" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="635" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A635" t="s">
-        <v>63</v>
-      </c>
-      <c r="B635" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A636" t="s">
-        <v>63</v>
-      </c>
-      <c r="B636" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A637" t="s">
-        <v>63</v>
-      </c>
-      <c r="B637" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A638" t="s">
-        <v>64</v>
-      </c>
-      <c r="B638" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A639" t="s">
-        <v>64</v>
-      </c>
-      <c r="B639" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="640" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A640" t="s">
-        <v>64</v>
-      </c>
-      <c r="B640" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="641" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A641" t="s">
-        <v>64</v>
-      </c>
-      <c r="B641" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A642" t="s">
-        <v>64</v>
-      </c>
-      <c r="B642" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="643" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A643" t="s">
-        <v>65</v>
-      </c>
-      <c r="B643" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A644" t="s">
-        <v>244</v>
-      </c>
-      <c r="B644" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A645" t="s">
-        <v>245</v>
-      </c>
-      <c r="B645" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A646" t="s">
-        <v>246</v>
-      </c>
-      <c r="B646" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A647" t="s">
-        <v>247</v>
-      </c>
-      <c r="B647" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A648" t="s">
-        <v>247</v>
-      </c>
-      <c r="B648" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A649" t="s">
-        <v>66</v>
-      </c>
-      <c r="B649" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A650" t="s">
-        <v>66</v>
-      </c>
-      <c r="B650" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A651" t="s">
-        <v>66</v>
-      </c>
-      <c r="B651" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A652" t="s">
-        <v>66</v>
-      </c>
-      <c r="B652" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A653" t="s">
-        <v>66</v>
-      </c>
-      <c r="B653" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A654" t="s">
-        <v>66</v>
-      </c>
-      <c r="B654" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A655" t="s">
-        <v>66</v>
-      </c>
-      <c r="B655" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A656" t="s">
-        <v>248</v>
-      </c>
-      <c r="B656" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="657" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A657" t="s">
-        <v>248</v>
-      </c>
-      <c r="B657" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A658" t="s">
-        <v>249</v>
-      </c>
-      <c r="B658" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A659" t="s">
-        <v>249</v>
-      </c>
-      <c r="B659" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A660" t="s">
-        <v>249</v>
-      </c>
-      <c r="B660" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A661" t="s">
-        <v>249</v>
-      </c>
-      <c r="B661" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A662" t="s">
-        <v>249</v>
-      </c>
-      <c r="B662" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A663" t="s">
-        <v>249</v>
-      </c>
-      <c r="B663" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A664" t="s">
-        <v>249</v>
-      </c>
-      <c r="B664" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A665" t="s">
-        <v>249</v>
-      </c>
-      <c r="B665" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A666" t="s">
-        <v>249</v>
-      </c>
-      <c r="B666" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="667" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A667" t="s">
-        <v>249</v>
-      </c>
-      <c r="B667" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A668" t="s">
-        <v>249</v>
-      </c>
-      <c r="B668" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A669" t="s">
-        <v>249</v>
-      </c>
-      <c r="B669" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A670" t="s">
-        <v>249</v>
-      </c>
-      <c r="B670" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="671" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A671" t="s">
-        <v>249</v>
-      </c>
-      <c r="B671" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="672" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A672" t="s">
-        <v>249</v>
-      </c>
-      <c r="B672" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="673" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A673" t="s">
-        <v>249</v>
-      </c>
-      <c r="B673" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="674" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A674" t="s">
-        <v>249</v>
-      </c>
-      <c r="B674" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="675" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A675" t="s">
-        <v>249</v>
-      </c>
-      <c r="B675" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="676" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A676" t="s">
-        <v>249</v>
-      </c>
-      <c r="B676" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="677" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A677" t="s">
-        <v>249</v>
-      </c>
-      <c r="B677" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="678" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A678" t="s">
-        <v>249</v>
-      </c>
-      <c r="B678" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A679" t="s">
-        <v>250</v>
-      </c>
-      <c r="B679" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="680" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A680" t="s">
-        <v>251</v>
-      </c>
-      <c r="B680" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="681" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A681" t="s">
-        <v>251</v>
-      </c>
-      <c r="B681" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A682" t="s">
-        <v>251</v>
-      </c>
-      <c r="B682" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="683" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A683" t="s">
-        <v>251</v>
-      </c>
-      <c r="B683" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A684" t="s">
-        <v>251</v>
-      </c>
-      <c r="B684" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A685" t="s">
-        <v>251</v>
-      </c>
-      <c r="B685" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A686" t="s">
-        <v>252</v>
-      </c>
-      <c r="B686" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A687" t="s">
-        <v>252</v>
-      </c>
-      <c r="B687" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A688" t="s">
-        <v>67</v>
-      </c>
-      <c r="B688" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A689" t="s">
-        <v>67</v>
-      </c>
-      <c r="B689" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A690" t="s">
-        <v>67</v>
-      </c>
-      <c r="B690" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A691" t="s">
-        <v>67</v>
-      </c>
-      <c r="B691" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A692" t="s">
-        <v>67</v>
-      </c>
-      <c r="B692" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A693" t="s">
-        <v>67</v>
-      </c>
-      <c r="B693" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="694" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A694" t="s">
-        <v>253</v>
-      </c>
-      <c r="B694" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A695" t="s">
-        <v>254</v>
-      </c>
-      <c r="B695" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A696" t="s">
-        <v>255</v>
-      </c>
-      <c r="B696" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="697" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A697" t="s">
-        <v>68</v>
-      </c>
-      <c r="B697" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="698" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A698" t="s">
-        <v>256</v>
-      </c>
-      <c r="B698" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A699" t="s">
-        <v>257</v>
-      </c>
-      <c r="B699" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A700" t="s">
-        <v>257</v>
-      </c>
-      <c r="B700" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A701" t="s">
-        <v>257</v>
-      </c>
-      <c r="B701" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="702" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A702" t="s">
-        <v>258</v>
-      </c>
-      <c r="B702" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A703" t="s">
-        <v>259</v>
-      </c>
-      <c r="B703" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A704" t="s">
-        <v>259</v>
-      </c>
-      <c r="B704" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A705" t="s">
-        <v>259</v>
-      </c>
-      <c r="B705" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A706" t="s">
-        <v>260</v>
-      </c>
-      <c r="B706" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A707" t="s">
-        <v>260</v>
-      </c>
-      <c r="B707" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A708" t="s">
-        <v>260</v>
-      </c>
-      <c r="B708" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A709" t="s">
-        <v>260</v>
-      </c>
-      <c r="B709" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="710" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A710" t="s">
-        <v>260</v>
-      </c>
-      <c r="B710" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="711" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A711" t="s">
-        <v>260</v>
-      </c>
-      <c r="B711" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="712" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A712" t="s">
-        <v>260</v>
-      </c>
-      <c r="B712" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="713" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A713" t="s">
-        <v>260</v>
-      </c>
-      <c r="B713" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A714" t="s">
-        <v>260</v>
-      </c>
-      <c r="B714" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A715" t="s">
-        <v>261</v>
-      </c>
-      <c r="B715" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="716" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A716" t="s">
-        <v>261</v>
-      </c>
-      <c r="B716" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="717" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A717" t="s">
-        <v>262</v>
-      </c>
-      <c r="B717" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A718" t="s">
-        <v>263</v>
-      </c>
-      <c r="B718" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="719" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A719" t="s">
-        <v>264</v>
-      </c>
-      <c r="B719" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="720" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A720" t="s">
-        <v>265</v>
-      </c>
-      <c r="B720" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="721" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A721" t="s">
-        <v>266</v>
-      </c>
-      <c r="B721" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="722" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A722" t="s">
-        <v>267</v>
-      </c>
-      <c r="B722" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="723" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A723" t="s">
-        <v>268</v>
-      </c>
-      <c r="B723" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="724" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A724" t="s">
-        <v>268</v>
-      </c>
-      <c r="B724" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="725" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A725" t="s">
-        <v>269</v>
-      </c>
-      <c r="B725" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="726" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A726" t="s">
-        <v>270</v>
-      </c>
-      <c r="B726" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="727" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A727" t="s">
-        <v>271</v>
-      </c>
-      <c r="B727" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="728" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A728" t="s">
-        <v>272</v>
-      </c>
-      <c r="B728" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="729" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A729" t="s">
-        <v>273</v>
-      </c>
-      <c r="B729" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="730" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A730" t="s">
-        <v>274</v>
-      </c>
-      <c r="B730" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="731" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A731" t="s">
-        <v>274</v>
-      </c>
-      <c r="B731" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A732" t="s">
-        <v>274</v>
-      </c>
-      <c r="B732" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A733" t="s">
-        <v>274</v>
-      </c>
-      <c r="B733" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="734" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A734" t="s">
-        <v>275</v>
-      </c>
-      <c r="B734" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="735" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A735" t="s">
-        <v>275</v>
-      </c>
-      <c r="B735" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A736" t="s">
-        <v>276</v>
-      </c>
-      <c r="B736" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="737" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A737" t="s">
-        <v>277</v>
-      </c>
-      <c r="B737" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="738" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A738" t="s">
-        <v>277</v>
-      </c>
-      <c r="B738" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A739" t="s">
-        <v>278</v>
-      </c>
-      <c r="B739" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="740" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A740" t="s">
-        <v>279</v>
-      </c>
-      <c r="B740" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="741" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A741" t="s">
-        <v>280</v>
-      </c>
-      <c r="B741" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A742" t="s">
-        <v>281</v>
-      </c>
-      <c r="B742" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A743" t="s">
-        <v>281</v>
-      </c>
-      <c r="B743" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A744" t="s">
-        <v>282</v>
-      </c>
-      <c r="B744" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A745" t="s">
-        <v>282</v>
-      </c>
-      <c r="B745" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="746" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A746" t="s">
-        <v>283</v>
-      </c>
-      <c r="B746" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="747" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A747" t="s">
-        <v>284</v>
-      </c>
-      <c r="B747" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="748" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A748" t="s">
-        <v>284</v>
-      </c>
-      <c r="B748" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="749" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A749" t="s">
-        <v>285</v>
-      </c>
-      <c r="B749" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="750" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A750" t="s">
-        <v>285</v>
-      </c>
-      <c r="B750" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A751" t="s">
-        <v>286</v>
-      </c>
-      <c r="B751" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="752" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A752" t="s">
-        <v>287</v>
-      </c>
-      <c r="B752" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="753" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A753" t="s">
-        <v>288</v>
-      </c>
-      <c r="B753" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="754" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A754" t="s">
-        <v>288</v>
-      </c>
-      <c r="B754" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="755" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A755" t="s">
-        <v>288</v>
-      </c>
-      <c r="B755" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="756" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A756" t="s">
-        <v>288</v>
-      </c>
-      <c r="B756" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="757" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A757" t="s">
-        <v>288</v>
-      </c>
-      <c r="B757" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="758" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A758" t="s">
-        <v>289</v>
-      </c>
-      <c r="B758" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="759" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A759" t="s">
-        <v>290</v>
-      </c>
-      <c r="B759" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="760" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A760" t="s">
-        <v>290</v>
-      </c>
-      <c r="B760" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="761" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A761" t="s">
-        <v>291</v>
-      </c>
-      <c r="B761" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="762" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A762" t="s">
-        <v>292</v>
-      </c>
-      <c r="B762" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="763" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A763" t="s">
-        <v>293</v>
-      </c>
-      <c r="B763" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="764" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A764" t="s">
-        <v>294</v>
-      </c>
-      <c r="B764" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="765" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A765" t="s">
-        <v>295</v>
-      </c>
-      <c r="B765" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="766" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A766" t="s">
-        <v>296</v>
-      </c>
-      <c r="B766" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="767" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A767" t="s">
-        <v>296</v>
-      </c>
-      <c r="B767" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A768" t="s">
-        <v>296</v>
-      </c>
-      <c r="B768" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A769" t="s">
-        <v>296</v>
-      </c>
-      <c r="B769" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A770" t="s">
-        <v>297</v>
-      </c>
-      <c r="B770" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="771" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A771" t="s">
-        <v>297</v>
-      </c>
-      <c r="B771" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="772" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A772" t="s">
-        <v>297</v>
-      </c>
-      <c r="B772" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A773" t="s">
-        <v>298</v>
-      </c>
-      <c r="B773" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A774" t="s">
-        <v>69</v>
-      </c>
-      <c r="B774" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A775" t="s">
-        <v>70</v>
-      </c>
-      <c r="B775" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="776" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A776" t="s">
-        <v>299</v>
-      </c>
-      <c r="B776" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="777" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A777" t="s">
-        <v>299</v>
-      </c>
-      <c r="B777" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="778" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A778" t="s">
-        <v>299</v>
-      </c>
-      <c r="B778" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="779" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A779" t="s">
-        <v>299</v>
-      </c>
-      <c r="B779" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="780" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A780" t="s">
-        <v>299</v>
-      </c>
-      <c r="B780" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="781" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A781" t="s">
-        <v>299</v>
-      </c>
-      <c r="B781" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="782" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A782" t="s">
-        <v>299</v>
-      </c>
-      <c r="B782" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="783" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A783" t="s">
-        <v>299</v>
-      </c>
-      <c r="B783" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="784" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A784" t="s">
-        <v>300</v>
-      </c>
-      <c r="B784" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="785" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A785" t="s">
-        <v>301</v>
-      </c>
-      <c r="B785" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="786" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A786" t="s">
-        <v>71</v>
-      </c>
-      <c r="B786" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="787" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A787" t="s">
-        <v>71</v>
-      </c>
-      <c r="B787" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="788" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A788" t="s">
-        <v>71</v>
-      </c>
-      <c r="B788" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="789" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A789" t="s">
-        <v>71</v>
-      </c>
-      <c r="B789" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="790" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A790" t="s">
-        <v>71</v>
-      </c>
-      <c r="B790" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="791" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A791" t="s">
-        <v>71</v>
-      </c>
-      <c r="B791" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="792" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A792" t="s">
-        <v>71</v>
-      </c>
-      <c r="B792" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="793" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A793" t="s">
-        <v>71</v>
-      </c>
-      <c r="B793" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="794" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A794" t="s">
-        <v>71</v>
-      </c>
-      <c r="B794" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A795" t="s">
-        <v>71</v>
-      </c>
-      <c r="B795" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="796" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A796" t="s">
-        <v>71</v>
-      </c>
-      <c r="B796" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="797" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A797" t="s">
-        <v>71</v>
-      </c>
-      <c r="B797" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="798" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A798" t="s">
-        <v>71</v>
-      </c>
-      <c r="B798" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="799" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A799" t="s">
-        <v>71</v>
-      </c>
-      <c r="B799" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="800" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A800" t="s">
-        <v>71</v>
-      </c>
-      <c r="B800" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="801" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A801" t="s">
-        <v>71</v>
-      </c>
-      <c r="B801" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="802" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A802" t="s">
-        <v>302</v>
-      </c>
-      <c r="B802" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="803" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A803" t="s">
-        <v>302</v>
-      </c>
-      <c r="B803" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="804" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A804" t="s">
-        <v>302</v>
-      </c>
-      <c r="B804" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="805" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A805" t="s">
-        <v>302</v>
-      </c>
-      <c r="B805" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="806" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A806" t="s">
-        <v>302</v>
-      </c>
-      <c r="B806" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="807" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A807" t="s">
-        <v>303</v>
-      </c>
-      <c r="B807" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="808" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A808" t="s">
-        <v>304</v>
-      </c>
-      <c r="B808" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="809" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A809" t="s">
-        <v>304</v>
-      </c>
-      <c r="B809" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="810" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A810" t="s">
-        <v>305</v>
-      </c>
-      <c r="B810" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="811" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A811" t="s">
-        <v>306</v>
-      </c>
-      <c r="B811" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="812" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A812" t="s">
-        <v>307</v>
-      </c>
-      <c r="B812" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="813" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A813" t="s">
-        <v>308</v>
-      </c>
-      <c r="B813" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="814" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A814" t="s">
-        <v>308</v>
-      </c>
-      <c r="B814" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="815" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A815" t="s">
-        <v>308</v>
-      </c>
-      <c r="B815" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="816" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A816" t="s">
-        <v>309</v>
-      </c>
-      <c r="B816" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="817" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A817" t="s">
-        <v>309</v>
-      </c>
-      <c r="B817" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="818" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A818" t="s">
-        <v>309</v>
-      </c>
-      <c r="B818" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="819" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A819" t="s">
-        <v>309</v>
-      </c>
-      <c r="B819" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="820" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A820" t="s">
-        <v>309</v>
-      </c>
-      <c r="B820" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="821" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A821" t="s">
-        <v>310</v>
-      </c>
-      <c r="B821" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="822" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A822" t="s">
-        <v>72</v>
-      </c>
-      <c r="B822" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="823" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A823" t="s">
-        <v>311</v>
-      </c>
-      <c r="B823" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="824" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A824" t="s">
-        <v>312</v>
-      </c>
-      <c r="B824" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="825" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A825" t="s">
-        <v>313</v>
-      </c>
-      <c r="B825" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="826" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A826" t="s">
-        <v>313</v>
-      </c>
-      <c r="B826" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="827" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A827" t="s">
-        <v>313</v>
-      </c>
-      <c r="B827" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="828" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A828" t="s">
-        <v>314</v>
-      </c>
-      <c r="B828" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="829" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A829" t="s">
-        <v>314</v>
-      </c>
-      <c r="B829" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="830" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A830" t="s">
-        <v>73</v>
-      </c>
-      <c r="B830" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="831" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A831" t="s">
-        <v>315</v>
-      </c>
-      <c r="B831" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="832" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A832" t="s">
-        <v>315</v>
-      </c>
-      <c r="B832" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="833" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A833" t="s">
-        <v>315</v>
-      </c>
-      <c r="B833" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="834" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A834" t="s">
-        <v>315</v>
-      </c>
-      <c r="B834" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="835" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A835" t="s">
-        <v>315</v>
-      </c>
-      <c r="B835" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="836" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A836" t="s">
-        <v>316</v>
-      </c>
-      <c r="B836" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="837" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A837" t="s">
-        <v>317</v>
-      </c>
-      <c r="B837" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="838" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A838" t="s">
-        <v>317</v>
-      </c>
-      <c r="B838" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="839" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A839" t="s">
-        <v>318</v>
-      </c>
-      <c r="B839" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="840" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A840" t="s">
-        <v>318</v>
-      </c>
-      <c r="B840" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="841" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A841" t="s">
-        <v>318</v>
-      </c>
-      <c r="B841" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="842" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A842" t="s">
-        <v>319</v>
-      </c>
-      <c r="B842" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="843" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A843" t="s">
-        <v>319</v>
-      </c>
-      <c r="B843" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="844" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A844" t="s">
-        <v>319</v>
-      </c>
-      <c r="B844" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="845" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A845" t="s">
-        <v>319</v>
-      </c>
-      <c r="B845" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="846" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A846" t="s">
-        <v>319</v>
-      </c>
-      <c r="B846" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="847" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A847" t="s">
-        <v>319</v>
-      </c>
-      <c r="B847" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="848" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A848" t="s">
-        <v>319</v>
-      </c>
-      <c r="B848" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="849" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A849" t="s">
-        <v>319</v>
-      </c>
-      <c r="B849" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="850" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A850" t="s">
-        <v>319</v>
-      </c>
-      <c r="B850" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="851" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A851" t="s">
-        <v>319</v>
-      </c>
-      <c r="B851" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="852" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A852" t="s">
-        <v>320</v>
-      </c>
-      <c r="B852" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="853" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A853" t="s">
-        <v>321</v>
-      </c>
-      <c r="B853" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="854" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A854" t="s">
-        <v>321</v>
-      </c>
-      <c r="B854" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="855" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A855" t="s">
-        <v>322</v>
-      </c>
-      <c r="B855" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="856" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A856" t="s">
-        <v>323</v>
-      </c>
-      <c r="B856" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="857" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A857" t="s">
-        <v>324</v>
-      </c>
-      <c r="B857" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="858" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A858" t="s">
-        <v>324</v>
-      </c>
-      <c r="B858" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="859" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A859" t="s">
-        <v>325</v>
-      </c>
-      <c r="B859" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="860" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A860" t="s">
-        <v>326</v>
-      </c>
-      <c r="B860" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="861" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A861" t="s">
-        <v>327</v>
-      </c>
-      <c r="B861" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="862" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A862" t="s">
-        <v>328</v>
-      </c>
-      <c r="B862" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="863" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A863" t="s">
-        <v>329</v>
-      </c>
-      <c r="B863" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="864" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A864" t="s">
-        <v>330</v>
-      </c>
-      <c r="B864" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="865" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A865" t="s">
-        <v>330</v>
-      </c>
-      <c r="B865" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="866" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A866" t="s">
-        <v>74</v>
-      </c>
-      <c r="B866" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="867" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A867" t="s">
-        <v>75</v>
-      </c>
-      <c r="B867" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="868" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A868" t="s">
-        <v>76</v>
-      </c>
-      <c r="B868" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="869" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A869" t="s">
-        <v>331</v>
-      </c>
-      <c r="B869" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="870" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A870" t="s">
-        <v>77</v>
-      </c>
-      <c r="B870" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="871" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A871" t="s">
-        <v>77</v>
-      </c>
-      <c r="B871" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="872" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A872" t="s">
-        <v>332</v>
-      </c>
-      <c r="B872" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="873" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A873" t="s">
-        <v>78</v>
-      </c>
-      <c r="B873" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="874" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A874" t="s">
-        <v>79</v>
-      </c>
-      <c r="B874" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="875" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A875" t="s">
-        <v>79</v>
-      </c>
-      <c r="B875" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="876" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A876" t="s">
-        <v>333</v>
-      </c>
-      <c r="B876" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="877" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A877" t="s">
-        <v>334</v>
-      </c>
-      <c r="B877" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="878" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A878" t="s">
-        <v>334</v>
-      </c>
-      <c r="B878" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="879" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A879" t="s">
-        <v>334</v>
-      </c>
-      <c r="B879" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="880" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A880" t="s">
-        <v>334</v>
-      </c>
-      <c r="B880" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="881" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A881" t="s">
-        <v>335</v>
-      </c>
-      <c r="B881" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="882" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A882" t="s">
-        <v>336</v>
-      </c>
-      <c r="B882" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="883" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A883" t="s">
-        <v>337</v>
-      </c>
-      <c r="B883" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="884" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A884" t="s">
-        <v>338</v>
-      </c>
-      <c r="B884" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="885" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A885" t="s">
-        <v>339</v>
-      </c>
-      <c r="B885" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="886" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A886" t="s">
-        <v>339</v>
-      </c>
-      <c r="B886" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="887" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A887" t="s">
-        <v>340</v>
-      </c>
-      <c r="B887" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="888" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A888" t="s">
-        <v>341</v>
-      </c>
-      <c r="B888" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="889" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A889" t="s">
-        <v>342</v>
-      </c>
-      <c r="B889" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="890" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A890" t="s">
-        <v>342</v>
-      </c>
-      <c r="B890" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="891" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A891" t="s">
-        <v>342</v>
-      </c>
-      <c r="B891" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="892" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A892" t="s">
-        <v>342</v>
-      </c>
-      <c r="B892" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="893" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A893" t="s">
-        <v>342</v>
-      </c>
-      <c r="B893" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="894" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A894" t="s">
-        <v>343</v>
-      </c>
-      <c r="B894" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="895" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A895" t="s">
-        <v>344</v>
-      </c>
-      <c r="B895" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="896" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A896" t="s">
-        <v>344</v>
-      </c>
-      <c r="B896" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="897" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A897" t="s">
-        <v>344</v>
-      </c>
-      <c r="B897" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="898" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A898" t="s">
-        <v>345</v>
-      </c>
-      <c r="B898" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="899" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A899" t="s">
-        <v>346</v>
-      </c>
-      <c r="B899" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="900" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A900" t="s">
-        <v>346</v>
-      </c>
-      <c r="B900" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="901" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A901" t="s">
-        <v>346</v>
-      </c>
-      <c r="B901" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="902" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A902" t="s">
-        <v>346</v>
-      </c>
-      <c r="B902" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="903" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A903" t="s">
-        <v>347</v>
-      </c>
-      <c r="B903" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="904" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A904" t="s">
-        <v>347</v>
-      </c>
-      <c r="B904" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="905" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A905" t="s">
-        <v>348</v>
-      </c>
-      <c r="B905" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="906" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A906" t="s">
-        <v>349</v>
-      </c>
-      <c r="B906" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="907" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A907" t="s">
-        <v>350</v>
-      </c>
-      <c r="B907" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="908" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A908" t="s">
-        <v>351</v>
-      </c>
-      <c r="B908" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="909" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A909" t="s">
-        <v>352</v>
-      </c>
-      <c r="B909" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="910" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A910" t="s">
-        <v>353</v>
-      </c>
-      <c r="B910" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="911" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A911" t="s">
-        <v>354</v>
-      </c>
-      <c r="B911" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="912" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A912" t="s">
-        <v>355</v>
-      </c>
-      <c r="B912" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="913" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A913" t="s">
-        <v>356</v>
-      </c>
-      <c r="B913" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="914" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B496" s="1"/>
+    </row>
+    <row r="497" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B497" s="1"/>
+    </row>
+    <row r="498" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B498" s="1"/>
+    </row>
+    <row r="499" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B499" s="1"/>
+    </row>
+    <row r="500" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B500" s="1"/>
+    </row>
+    <row r="501" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B501" s="1"/>
+    </row>
+    <row r="502" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B502" s="1"/>
+    </row>
+    <row r="503" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B503" s="1"/>
+    </row>
+    <row r="504" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B504" s="1"/>
+    </row>
+    <row r="505" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B505" s="1"/>
+    </row>
+    <row r="506" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B506" s="1"/>
+    </row>
+    <row r="507" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B507" s="1"/>
+    </row>
+    <row r="508" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B508" s="1"/>
+    </row>
+    <row r="509" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B509" s="1"/>
+    </row>
+    <row r="510" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B510" s="1"/>
+    </row>
+    <row r="511" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B511" s="1"/>
+    </row>
+    <row r="512" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B512" s="1"/>
+    </row>
+    <row r="513" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B513" s="1"/>
+    </row>
+    <row r="514" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B514" s="1"/>
+    </row>
+    <row r="515" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B515" s="1"/>
+    </row>
+    <row r="516" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B516" s="1"/>
+    </row>
+    <row r="517" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B517" s="1"/>
+    </row>
+    <row r="518" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B518" s="1"/>
+    </row>
+    <row r="519" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B519" s="1"/>
+    </row>
+    <row r="520" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B520" s="1"/>
+    </row>
+    <row r="521" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B521" s="1"/>
+    </row>
+    <row r="522" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B522" s="1"/>
+    </row>
+    <row r="523" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B523" s="1"/>
+    </row>
+    <row r="524" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B524" s="1"/>
+    </row>
+    <row r="525" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B525" s="1"/>
+    </row>
+    <row r="526" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B526" s="1"/>
+    </row>
+    <row r="527" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B527" s="1"/>
+    </row>
+    <row r="528" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B528" s="1"/>
+    </row>
+    <row r="529" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B529" s="1"/>
+    </row>
+    <row r="530" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B530" s="1"/>
+    </row>
+    <row r="531" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B531" s="1"/>
+    </row>
+    <row r="532" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B532" s="1"/>
+    </row>
+    <row r="533" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B533" s="1"/>
+    </row>
+    <row r="534" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B534" s="1"/>
+    </row>
+    <row r="535" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B535" s="1"/>
+    </row>
+    <row r="536" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B536" s="1"/>
+    </row>
+    <row r="537" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B537" s="1"/>
+    </row>
+    <row r="538" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B538" s="1"/>
+    </row>
+    <row r="539" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B539" s="1"/>
+    </row>
+    <row r="540" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B540" s="1"/>
+    </row>
+    <row r="541" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B541" s="1"/>
+    </row>
+    <row r="542" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B542" s="1"/>
+    </row>
+    <row r="543" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B543" s="1"/>
+    </row>
+    <row r="544" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B544" s="1"/>
+    </row>
+    <row r="545" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B545" s="1"/>
+    </row>
+    <row r="546" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B546" s="1"/>
+    </row>
+    <row r="547" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B547" s="1"/>
+    </row>
+    <row r="548" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B548" s="1"/>
+    </row>
+    <row r="549" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B549" s="1"/>
+    </row>
+    <row r="550" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B550" s="1"/>
+    </row>
+    <row r="551" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B551" s="1"/>
+    </row>
+    <row r="552" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B552" s="1"/>
+    </row>
+    <row r="553" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B553" s="1"/>
+    </row>
+    <row r="554" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B554" s="1"/>
+    </row>
+    <row r="555" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B555" s="1"/>
+    </row>
+    <row r="556" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B556" s="1"/>
+    </row>
+    <row r="557" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B557" s="1"/>
+    </row>
+    <row r="558" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B558" s="1"/>
+    </row>
+    <row r="559" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B559" s="1"/>
+    </row>
+    <row r="560" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B560" s="1"/>
+    </row>
+    <row r="561" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B561" s="1"/>
+    </row>
+    <row r="562" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B562" s="1"/>
+    </row>
+    <row r="563" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B563" s="1"/>
+    </row>
+    <row r="564" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B564" s="1"/>
+    </row>
+    <row r="565" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B565" s="1"/>
+    </row>
+    <row r="566" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B566" s="1"/>
+    </row>
+    <row r="567" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B567" s="1"/>
+    </row>
+    <row r="568" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B568" s="1"/>
+    </row>
+    <row r="569" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B569" s="1"/>
+    </row>
+    <row r="570" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B570" s="1"/>
+    </row>
+    <row r="571" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B571" s="1"/>
+    </row>
+    <row r="572" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B572" s="1"/>
+    </row>
+    <row r="573" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B573" s="1"/>
+    </row>
+    <row r="574" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B574" s="1"/>
+    </row>
+    <row r="575" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B575" s="1"/>
+    </row>
+    <row r="576" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B576" s="1"/>
+    </row>
+    <row r="577" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B577" s="1"/>
+    </row>
+    <row r="578" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B578" s="1"/>
+    </row>
+    <row r="579" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B579" s="1"/>
+    </row>
+    <row r="580" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B580" s="1"/>
+    </row>
+    <row r="581" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B581" s="1"/>
+    </row>
+    <row r="582" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B582" s="1"/>
+    </row>
+    <row r="583" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B583" s="1"/>
+    </row>
+    <row r="584" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B584" s="1"/>
+    </row>
+    <row r="585" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B585" s="1"/>
+    </row>
+    <row r="586" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B586" s="1"/>
+    </row>
+    <row r="587" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B587" s="1"/>
+    </row>
+    <row r="588" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B588" s="1"/>
+    </row>
+    <row r="589" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B589" s="1"/>
+    </row>
+    <row r="590" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B590" s="1"/>
+    </row>
+    <row r="591" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B591" s="1"/>
+    </row>
+    <row r="592" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B592" s="1"/>
+    </row>
+    <row r="593" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B593" s="1"/>
+    </row>
+    <row r="594" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B594" s="1"/>
+    </row>
+    <row r="595" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B595" s="1"/>
+    </row>
+    <row r="596" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B596" s="1"/>
+    </row>
+    <row r="597" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B597" s="1"/>
+    </row>
+    <row r="598" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B598" s="1"/>
+    </row>
+    <row r="599" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B599" s="1"/>
+    </row>
+    <row r="600" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B600" s="1"/>
+    </row>
+    <row r="601" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B601" s="1"/>
+    </row>
+    <row r="602" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B602" s="1"/>
+    </row>
+    <row r="603" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B603" s="1"/>
+    </row>
+    <row r="604" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B604" s="1"/>
+    </row>
+    <row r="605" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B605" s="1"/>
+    </row>
+    <row r="606" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B606" s="1"/>
+    </row>
+    <row r="607" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B607" s="1"/>
+    </row>
+    <row r="608" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B608" s="1"/>
+    </row>
+    <row r="609" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B609" s="1"/>
+    </row>
+    <row r="610" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B610" s="1"/>
+    </row>
+    <row r="611" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B611" s="1"/>
+    </row>
+    <row r="612" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B612" s="1"/>
+    </row>
+    <row r="613" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B613" s="1"/>
+    </row>
+    <row r="614" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B614" s="1"/>
+    </row>
+    <row r="615" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B615" s="1"/>
+    </row>
+    <row r="616" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B616" s="1"/>
+    </row>
+    <row r="617" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B617" s="1"/>
+    </row>
+    <row r="618" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B618" s="1"/>
+    </row>
+    <row r="619" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B619" s="1"/>
+    </row>
+    <row r="620" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B620" s="1"/>
+    </row>
+    <row r="621" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B621" s="1"/>
+    </row>
+    <row r="622" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B622" s="1"/>
+    </row>
+    <row r="623" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B623" s="1"/>
+    </row>
+    <row r="624" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B624" s="1"/>
+    </row>
+    <row r="625" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B625" s="1"/>
+    </row>
+    <row r="626" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B626" s="1"/>
+    </row>
+    <row r="627" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B627" s="1"/>
+    </row>
+    <row r="628" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B628" s="1"/>
+    </row>
+    <row r="629" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B629" s="1"/>
+    </row>
+    <row r="630" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B630" s="1"/>
+    </row>
+    <row r="631" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B631" s="1"/>
+    </row>
+    <row r="632" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B632" s="1"/>
+    </row>
+    <row r="633" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B633" s="1"/>
+    </row>
+    <row r="634" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B634" s="1"/>
+    </row>
+    <row r="635" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B635" s="1"/>
+    </row>
+    <row r="636" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B636" s="1"/>
+    </row>
+    <row r="637" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B637" s="1"/>
+    </row>
+    <row r="638" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B638" s="1"/>
+    </row>
+    <row r="639" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B639" s="1"/>
+    </row>
+    <row r="640" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B640" s="1"/>
+    </row>
+    <row r="641" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B641" s="1"/>
+    </row>
+    <row r="642" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B642" s="1"/>
+    </row>
+    <row r="643" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B643" s="1"/>
+    </row>
+    <row r="644" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B644" s="1"/>
+    </row>
+    <row r="645" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B645" s="1"/>
+    </row>
+    <row r="646" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B646" s="1"/>
+    </row>
+    <row r="647" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B647" s="1"/>
+    </row>
+    <row r="648" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B648" s="1"/>
+    </row>
+    <row r="649" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B649" s="1"/>
+    </row>
+    <row r="650" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B650" s="1"/>
+    </row>
+    <row r="651" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B651" s="1"/>
+    </row>
+    <row r="652" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B652" s="1"/>
+    </row>
+    <row r="653" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B653" s="1"/>
+    </row>
+    <row r="654" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B654" s="1"/>
+    </row>
+    <row r="655" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B655" s="1"/>
+    </row>
+    <row r="656" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B656" s="1"/>
+    </row>
+    <row r="657" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B657" s="1"/>
+    </row>
+    <row r="658" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B658" s="1"/>
+    </row>
+    <row r="659" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B659" s="1"/>
+    </row>
+    <row r="660" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B660" s="1"/>
+    </row>
+    <row r="661" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B661" s="1"/>
+    </row>
+    <row r="662" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B662" s="1"/>
+    </row>
+    <row r="663" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B663" s="1"/>
+    </row>
+    <row r="664" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B664" s="1"/>
+    </row>
+    <row r="665" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B665" s="1"/>
+    </row>
+    <row r="666" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B666" s="1"/>
+    </row>
+    <row r="667" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B667" s="1"/>
+    </row>
+    <row r="668" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B668" s="1"/>
+    </row>
+    <row r="669" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B669" s="1"/>
+    </row>
+    <row r="670" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B670" s="1"/>
+    </row>
+    <row r="671" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B671" s="1"/>
+    </row>
+    <row r="672" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B672" s="1"/>
+    </row>
+    <row r="673" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B673" s="1"/>
+    </row>
+    <row r="674" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B674" s="1"/>
+    </row>
+    <row r="675" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B675" s="1"/>
+    </row>
+    <row r="676" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B676" s="1"/>
+    </row>
+    <row r="677" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B677" s="1"/>
+    </row>
+    <row r="678" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B678" s="1"/>
+    </row>
+    <row r="679" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B679" s="1"/>
+    </row>
+    <row r="680" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B680" s="1"/>
+    </row>
+    <row r="681" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B681" s="1"/>
+    </row>
+    <row r="682" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B682" s="1"/>
+    </row>
+    <row r="683" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B683" s="1"/>
+    </row>
+    <row r="684" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B684" s="1"/>
+    </row>
+    <row r="685" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B685" s="1"/>
+    </row>
+    <row r="686" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B686" s="1"/>
+    </row>
+    <row r="687" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B687" s="1"/>
+    </row>
+    <row r="688" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B688" s="1"/>
+    </row>
+    <row r="689" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B689" s="1"/>
+    </row>
+    <row r="690" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B690" s="1"/>
+    </row>
+    <row r="691" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B691" s="1"/>
+    </row>
+    <row r="692" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B692" s="1"/>
+    </row>
+    <row r="693" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B693" s="1"/>
+    </row>
+    <row r="694" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B694" s="1"/>
+    </row>
+    <row r="695" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B695" s="1"/>
+    </row>
+    <row r="696" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B696" s="1"/>
+    </row>
+    <row r="697" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B697" s="1"/>
+    </row>
+    <row r="698" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B698" s="1"/>
+    </row>
+    <row r="699" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B699" s="1"/>
+    </row>
+    <row r="700" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B700" s="1"/>
+    </row>
+    <row r="701" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B701" s="1"/>
+    </row>
+    <row r="702" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B702" s="1"/>
+    </row>
+    <row r="703" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B703" s="1"/>
+    </row>
+    <row r="704" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B704" s="1"/>
+    </row>
+    <row r="705" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B705" s="1"/>
+    </row>
+    <row r="706" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B706" s="1"/>
+    </row>
+    <row r="707" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B707" s="1"/>
+    </row>
+    <row r="708" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B708" s="1"/>
+    </row>
+    <row r="709" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B709" s="1"/>
+    </row>
+    <row r="710" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B710" s="1"/>
+    </row>
+    <row r="711" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B711" s="1"/>
+    </row>
+    <row r="712" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B712" s="1"/>
+    </row>
+    <row r="713" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B713" s="1"/>
+    </row>
+    <row r="714" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B714" s="1"/>
+    </row>
+    <row r="715" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B715" s="1"/>
+    </row>
+    <row r="716" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B716" s="1"/>
+    </row>
+    <row r="717" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B717" s="1"/>
+    </row>
+    <row r="718" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B718" s="1"/>
+    </row>
+    <row r="719" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B719" s="1"/>
+    </row>
+    <row r="720" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B720" s="1"/>
+    </row>
+    <row r="721" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B721" s="1"/>
+    </row>
+    <row r="722" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B722" s="1"/>
+    </row>
+    <row r="723" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B723" s="1"/>
+    </row>
+    <row r="724" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B724" s="1"/>
+    </row>
+    <row r="725" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B725" s="1"/>
+    </row>
+    <row r="726" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B726" s="1"/>
+    </row>
+    <row r="727" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B727" s="1"/>
+    </row>
+    <row r="728" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B728" s="1"/>
+    </row>
+    <row r="729" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B729" s="1"/>
+    </row>
+    <row r="730" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B730" s="1"/>
+    </row>
+    <row r="731" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B731" s="1"/>
+    </row>
+    <row r="732" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B732" s="1"/>
+    </row>
+    <row r="733" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B733" s="1"/>
+    </row>
+    <row r="734" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B734" s="1"/>
+    </row>
+    <row r="735" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B735" s="1"/>
+    </row>
+    <row r="736" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B736" s="1"/>
+    </row>
+    <row r="737" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B737" s="1"/>
+    </row>
+    <row r="738" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B738" s="1"/>
+    </row>
+    <row r="739" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B739" s="1"/>
+    </row>
+    <row r="740" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B740" s="1"/>
+    </row>
+    <row r="741" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B741" s="1"/>
+    </row>
+    <row r="742" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B742" s="1"/>
+    </row>
+    <row r="743" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B743" s="1"/>
+    </row>
+    <row r="744" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B744" s="1"/>
+    </row>
+    <row r="745" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B745" s="1"/>
+    </row>
+    <row r="746" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B746" s="1"/>
+    </row>
+    <row r="747" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B747" s="1"/>
+    </row>
+    <row r="748" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B748" s="1"/>
+    </row>
+    <row r="749" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B749" s="1"/>
+    </row>
+    <row r="750" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B750" s="1"/>
+    </row>
+    <row r="751" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B751" s="1"/>
+    </row>
+    <row r="752" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B752" s="1"/>
+    </row>
+    <row r="753" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B753" s="1"/>
+    </row>
+    <row r="754" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B754" s="1"/>
+    </row>
+    <row r="755" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B755" s="1"/>
+    </row>
+    <row r="756" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B756" s="1"/>
+    </row>
+    <row r="757" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B757" s="1"/>
+    </row>
+    <row r="758" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B758" s="1"/>
+    </row>
+    <row r="759" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B759" s="1"/>
+    </row>
+    <row r="760" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B760" s="1"/>
+    </row>
+    <row r="761" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B761" s="1"/>
+    </row>
+    <row r="762" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B762" s="1"/>
+    </row>
+    <row r="763" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B763" s="1"/>
+    </row>
+    <row r="764" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B764" s="1"/>
+    </row>
+    <row r="765" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B765" s="1"/>
+    </row>
+    <row r="766" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B766" s="1"/>
+    </row>
+    <row r="767" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B767" s="1"/>
+    </row>
+    <row r="768" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B768" s="1"/>
+    </row>
+    <row r="769" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B769" s="1"/>
+    </row>
+    <row r="770" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B770" s="1"/>
+    </row>
+    <row r="771" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B771" s="1"/>
+    </row>
+    <row r="772" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B772" s="1"/>
+    </row>
+    <row r="773" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B773" s="1"/>
+    </row>
+    <row r="774" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B774" s="1"/>
+    </row>
+    <row r="775" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B775" s="1"/>
+    </row>
+    <row r="776" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B776" s="1"/>
+    </row>
+    <row r="777" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B777" s="1"/>
+    </row>
+    <row r="778" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B778" s="1"/>
+    </row>
+    <row r="779" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B779" s="1"/>
+    </row>
+    <row r="780" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B780" s="1"/>
+    </row>
+    <row r="781" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B781" s="1"/>
+    </row>
+    <row r="782" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B782" s="1"/>
+    </row>
+    <row r="783" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B783" s="1"/>
+    </row>
+    <row r="784" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B784" s="1"/>
+    </row>
+    <row r="785" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B785" s="1"/>
+    </row>
+    <row r="786" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B786" s="1"/>
+    </row>
+    <row r="787" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B787" s="1"/>
+    </row>
+    <row r="788" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B788" s="1"/>
+    </row>
+    <row r="789" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B789" s="1"/>
+    </row>
+    <row r="790" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B790" s="1"/>
+    </row>
+    <row r="791" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B791" s="1"/>
+    </row>
+    <row r="792" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B792" s="1"/>
+    </row>
+    <row r="793" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B793" s="1"/>
+    </row>
+    <row r="794" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B794" s="1"/>
+    </row>
+    <row r="795" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B795" s="1"/>
+    </row>
+    <row r="796" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B796" s="1"/>
+    </row>
+    <row r="797" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B797" s="1"/>
+    </row>
+    <row r="798" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B798" s="1"/>
+    </row>
+    <row r="799" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B799" s="1"/>
+    </row>
+    <row r="800" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B800" s="1"/>
+    </row>
+    <row r="801" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B801" s="1"/>
+    </row>
+    <row r="802" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B802" s="1"/>
+    </row>
+    <row r="803" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B803" s="1"/>
+    </row>
+    <row r="804" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B804" s="1"/>
+    </row>
+    <row r="805" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B805" s="1"/>
+    </row>
+    <row r="806" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B806" s="1"/>
+    </row>
+    <row r="807" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B807" s="1"/>
+    </row>
+    <row r="808" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B808" s="1"/>
+    </row>
+    <row r="809" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B809" s="1"/>
+    </row>
+    <row r="810" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B810" s="1"/>
+    </row>
+    <row r="811" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B811" s="1"/>
+    </row>
+    <row r="812" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B812" s="1"/>
+    </row>
+    <row r="813" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B813" s="1"/>
+    </row>
+    <row r="814" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B814" s="1"/>
+    </row>
+    <row r="815" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B815" s="1"/>
+    </row>
+    <row r="816" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B816" s="1"/>
+    </row>
+    <row r="817" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B817" s="1"/>
+    </row>
+    <row r="818" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B818" s="1"/>
+    </row>
+    <row r="819" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B819" s="1"/>
+    </row>
+    <row r="820" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B820" s="1"/>
+    </row>
+    <row r="821" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B821" s="1"/>
+    </row>
+    <row r="822" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B822" s="1"/>
+    </row>
+    <row r="823" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B823" s="1"/>
+    </row>
+    <row r="824" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B824" s="1"/>
+    </row>
+    <row r="825" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B825" s="1"/>
+    </row>
+    <row r="826" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B826" s="1"/>
+    </row>
+    <row r="827" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B827" s="1"/>
+    </row>
+    <row r="828" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B828" s="1"/>
+    </row>
+    <row r="829" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B829" s="1"/>
+    </row>
+    <row r="830" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B830" s="1"/>
+    </row>
+    <row r="831" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B831" s="1"/>
+    </row>
+    <row r="832" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B832" s="1"/>
+    </row>
+    <row r="833" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B833" s="1"/>
+    </row>
+    <row r="834" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B834" s="1"/>
+    </row>
+    <row r="835" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B835" s="1"/>
+    </row>
+    <row r="836" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B836" s="1"/>
+    </row>
+    <row r="837" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B837" s="1"/>
+    </row>
+    <row r="838" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B838" s="1"/>
+    </row>
+    <row r="839" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B839" s="1"/>
+    </row>
+    <row r="840" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B840" s="1"/>
+    </row>
+    <row r="841" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B841" s="1"/>
+    </row>
+    <row r="842" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B842" s="1"/>
+    </row>
+    <row r="843" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B843" s="1"/>
+    </row>
+    <row r="844" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B844" s="1"/>
+    </row>
+    <row r="845" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B845" s="1"/>
+    </row>
+    <row r="846" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B846" s="1"/>
+    </row>
+    <row r="847" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B847" s="1"/>
+    </row>
+    <row r="848" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B848" s="1"/>
+    </row>
+    <row r="849" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B849" s="1"/>
+    </row>
+    <row r="850" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B850" s="1"/>
+    </row>
+    <row r="851" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B851" s="1"/>
+    </row>
+    <row r="852" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B852" s="1"/>
+    </row>
+    <row r="853" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B853" s="1"/>
+    </row>
+    <row r="854" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B854" s="1"/>
+    </row>
+    <row r="855" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B855" s="1"/>
+    </row>
+    <row r="856" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B856" s="1"/>
+    </row>
+    <row r="857" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B857" s="1"/>
+    </row>
+    <row r="858" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B858" s="1"/>
+    </row>
+    <row r="859" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B859" s="1"/>
+    </row>
+    <row r="860" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B860" s="1"/>
+    </row>
+    <row r="861" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B861" s="1"/>
+    </row>
+    <row r="862" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B862" s="1"/>
+    </row>
+    <row r="863" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B863" s="1"/>
+    </row>
+    <row r="864" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B864" s="1"/>
+    </row>
+    <row r="865" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B865" s="1"/>
+    </row>
+    <row r="866" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B866" s="1"/>
+    </row>
+    <row r="867" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B867" s="1"/>
+    </row>
+    <row r="868" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B868" s="1"/>
+    </row>
+    <row r="869" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B869" s="1"/>
+    </row>
+    <row r="870" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B870" s="1"/>
+    </row>
+    <row r="871" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B871" s="1"/>
+    </row>
+    <row r="872" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B872" s="1"/>
+    </row>
+    <row r="873" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B873" s="1"/>
+    </row>
+    <row r="874" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B874" s="1"/>
+    </row>
+    <row r="875" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B875" s="1"/>
+    </row>
+    <row r="876" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B876" s="1"/>
+    </row>
+    <row r="877" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B877" s="1"/>
+    </row>
+    <row r="878" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B878" s="1"/>
+    </row>
+    <row r="879" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B879" s="1"/>
+    </row>
+    <row r="880" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B880" s="1"/>
+    </row>
+    <row r="881" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B881" s="1"/>
+    </row>
+    <row r="882" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B882" s="1"/>
+    </row>
+    <row r="883" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B883" s="1"/>
+    </row>
+    <row r="884" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B884" s="1"/>
+    </row>
+    <row r="885" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B885" s="1"/>
+    </row>
+    <row r="886" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B886" s="1"/>
+    </row>
+    <row r="887" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B887" s="1"/>
+    </row>
+    <row r="888" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B888" s="1"/>
+    </row>
+    <row r="889" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B889" s="1"/>
+    </row>
+    <row r="890" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B890" s="1"/>
+    </row>
+    <row r="891" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B891" s="1"/>
+    </row>
+    <row r="892" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B892" s="1"/>
+    </row>
+    <row r="893" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B893" s="1"/>
+    </row>
+    <row r="894" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B894" s="1"/>
+    </row>
+    <row r="895" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B895" s="1"/>
+    </row>
+    <row r="896" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B896" s="1"/>
+    </row>
+    <row r="897" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B897" s="1"/>
+    </row>
+    <row r="898" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B898" s="1"/>
+    </row>
+    <row r="899" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B899" s="1"/>
+    </row>
+    <row r="900" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B900" s="1"/>
+    </row>
+    <row r="901" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B901" s="1"/>
+    </row>
+    <row r="902" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B902" s="1"/>
+    </row>
+    <row r="903" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B903" s="1"/>
+    </row>
+    <row r="904" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B904" s="1"/>
+    </row>
+    <row r="905" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B905" s="1"/>
+    </row>
+    <row r="906" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B906" s="1"/>
+    </row>
+    <row r="907" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B907" s="1"/>
+    </row>
+    <row r="908" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B908" s="1"/>
+    </row>
+    <row r="909" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B909" s="1"/>
+    </row>
+    <row r="910" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B910" s="1"/>
+    </row>
+    <row r="911" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B911" s="1"/>
+    </row>
+    <row r="912" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B912" s="1"/>
+    </row>
+    <row r="913" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B913" s="1"/>
+    </row>
+    <row r="914" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B914" s="1"/>
     </row>
-    <row r="915" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B915" s="1"/>
     </row>
-    <row r="916" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B916" s="1"/>
     </row>
-    <row r="917" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B917" s="1"/>
     </row>
-    <row r="918" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B918" s="1"/>
     </row>
-    <row r="919" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B919" s="1"/>
     </row>
-    <row r="920" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B920" s="1"/>
     </row>
-    <row r="921" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B921" s="1"/>
     </row>
-    <row r="922" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B922" s="1"/>
     </row>
-    <row r="923" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B923" s="1"/>
     </row>
-    <row r="924" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B924" s="1"/>
     </row>
-    <row r="925" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B925" s="1"/>
     </row>
-    <row r="926" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B926" s="1"/>
     </row>
-    <row r="927" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B927" s="1"/>
     </row>
-    <row r="928" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B928" s="1"/>
     </row>
     <row r="929" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">

--- a/Data_file/Cancel_SO.xlsx
+++ b/Data_file/Cancel_SO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="205">
   <si>
     <t>MT00681110</t>
   </si>
@@ -166,634 +166,478 @@
     <t>type</t>
   </si>
   <si>
-    <t>PD-6400471</t>
-  </si>
-  <si>
-    <t>PD-6500139</t>
-  </si>
-  <si>
-    <t>PD-6700382</t>
-  </si>
-  <si>
-    <t>PD-6700420</t>
-  </si>
-  <si>
-    <t>PD-6700426</t>
-  </si>
-  <si>
-    <t>PD-6700474</t>
-  </si>
-  <si>
-    <t>PD-6800033</t>
-  </si>
-  <si>
-    <t>PD-6800056</t>
-  </si>
-  <si>
-    <t>PD-6800079</t>
-  </si>
-  <si>
-    <t>PD-6800082</t>
-  </si>
-  <si>
-    <t>PD-6800166</t>
-  </si>
-  <si>
-    <t>PD-6800167</t>
-  </si>
-  <si>
-    <t>PD-6800168</t>
-  </si>
-  <si>
-    <t>PD-6800169</t>
-  </si>
-  <si>
-    <t>PD-6800173</t>
-  </si>
-  <si>
-    <t>PD-6800178</t>
-  </si>
-  <si>
-    <t>PD-6800179</t>
-  </si>
-  <si>
-    <t>PD-6800180</t>
-  </si>
-  <si>
-    <t>PD-6800181</t>
-  </si>
-  <si>
-    <t>PD-6800186</t>
-  </si>
-  <si>
-    <t>BPD-6800097</t>
-  </si>
-  <si>
-    <t>BPD-6800171</t>
-  </si>
-  <si>
-    <t>BPD-6800235</t>
-  </si>
-  <si>
-    <t>BPD-6800236</t>
-  </si>
-  <si>
-    <t>BPD-6800240</t>
-  </si>
-  <si>
-    <t>BPD-6800250</t>
-  </si>
-  <si>
-    <t>BPD-6800255</t>
-  </si>
-  <si>
-    <t>BPD-6800272</t>
-  </si>
-  <si>
-    <t>BPD-6800273</t>
-  </si>
-  <si>
-    <t>BPD-6800274</t>
-  </si>
-  <si>
-    <t>BPD-6800276</t>
-  </si>
-  <si>
-    <t>BPD-6800279</t>
-  </si>
-  <si>
-    <t>BPD-6800280</t>
-  </si>
-  <si>
     <t>PO</t>
   </si>
   <si>
-    <t>BPD-6700364</t>
+    <t>BPO-6700008</t>
   </si>
   <si>
-    <t>BPD-6800052</t>
+    <t>BPO-6700023</t>
   </si>
   <si>
-    <t>BPD-6800154</t>
+    <t>BPO-6700107</t>
   </si>
   <si>
-    <t>BPD-6800173</t>
+    <t>BPO-6700132</t>
   </si>
   <si>
-    <t>BPD-6800175</t>
+    <t>BPO-6700155</t>
   </si>
   <si>
-    <t>BPD-6800277</t>
+    <t>BPO-6700156</t>
   </si>
   <si>
-    <t>PD-6700030</t>
+    <t>BPO-6700208</t>
   </si>
   <si>
-    <t>PD-6700446</t>
+    <t>BPO-6700214</t>
   </si>
   <si>
-    <t>PD-6700479</t>
+    <t>BPO-6700218</t>
   </si>
   <si>
-    <t>PD-6800034</t>
+    <t>BPO-6700221</t>
   </si>
   <si>
-    <t>PD-6800058</t>
+    <t>BPO-6700239</t>
   </si>
   <si>
-    <t>PD-6800187</t>
+    <t>BPO-6700252</t>
   </si>
   <si>
-    <t>PD-6800192</t>
+    <t>BPO-6700266</t>
   </si>
   <si>
-    <t>PD-6800193</t>
+    <t>BPO-6700289</t>
   </si>
   <si>
-    <t>PD-6800194</t>
+    <t>BPO-6700300</t>
   </si>
   <si>
-    <t>PD-6800199</t>
+    <t>BPO-6700309</t>
   </si>
   <si>
-    <t>PD-6800201</t>
+    <t>BPO-6700314</t>
   </si>
   <si>
-    <t>PD-6800202</t>
+    <t>BPO-6700315</t>
   </si>
   <si>
-    <t>PD-6800203</t>
+    <t>BPO-6800003</t>
   </si>
   <si>
-    <t>PD-6800205</t>
+    <t>BPO-6800005</t>
   </si>
   <si>
-    <t>PD-6800206</t>
+    <t>BPO-6800010</t>
   </si>
   <si>
-    <t>PD-6800207</t>
+    <t>BPO-6800011</t>
   </si>
   <si>
-    <t>PD-6700491</t>
+    <t>BPO-6800012</t>
   </si>
   <si>
-    <t>PD-6700506</t>
+    <t>BPO-6800015</t>
   </si>
   <si>
-    <t>PD-6700507</t>
+    <t>BPO-6800026</t>
   </si>
   <si>
-    <t>PD-6700542</t>
+    <t>BPO-6800027</t>
   </si>
   <si>
-    <t>PD-6700549</t>
+    <t>BPO-6800028</t>
   </si>
   <si>
-    <t>PD-6800044</t>
+    <t>BPO-6800029</t>
   </si>
   <si>
-    <t>PD-6800080</t>
+    <t>BPO-6800033</t>
   </si>
   <si>
-    <t>PD-6800091</t>
+    <t>BPO-6800034</t>
   </si>
   <si>
-    <t>PD-6800093</t>
+    <t>BPO-6800036</t>
   </si>
   <si>
-    <t>PD-6800100</t>
+    <t>BPO-6800039</t>
   </si>
   <si>
-    <t>PD-6800110</t>
+    <t>BPO-6800043</t>
   </si>
   <si>
-    <t>PD-6800118</t>
+    <t>BPO-6800044</t>
   </si>
   <si>
-    <t>PD-6800119</t>
+    <t>BPO-6800045</t>
   </si>
   <si>
-    <t>PD-6800120</t>
+    <t>BPO-6800046</t>
   </si>
   <si>
-    <t>PD-6800121</t>
+    <t>BPO-6800054</t>
   </si>
   <si>
-    <t>PD-6800123</t>
+    <t>BPO-6800055</t>
   </si>
   <si>
-    <t>PD-6800124</t>
+    <t>BPO-6800057</t>
   </si>
   <si>
-    <t>PD-6800125</t>
+    <t>BPO-6800059</t>
   </si>
   <si>
-    <t>PD-6800126</t>
+    <t>BPO-6800062</t>
   </si>
   <si>
-    <t>PD-6800127</t>
+    <t>BPO-6800064</t>
   </si>
   <si>
-    <t>PD-6800128</t>
+    <t>BPO-6800067</t>
   </si>
   <si>
-    <t>PD-6800129</t>
+    <t>BPO-6800066</t>
   </si>
   <si>
-    <t>PD-6800130</t>
+    <t>BPO-6800069</t>
   </si>
   <si>
-    <t>PD-6800132</t>
+    <t>BPO-6800068</t>
   </si>
   <si>
-    <t>PD-6800133</t>
+    <t>BPO-6800072</t>
   </si>
   <si>
-    <t>PD-6800134</t>
+    <t>BPO-6800071</t>
   </si>
   <si>
-    <t>PD-6800135</t>
+    <t>BPO-6800073</t>
   </si>
   <si>
-    <t>PD-6800136</t>
+    <t>BPO-6800074</t>
   </si>
   <si>
-    <t>PD-6800137</t>
+    <t>BPO-6800075</t>
   </si>
   <si>
-    <t>PD-6800138</t>
+    <t>BPO-6800076</t>
   </si>
   <si>
-    <t>PD-6800139</t>
+    <t>BPO-6800077</t>
   </si>
   <si>
-    <t>PD-6800140</t>
+    <t>BPO-6800078</t>
   </si>
   <si>
-    <t>PD-6800141</t>
+    <t>BPO-6800079</t>
   </si>
   <si>
-    <t>PD-6800142</t>
+    <t>BPO-6800080</t>
   </si>
   <si>
-    <t>PD-6800143</t>
+    <t>BPO-6800081</t>
   </si>
   <si>
-    <t>PD-6800144</t>
+    <t>BPO-6800082</t>
   </si>
   <si>
-    <t>PD-6800145</t>
+    <t>BPO-6800083</t>
   </si>
   <si>
-    <t>PD-6800146</t>
+    <t>BPO-6800084</t>
   </si>
   <si>
-    <t>PD-6800147</t>
+    <t>BPO-6800085</t>
   </si>
   <si>
-    <t>PD-6800148</t>
+    <t>BPO-6800086</t>
   </si>
   <si>
-    <t>PD-6800149</t>
+    <t>BPO-6800087</t>
   </si>
   <si>
-    <t>PD-6800153</t>
+    <t>BPO-6800088</t>
   </si>
   <si>
-    <t>PD-6800155</t>
+    <t>BPO-6800089</t>
   </si>
   <si>
-    <t>PD-6800156</t>
+    <t>BPO-6800090</t>
   </si>
   <si>
-    <t>PD-6800158</t>
+    <t>BPO-6800091</t>
   </si>
   <si>
-    <t>PD-6800159</t>
+    <t>BPO-6800092</t>
   </si>
   <si>
-    <t>PD-6800160</t>
+    <t>BPO-6800093</t>
   </si>
   <si>
-    <t>PD-6800161</t>
+    <t>BPO-6800094</t>
   </si>
   <si>
-    <t>PD-6800162</t>
+    <t>BPO-6800095</t>
   </si>
   <si>
-    <t>PD-6800163</t>
+    <t>BPO-6800096</t>
   </si>
   <si>
-    <t>PD-6800164</t>
+    <t>BPO-6800097</t>
   </si>
   <si>
-    <t>PD-6800165</t>
+    <t>BPO-6800098</t>
   </si>
   <si>
-    <t>PD-6800170</t>
+    <t>BPO-6800099</t>
   </si>
   <si>
-    <t>PD-6800171</t>
+    <t>BPO-6800100</t>
   </si>
   <si>
-    <t>PD-6800172</t>
+    <t>BPO-6800101</t>
   </si>
   <si>
-    <t>PD-6800174</t>
+    <t>BPO-6800102</t>
   </si>
   <si>
-    <t>PD-6800177</t>
+    <t>BPO-6800103</t>
   </si>
   <si>
-    <t>PD-6800182</t>
+    <t>BPO-6800104</t>
   </si>
   <si>
-    <t>PD-6800183</t>
+    <t>BPO-6800105</t>
   </si>
   <si>
-    <t>PD-6800184</t>
+    <t>BPO-6800106</t>
   </si>
   <si>
-    <t>PD-6800185</t>
+    <t>BPO-6800107</t>
   </si>
   <si>
-    <t>BPD-6800032</t>
+    <t>PO-0000143</t>
   </si>
   <si>
-    <t>BPD-6800086</t>
+    <t>PO-6300567</t>
   </si>
   <si>
-    <t>BPD-6800087</t>
+    <t>PO-6300568</t>
   </si>
   <si>
-    <t>BPD-6800090</t>
+    <t>PO-6300569</t>
   </si>
   <si>
-    <t>BPD-6800092</t>
+    <t>PO-6400285</t>
   </si>
   <si>
-    <t>BPD-6800104</t>
+    <t>PO-6500103</t>
   </si>
   <si>
-    <t>BPD-6800118</t>
+    <t>PO-6500219</t>
   </si>
   <si>
-    <t>BPD-6800119</t>
+    <t>PO-6500540</t>
   </si>
   <si>
-    <t>BPD-6800177</t>
+    <t>PO-6500765</t>
   </si>
   <si>
-    <t>BPD-6800178</t>
+    <t>PO-6600222</t>
   </si>
   <si>
-    <t>BPD-6800179</t>
+    <t>PO-6600351</t>
   </si>
   <si>
-    <t>BPD-6800183</t>
+    <t>PO-6700352</t>
   </si>
   <si>
-    <t>BPD-6800184</t>
+    <t>PO-6600361</t>
   </si>
   <si>
-    <t>BPD-6800185</t>
+    <t>PO-6600500</t>
   </si>
   <si>
-    <t>BPD-6800186</t>
+    <t>PO-6600524</t>
   </si>
   <si>
-    <t>BPD-6800187</t>
+    <t>PO-6600580</t>
   </si>
   <si>
-    <t>BPD-6800188</t>
+    <t>PO-6700178</t>
   </si>
   <si>
-    <t>BPD-6800189</t>
+    <t>PO-6700208</t>
   </si>
   <si>
-    <t>BPD-6800190</t>
+    <t>PO-6700253</t>
   </si>
   <si>
-    <t>BPD-6800192</t>
+    <t>PO-6700318</t>
   </si>
   <si>
-    <t>BPD-6800193</t>
+    <t>PO-6700330</t>
   </si>
   <si>
-    <t>BPD-6800194</t>
+    <t>PO-6700351</t>
   </si>
   <si>
-    <t>BPD-6800196</t>
+    <t>PO-6700426</t>
   </si>
   <si>
-    <t>BPD-6800203</t>
+    <t>PO-6700435</t>
   </si>
   <si>
-    <t>BPD-6800204</t>
+    <t>PO-6800005</t>
   </si>
   <si>
-    <t>BPD-6800205</t>
+    <t>PO-6800035</t>
   </si>
   <si>
-    <t>BPD-6800207</t>
+    <t>PO-6800044</t>
   </si>
   <si>
-    <t>BPD-6800208</t>
+    <t>PO-6800057</t>
   </si>
   <si>
-    <t>BPD-6800209</t>
+    <t>PO-6800063</t>
   </si>
   <si>
-    <t>BPD-6800210</t>
+    <t>PO-6800080</t>
   </si>
   <si>
-    <t>BPD-6800212</t>
+    <t>PO-6800081</t>
   </si>
   <si>
-    <t>BPD-6800213</t>
+    <t>PO-6800084</t>
   </si>
   <si>
-    <t>BPD-6800214</t>
+    <t>PO-6800085</t>
   </si>
   <si>
-    <t>BPD-6800215</t>
+    <t>PO-6800086</t>
   </si>
   <si>
-    <t>BPD-6800216</t>
+    <t>PO-6800087</t>
   </si>
   <si>
-    <t>BPD-6800217</t>
+    <t>PO-6800088</t>
   </si>
   <si>
-    <t>BPD-6800220</t>
+    <t>PO-6800089</t>
   </si>
   <si>
-    <t>BPD-6800221</t>
+    <t>PO-6800090</t>
   </si>
   <si>
-    <t>BPD-6800222</t>
+    <t>PO-6800091</t>
   </si>
   <si>
-    <t>BPD-6800223</t>
+    <t>PO-6800092</t>
   </si>
   <si>
-    <t>BPD-6800224</t>
+    <t>PO-6800093</t>
   </si>
   <si>
-    <t>BPD-6800225</t>
+    <t>PO-6800094</t>
   </si>
   <si>
-    <t>BPD-6800226</t>
+    <t>PO-6800095</t>
   </si>
   <si>
-    <t>BPD-6800228</t>
+    <t>PO-6800096</t>
   </si>
   <si>
-    <t>BPD-6800229</t>
+    <t>PO-6800097</t>
   </si>
   <si>
-    <t>BPD-6800230</t>
+    <t>PO-6800098</t>
   </si>
   <si>
-    <t>BPD-6800231</t>
+    <t>PO-6800099</t>
   </si>
   <si>
-    <t>BPD-6800232</t>
+    <t>PO-6800100</t>
   </si>
   <si>
-    <t>BPD-6800233</t>
+    <t>PO-6800101</t>
   </si>
   <si>
-    <t>BPD-6800234</t>
+    <t>PO-6800102</t>
   </si>
   <si>
-    <t>BPD-6800237</t>
+    <t>PO-6800103</t>
   </si>
   <si>
-    <t>BPD-6800238</t>
+    <t>PO-6800104</t>
   </si>
   <si>
-    <t>BPD-6800239</t>
+    <t>PO-6800105</t>
   </si>
   <si>
-    <t>BPD-6800242</t>
+    <t>PO-6800106</t>
   </si>
   <si>
-    <t>BPD-6800243</t>
+    <t>PO-6800107</t>
   </si>
   <si>
-    <t>BPD-6800244</t>
+    <t>PO-6800108</t>
   </si>
   <si>
-    <t>BPD-6800245</t>
+    <t>PO-6800109</t>
   </si>
   <si>
-    <t>BPD-6800246</t>
+    <t>PO-6800110</t>
   </si>
   <si>
-    <t>BPD-6800247</t>
+    <t>PO-6800111</t>
   </si>
   <si>
-    <t>BPD-6800248</t>
+    <t>PO-6800112</t>
   </si>
   <si>
-    <t>BPD-6800249</t>
+    <t>PO-6800113</t>
   </si>
   <si>
-    <t>BPD-6800251</t>
+    <t>PO-6800114</t>
   </si>
   <si>
-    <t>BPD-6800252</t>
+    <t>PO-6800115</t>
   </si>
   <si>
-    <t>BPD-6800253</t>
+    <t>PO-6800116</t>
   </si>
   <si>
-    <t>BPD-6800254</t>
+    <t>PO-6800117</t>
   </si>
   <si>
-    <t>BPD-6800256</t>
+    <t>PO-6800118</t>
   </si>
   <si>
-    <t>BPD-6800257</t>
+    <t>PO-6800119</t>
   </si>
   <si>
-    <t>BPD-6800258</t>
+    <t>PO-6800120</t>
   </si>
   <si>
-    <t>BPD-6800259</t>
+    <t>PO-6800122</t>
   </si>
   <si>
-    <t>BPD-6800260</t>
+    <t>PO-6800123</t>
   </si>
   <si>
-    <t>BPD-6800261</t>
+    <t>PO-6800124</t>
   </si>
   <si>
-    <t>BPD-6800262</t>
+    <t>PO-6800125</t>
   </si>
   <si>
-    <t>BPD-6800263</t>
+    <t>PO-6800126</t>
   </si>
   <si>
-    <t>BPD-6800264</t>
-  </si>
-  <si>
-    <t>BPD-6800265</t>
-  </si>
-  <si>
-    <t>BPD-6800266</t>
-  </si>
-  <si>
-    <t>BPD-6800267</t>
-  </si>
-  <si>
-    <t>BPD-6800268</t>
-  </si>
-  <si>
-    <t>BPD-6800269</t>
-  </si>
-  <si>
-    <t>BPD-6800270</t>
-  </si>
-  <si>
-    <t>BPD-6800271</t>
-  </si>
-  <si>
-    <t>BPD-6800275</t>
-  </si>
-  <si>
-    <t>BPD-6800278</t>
-  </si>
-  <si>
-    <t>PD-6800204</t>
-  </si>
-  <si>
-    <t>PD-6800195</t>
-  </si>
-  <si>
-    <t>PD-6800188</t>
-  </si>
-  <si>
-    <t>PD-6800189</t>
-  </si>
-  <si>
-    <t>PD-6800190</t>
-  </si>
-  <si>
-    <t>PD-6800191</t>
-  </si>
-  <si>
-    <t>PD-6800196</t>
-  </si>
-  <si>
-    <t>PD-6800197</t>
-  </si>
-  <si>
-    <t>PD-6800198</t>
-  </si>
-  <si>
-    <t>PD-6800200</t>
+    <t>PO-6800127</t>
   </si>
 </sst>
 </file>
@@ -1192,10 +1036,10 @@
   <dimension ref="A1:B6148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C887" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C641" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E906" sqref="E906"/>
+      <selection pane="bottomRight" activeCell="B482" sqref="B482:B658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1214,2978 +1058,2978 @@
     </row>
     <row r="2" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>176</v>
+        <v>91</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>221</v>
+        <v>106</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>222</v>
+        <v>106</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>222</v>
+        <v>106</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>223</v>
+        <v>107</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>231</v>
+        <v>110</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>231</v>
+        <v>110</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>234</v>
+        <v>110</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>236</v>
+        <v>111</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>237</v>
+        <v>111</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>239</v>
+        <v>111</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>242</v>
+        <v>112</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>243</v>
+        <v>112</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>244</v>
+        <v>113</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>248</v>
+        <v>116</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -4193,7 +4037,7 @@
         <v>117</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -4201,7 +4045,7 @@
         <v>117</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -4209,7 +4053,7 @@
         <v>117</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -4217,159 +4061,159 @@
         <v>117</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -4377,1257 +4221,2137 @@
         <v>118</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>249</v>
+        <v>125</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>255</v>
+        <v>126</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>255</v>
+        <v>126</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>255</v>
+        <v>126</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>255</v>
+        <v>127</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>256</v>
+        <v>127</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>247</v>
+        <v>128</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B483" s="1"/>
+      <c r="A483" t="s">
+        <v>129</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="484" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B484" s="1"/>
+      <c r="A484" t="s">
+        <v>129</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="485" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B485" s="1"/>
+      <c r="A485" t="s">
+        <v>129</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="486" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B486" s="1"/>
+      <c r="A486" t="s">
+        <v>130</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="487" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B487" s="1"/>
+      <c r="A487" t="s">
+        <v>131</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="488" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B488" s="1"/>
+      <c r="A488" t="s">
+        <v>131</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="489" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B489" s="1"/>
+      <c r="A489" t="s">
+        <v>132</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="490" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B490" s="1"/>
+      <c r="A490" t="s">
+        <v>133</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="491" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B491" s="1"/>
+      <c r="A491" t="s">
+        <v>134</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="492" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B492" s="1"/>
+      <c r="A492" t="s">
+        <v>135</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="493" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B493" s="1"/>
+      <c r="A493" t="s">
+        <v>135</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="494" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B494" s="1"/>
+      <c r="A494" t="s">
+        <v>135</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="495" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B495" s="1"/>
+      <c r="A495" t="s">
+        <v>135</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="496" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B496" s="1"/>
-    </row>
-    <row r="497" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B497" s="1"/>
-    </row>
-    <row r="498" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B498" s="1"/>
-    </row>
-    <row r="499" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B499" s="1"/>
-    </row>
-    <row r="500" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B500" s="1"/>
-    </row>
-    <row r="501" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B501" s="1"/>
-    </row>
-    <row r="502" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B502" s="1"/>
-    </row>
-    <row r="503" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B503" s="1"/>
-    </row>
-    <row r="504" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B504" s="1"/>
-    </row>
-    <row r="505" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B505" s="1"/>
-    </row>
-    <row r="506" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B506" s="1"/>
-    </row>
-    <row r="507" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B507" s="1"/>
-    </row>
-    <row r="508" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B508" s="1"/>
-    </row>
-    <row r="509" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B509" s="1"/>
-    </row>
-    <row r="510" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B510" s="1"/>
-    </row>
-    <row r="511" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B511" s="1"/>
-    </row>
-    <row r="512" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B512" s="1"/>
-    </row>
-    <row r="513" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B513" s="1"/>
-    </row>
-    <row r="514" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B514" s="1"/>
-    </row>
-    <row r="515" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B515" s="1"/>
-    </row>
-    <row r="516" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B516" s="1"/>
-    </row>
-    <row r="517" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B517" s="1"/>
-    </row>
-    <row r="518" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B518" s="1"/>
-    </row>
-    <row r="519" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B519" s="1"/>
-    </row>
-    <row r="520" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B520" s="1"/>
-    </row>
-    <row r="521" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B521" s="1"/>
-    </row>
-    <row r="522" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B522" s="1"/>
-    </row>
-    <row r="523" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B523" s="1"/>
-    </row>
-    <row r="524" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B524" s="1"/>
-    </row>
-    <row r="525" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B525" s="1"/>
-    </row>
-    <row r="526" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B526" s="1"/>
-    </row>
-    <row r="527" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B527" s="1"/>
-    </row>
-    <row r="528" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B528" s="1"/>
-    </row>
-    <row r="529" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B529" s="1"/>
-    </row>
-    <row r="530" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B530" s="1"/>
-    </row>
-    <row r="531" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B531" s="1"/>
-    </row>
-    <row r="532" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B532" s="1"/>
-    </row>
-    <row r="533" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B533" s="1"/>
-    </row>
-    <row r="534" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B534" s="1"/>
-    </row>
-    <row r="535" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B535" s="1"/>
-    </row>
-    <row r="536" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B536" s="1"/>
-    </row>
-    <row r="537" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B537" s="1"/>
-    </row>
-    <row r="538" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B538" s="1"/>
-    </row>
-    <row r="539" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B539" s="1"/>
-    </row>
-    <row r="540" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B540" s="1"/>
-    </row>
-    <row r="541" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B541" s="1"/>
-    </row>
-    <row r="542" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B542" s="1"/>
-    </row>
-    <row r="543" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B543" s="1"/>
-    </row>
-    <row r="544" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B544" s="1"/>
-    </row>
-    <row r="545" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B545" s="1"/>
-    </row>
-    <row r="546" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B546" s="1"/>
-    </row>
-    <row r="547" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B547" s="1"/>
-    </row>
-    <row r="548" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B548" s="1"/>
-    </row>
-    <row r="549" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B549" s="1"/>
-    </row>
-    <row r="550" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B550" s="1"/>
-    </row>
-    <row r="551" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B551" s="1"/>
-    </row>
-    <row r="552" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B552" s="1"/>
-    </row>
-    <row r="553" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B553" s="1"/>
-    </row>
-    <row r="554" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B554" s="1"/>
-    </row>
-    <row r="555" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B555" s="1"/>
-    </row>
-    <row r="556" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B556" s="1"/>
-    </row>
-    <row r="557" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B557" s="1"/>
-    </row>
-    <row r="558" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B558" s="1"/>
-    </row>
-    <row r="559" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B559" s="1"/>
-    </row>
-    <row r="560" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B560" s="1"/>
-    </row>
-    <row r="561" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B561" s="1"/>
-    </row>
-    <row r="562" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B562" s="1"/>
-    </row>
-    <row r="563" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B563" s="1"/>
-    </row>
-    <row r="564" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B564" s="1"/>
-    </row>
-    <row r="565" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B565" s="1"/>
-    </row>
-    <row r="566" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B566" s="1"/>
-    </row>
-    <row r="567" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B567" s="1"/>
-    </row>
-    <row r="568" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B568" s="1"/>
-    </row>
-    <row r="569" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B569" s="1"/>
-    </row>
-    <row r="570" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B570" s="1"/>
-    </row>
-    <row r="571" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B571" s="1"/>
-    </row>
-    <row r="572" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B572" s="1"/>
-    </row>
-    <row r="573" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B573" s="1"/>
-    </row>
-    <row r="574" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B574" s="1"/>
-    </row>
-    <row r="575" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B575" s="1"/>
-    </row>
-    <row r="576" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B576" s="1"/>
-    </row>
-    <row r="577" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B577" s="1"/>
-    </row>
-    <row r="578" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B578" s="1"/>
-    </row>
-    <row r="579" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B579" s="1"/>
-    </row>
-    <row r="580" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B580" s="1"/>
-    </row>
-    <row r="581" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B581" s="1"/>
-    </row>
-    <row r="582" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B582" s="1"/>
-    </row>
-    <row r="583" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B583" s="1"/>
-    </row>
-    <row r="584" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B584" s="1"/>
-    </row>
-    <row r="585" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B585" s="1"/>
-    </row>
-    <row r="586" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B586" s="1"/>
-    </row>
-    <row r="587" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B587" s="1"/>
-    </row>
-    <row r="588" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B588" s="1"/>
-    </row>
-    <row r="589" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B589" s="1"/>
-    </row>
-    <row r="590" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B590" s="1"/>
-    </row>
-    <row r="591" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B591" s="1"/>
-    </row>
-    <row r="592" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B592" s="1"/>
-    </row>
-    <row r="593" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B593" s="1"/>
-    </row>
-    <row r="594" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B594" s="1"/>
-    </row>
-    <row r="595" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B595" s="1"/>
-    </row>
-    <row r="596" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B596" s="1"/>
-    </row>
-    <row r="597" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B597" s="1"/>
-    </row>
-    <row r="598" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B598" s="1"/>
-    </row>
-    <row r="599" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B599" s="1"/>
-    </row>
-    <row r="600" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B600" s="1"/>
-    </row>
-    <row r="601" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B601" s="1"/>
-    </row>
-    <row r="602" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B602" s="1"/>
-    </row>
-    <row r="603" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B603" s="1"/>
-    </row>
-    <row r="604" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B604" s="1"/>
-    </row>
-    <row r="605" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B605" s="1"/>
-    </row>
-    <row r="606" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B606" s="1"/>
-    </row>
-    <row r="607" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B607" s="1"/>
-    </row>
-    <row r="608" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B608" s="1"/>
-    </row>
-    <row r="609" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B609" s="1"/>
-    </row>
-    <row r="610" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B610" s="1"/>
-    </row>
-    <row r="611" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B611" s="1"/>
-    </row>
-    <row r="612" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B612" s="1"/>
-    </row>
-    <row r="613" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B613" s="1"/>
-    </row>
-    <row r="614" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B614" s="1"/>
-    </row>
-    <row r="615" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B615" s="1"/>
-    </row>
-    <row r="616" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B616" s="1"/>
-    </row>
-    <row r="617" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B617" s="1"/>
-    </row>
-    <row r="618" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B618" s="1"/>
-    </row>
-    <row r="619" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B619" s="1"/>
-    </row>
-    <row r="620" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B620" s="1"/>
-    </row>
-    <row r="621" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B621" s="1"/>
-    </row>
-    <row r="622" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B622" s="1"/>
-    </row>
-    <row r="623" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B623" s="1"/>
-    </row>
-    <row r="624" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B624" s="1"/>
-    </row>
-    <row r="625" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B625" s="1"/>
-    </row>
-    <row r="626" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B626" s="1"/>
-    </row>
-    <row r="627" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B627" s="1"/>
-    </row>
-    <row r="628" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B628" s="1"/>
-    </row>
-    <row r="629" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B629" s="1"/>
-    </row>
-    <row r="630" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B630" s="1"/>
-    </row>
-    <row r="631" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B631" s="1"/>
-    </row>
-    <row r="632" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B632" s="1"/>
-    </row>
-    <row r="633" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B633" s="1"/>
-    </row>
-    <row r="634" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B634" s="1"/>
-    </row>
-    <row r="635" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B635" s="1"/>
-    </row>
-    <row r="636" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B636" s="1"/>
-    </row>
-    <row r="637" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B637" s="1"/>
-    </row>
-    <row r="638" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B638" s="1"/>
-    </row>
-    <row r="639" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B639" s="1"/>
-    </row>
-    <row r="640" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B640" s="1"/>
-    </row>
-    <row r="641" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B641" s="1"/>
-    </row>
-    <row r="642" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B642" s="1"/>
-    </row>
-    <row r="643" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B643" s="1"/>
-    </row>
-    <row r="644" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B644" s="1"/>
-    </row>
-    <row r="645" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B645" s="1"/>
-    </row>
-    <row r="646" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B646" s="1"/>
-    </row>
-    <row r="647" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B647" s="1"/>
-    </row>
-    <row r="648" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B648" s="1"/>
-    </row>
-    <row r="649" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B649" s="1"/>
-    </row>
-    <row r="650" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B650" s="1"/>
-    </row>
-    <row r="651" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B651" s="1"/>
-    </row>
-    <row r="652" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B652" s="1"/>
-    </row>
-    <row r="653" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B653" s="1"/>
-    </row>
-    <row r="654" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B654" s="1"/>
-    </row>
-    <row r="655" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B655" s="1"/>
-    </row>
-    <row r="656" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B656" s="1"/>
-    </row>
-    <row r="657" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B657" s="1"/>
-    </row>
-    <row r="658" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B658" s="1"/>
-    </row>
-    <row r="659" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>135</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>136</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>137</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>138</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>139</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>140</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>140</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>140</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>140</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>141</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>141</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>142</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>142</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>143</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>143</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>143</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>144</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>144</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>145</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>146</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>146</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>147</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>147</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>147</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>147</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>147</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>147</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>147</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>147</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>147</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>148</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>149</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>150</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>151</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>152</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>153</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>153</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>154</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>154</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>155</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>155</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>155</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>156</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>157</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>157</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>158</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>158</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>159</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>160</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>161</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>161</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>161</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>161</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>162</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>163</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>164</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>165</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>166</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>166</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>167</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>167</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>167</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>167</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>167</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>167</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>167</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>167</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>168</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>169</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>169</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>169</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>169</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>170</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>171</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>172</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>172</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>172</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>173</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>173</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>173</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>174</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>175</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>175</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>175</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>175</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>175</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>175</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>175</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>175</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>175</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>176</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>177</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>178</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>179</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>179</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>180</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>180</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>181</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>181</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>181</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>181</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>181</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>182</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>182</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>182</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>183</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>184</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>184</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>185</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>185</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>186</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>187</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>187</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>188</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>189</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>190</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>191</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>191</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>191</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>191</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>191</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>191</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>191</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>192</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>192</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>193</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>193</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>193</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>194</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>195</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>195</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>196</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>197</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>198</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>198</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>198</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>198</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>198</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>198</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>198</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>198</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>198</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>199</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>199</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>200</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>200</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>200</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>200</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>200</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>201</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>201</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>202</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>203</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>203</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>204</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>204</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>204</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>204</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>204</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>204</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>204</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>204</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>204</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B659" s="1"/>
     </row>
-    <row r="660" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B660" s="1"/>
     </row>
-    <row r="661" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B661" s="1"/>
     </row>
-    <row r="662" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B662" s="1"/>
     </row>
-    <row r="663" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B663" s="1"/>
     </row>
-    <row r="664" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B664" s="1"/>
     </row>
-    <row r="665" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B665" s="1"/>
     </row>
-    <row r="666" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B666" s="1"/>
     </row>
-    <row r="667" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B667" s="1"/>
     </row>
-    <row r="668" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B668" s="1"/>
     </row>
-    <row r="669" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B669" s="1"/>
     </row>
-    <row r="670" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B670" s="1"/>
     </row>
-    <row r="671" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B671" s="1"/>
     </row>
-    <row r="672" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B672" s="1"/>
     </row>
     <row r="673" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">

--- a/Data_file/Cancel_SO.xlsx
+++ b/Data_file/Cancel_SO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="516">
   <si>
     <t>name</t>
   </si>
@@ -166,64 +166,1408 @@
     <t>AC52  โซล่า  ที่วางสบู่  ขาว</t>
   </si>
   <si>
-    <t>PO-6800140</t>
-  </si>
-  <si>
-    <t>PO-6800141</t>
-  </si>
-  <si>
-    <t>PO-6800142</t>
-  </si>
-  <si>
-    <t>PO-6800143</t>
-  </si>
-  <si>
-    <t>PO-6800144</t>
-  </si>
-  <si>
-    <t>PO-6800145</t>
-  </si>
-  <si>
-    <t>PO-6800146</t>
-  </si>
-  <si>
-    <t>PO-6800147</t>
-  </si>
-  <si>
-    <t>PO-6800148</t>
-  </si>
-  <si>
-    <t>PO-6800149</t>
-  </si>
-  <si>
-    <t>PO-6800150</t>
-  </si>
-  <si>
-    <t>PO-6800151</t>
-  </si>
-  <si>
-    <t>PO-6800152</t>
-  </si>
-  <si>
-    <t>PO-6800153</t>
-  </si>
-  <si>
-    <t>PO-6800154</t>
-  </si>
-  <si>
-    <t>PO-6800155</t>
-  </si>
-  <si>
-    <t>PO-6800156</t>
-  </si>
-  <si>
-    <t>PO-6800157</t>
-  </si>
-  <si>
-    <t>PO-6800158</t>
-  </si>
-  <si>
-    <t>PO-6800139</t>
+    <t>OEP6710053/1</t>
+  </si>
+  <si>
+    <t>OEP6710053/2</t>
+  </si>
+  <si>
+    <t>OEP6710053/3</t>
+  </si>
+  <si>
+    <t>OEP6710053/4</t>
+  </si>
+  <si>
+    <t>OEP6710053/5</t>
+  </si>
+  <si>
+    <t>OEP6710053/6</t>
+  </si>
+  <si>
+    <t>BOEP6801017</t>
+  </si>
+  <si>
+    <t>BOEP6805001</t>
+  </si>
+  <si>
+    <t>BOEP6805002</t>
+  </si>
+  <si>
+    <t>BOEP6805003</t>
+  </si>
+  <si>
+    <t>BOEP6805004</t>
+  </si>
+  <si>
+    <t>BOEP6805005</t>
+  </si>
+  <si>
+    <t>BOEP6805006</t>
+  </si>
+  <si>
+    <t>BOEP6805007</t>
+  </si>
+  <si>
+    <t>BOEP6805008</t>
+  </si>
+  <si>
+    <t>BOEP6805009</t>
+  </si>
+  <si>
+    <t>BOEP6805010</t>
+  </si>
+  <si>
+    <t>BOEP6805011</t>
+  </si>
+  <si>
+    <t>BOEP6805012</t>
+  </si>
+  <si>
+    <t>BOEP6805014</t>
+  </si>
+  <si>
+    <t>BOEP6805015</t>
+  </si>
+  <si>
+    <t>BOEP6805016</t>
+  </si>
+  <si>
+    <t>OEP6805005</t>
+  </si>
+  <si>
+    <t>OEP6805006</t>
+  </si>
+  <si>
+    <t>OEP6805007</t>
+  </si>
+  <si>
+    <t>OEP6810071</t>
+  </si>
+  <si>
+    <t>BOEP6708018</t>
+  </si>
+  <si>
+    <t>BOEP6708022</t>
+  </si>
+  <si>
+    <t>BOEP6709022</t>
+  </si>
+  <si>
+    <t>BOEP6710014</t>
+  </si>
+  <si>
+    <t>BOEP6711019</t>
+  </si>
+  <si>
+    <t>BOEP6712021</t>
+  </si>
+  <si>
+    <t>BOEP6712024</t>
+  </si>
+  <si>
+    <t>BOEP6810002</t>
+  </si>
+  <si>
+    <t>OEP6010122</t>
+  </si>
+  <si>
+    <t>OEP6012145</t>
+  </si>
+  <si>
+    <t>OEP6105060</t>
+  </si>
+  <si>
+    <t>OEP6107104</t>
+  </si>
+  <si>
+    <t>OEP6107114</t>
+  </si>
+  <si>
+    <t>OEP6112064</t>
+  </si>
+  <si>
+    <t>OEP6112137</t>
+  </si>
+  <si>
+    <t>OEP6112144</t>
+  </si>
+  <si>
+    <t>OEP6201106</t>
+  </si>
+  <si>
+    <t>OEP6204133</t>
+  </si>
+  <si>
+    <t>OEP6205108</t>
+  </si>
+  <si>
+    <t>OEP6209076</t>
+  </si>
+  <si>
+    <t>OEP6210085</t>
+  </si>
+  <si>
+    <t>OEP6306069</t>
+  </si>
+  <si>
+    <t>OEP6307037</t>
+  </si>
+  <si>
+    <t>OEP6311050</t>
+  </si>
+  <si>
+    <t>OEP6312085</t>
+  </si>
+  <si>
+    <t>OEP6312096</t>
+  </si>
+  <si>
+    <t>OEP6312097</t>
+  </si>
+  <si>
+    <t>OEP6407067</t>
+  </si>
+  <si>
+    <t>OEP6409070</t>
+  </si>
+  <si>
+    <t>OEP6410070</t>
+  </si>
+  <si>
+    <t>OEP6411068</t>
+  </si>
+  <si>
+    <t>OEP6412069</t>
+  </si>
+  <si>
+    <t>OEP6501065</t>
+  </si>
+  <si>
+    <t>OEP6503083</t>
+  </si>
+  <si>
+    <t>OEP6506067</t>
+  </si>
+  <si>
+    <t>OEP6506087</t>
+  </si>
+  <si>
+    <t>OEP6508048</t>
+  </si>
+  <si>
+    <t>OEP6508080</t>
+  </si>
+  <si>
+    <t>OEP6509038</t>
+  </si>
+  <si>
+    <t>OEP6509082</t>
+  </si>
+  <si>
+    <t>OEP6509086</t>
+  </si>
+  <si>
+    <t>OEP6510058</t>
+  </si>
+  <si>
+    <t>OEP6510059</t>
+  </si>
+  <si>
+    <t>OEP6510060</t>
+  </si>
+  <si>
+    <t>OEP6510061</t>
+  </si>
+  <si>
+    <t>OEP6510062</t>
+  </si>
+  <si>
+    <t>OEP6511064</t>
+  </si>
+  <si>
+    <t>OEP6512076</t>
+  </si>
+  <si>
+    <t>OEP6512077</t>
+  </si>
+  <si>
+    <t>OEP6512078</t>
+  </si>
+  <si>
+    <t>OEP6512080</t>
+  </si>
+  <si>
+    <t>OEP6512083</t>
+  </si>
+  <si>
+    <t>OEP6512096</t>
+  </si>
+  <si>
+    <t>OEP6605071</t>
+  </si>
+  <si>
+    <t>OEP6606042</t>
+  </si>
+  <si>
+    <t>OEP6607081</t>
+  </si>
+  <si>
+    <t>OEP6609064</t>
+  </si>
+  <si>
+    <t>OEP6609079</t>
+  </si>
+  <si>
+    <t>OEP6610049</t>
+  </si>
+  <si>
+    <t>OEP6610074</t>
+  </si>
+  <si>
+    <t>OEP6611053</t>
+  </si>
+  <si>
+    <t>OEP6612042</t>
+  </si>
+  <si>
+    <t>OEP6612046</t>
+  </si>
+  <si>
+    <t>OEP6701075</t>
+  </si>
+  <si>
+    <t>OEP6701076</t>
+  </si>
+  <si>
+    <t>OEP6702072</t>
+  </si>
+  <si>
+    <t>OEP6702073</t>
+  </si>
+  <si>
+    <t>OEP6703052</t>
+  </si>
+  <si>
+    <t>OEP6703077</t>
+  </si>
+  <si>
+    <t>OEP6703078</t>
+  </si>
+  <si>
+    <t>OEP6704067</t>
+  </si>
+  <si>
+    <t>OEP6704068</t>
+  </si>
+  <si>
+    <t>OEP6705039</t>
+  </si>
+  <si>
+    <t>OEP6706037</t>
+  </si>
+  <si>
+    <t>OEP6706038</t>
+  </si>
+  <si>
+    <t>OEP6706057</t>
+  </si>
+  <si>
+    <t>OEP6706069</t>
+  </si>
+  <si>
+    <t>OEP6706070</t>
+  </si>
+  <si>
+    <t>OEP6706074</t>
+  </si>
+  <si>
+    <t>OEP6707023</t>
+  </si>
+  <si>
+    <t>OEP6707044</t>
+  </si>
+  <si>
+    <t>OEP6707048</t>
+  </si>
+  <si>
+    <t>OEP6708031</t>
+  </si>
+  <si>
+    <t>OEP6709040</t>
+  </si>
+  <si>
+    <t>OEP6709042</t>
+  </si>
+  <si>
+    <t>OEP6709055</t>
+  </si>
+  <si>
+    <t>OEP6709056</t>
+  </si>
+  <si>
+    <t>OEP6709057</t>
+  </si>
+  <si>
+    <t>OEP6709060</t>
+  </si>
+  <si>
+    <t>OEP6709079</t>
+  </si>
+  <si>
+    <t>OEP6709092</t>
+  </si>
+  <si>
+    <t>OEP6710059</t>
+  </si>
+  <si>
+    <t>OEP6710061</t>
+  </si>
+  <si>
+    <t>OEP6710063</t>
+  </si>
+  <si>
+    <t>OEP6710064</t>
+  </si>
+  <si>
+    <t>OEP6711051</t>
+  </si>
+  <si>
+    <t>OEP6711052</t>
+  </si>
+  <si>
+    <t>OEP6711053</t>
+  </si>
+  <si>
+    <t>OEP6711055</t>
+  </si>
+  <si>
+    <t>OEP6712056</t>
+  </si>
+  <si>
+    <t>OEP6712057</t>
+  </si>
+  <si>
+    <t>OEP6712060</t>
+  </si>
+  <si>
+    <t>OEP6712066</t>
+  </si>
+  <si>
+    <t>OEP6712067</t>
+  </si>
+  <si>
+    <t>OEP6712069</t>
+  </si>
+  <si>
+    <t>OEP6712095</t>
+  </si>
+  <si>
+    <t>OEP6802074</t>
+  </si>
+  <si>
+    <t>OEP6802075</t>
+  </si>
+  <si>
+    <t>OEP6802077</t>
+  </si>
+  <si>
+    <t>OEP6802079</t>
+  </si>
+  <si>
+    <t>OEP6803054</t>
+  </si>
+  <si>
+    <t>OEP6803056</t>
+  </si>
+  <si>
+    <t>OEP6803070</t>
+  </si>
+  <si>
+    <t>OEP6803071</t>
+  </si>
+  <si>
+    <t>OEP6803080</t>
+  </si>
+  <si>
+    <t>OEP6803081</t>
+  </si>
+  <si>
+    <t>OEP6803082</t>
+  </si>
+  <si>
+    <t>OEP6803085</t>
+  </si>
+  <si>
+    <t>OEP6803127</t>
+  </si>
+  <si>
+    <t>OEP6803129</t>
+  </si>
+  <si>
+    <t>OEP6803132</t>
+  </si>
+  <si>
+    <t>OEP6803133</t>
+  </si>
+  <si>
+    <t>OEP6803134</t>
+  </si>
+  <si>
+    <t>OEP6804028</t>
+  </si>
+  <si>
+    <t>OEP6804076</t>
+  </si>
+  <si>
+    <t>OEP6804078</t>
+  </si>
+  <si>
+    <t>OEP6804079</t>
+  </si>
+  <si>
+    <t>OEP6804088</t>
+  </si>
+  <si>
+    <t>OEP6804090</t>
+  </si>
+  <si>
+    <t>OEP6804101</t>
+  </si>
+  <si>
+    <t>OEP6804106</t>
+  </si>
+  <si>
+    <t>OEP6805067</t>
+  </si>
+  <si>
+    <t>OEP6805068</t>
+  </si>
+  <si>
+    <t>OEP6805070</t>
+  </si>
+  <si>
+    <t>OEP6805088</t>
+  </si>
+  <si>
+    <t>OEP6805089</t>
+  </si>
+  <si>
+    <t>OEP6805091</t>
+  </si>
+  <si>
+    <t>OEP6806061</t>
+  </si>
+  <si>
+    <t>OEP6806062</t>
+  </si>
+  <si>
+    <t>OEP6806064</t>
+  </si>
+  <si>
+    <t>OEP6806065</t>
+  </si>
+  <si>
+    <t>OEP6806066</t>
+  </si>
+  <si>
+    <t>OEP6806068</t>
+  </si>
+  <si>
+    <t>OEP6806070</t>
+  </si>
+  <si>
+    <t>OEP6806071</t>
+  </si>
+  <si>
+    <t>OEP6806073</t>
+  </si>
+  <si>
+    <t>OEP6806075</t>
+  </si>
+  <si>
+    <t>OEP6806087</t>
+  </si>
+  <si>
+    <t>OEP6806088</t>
+  </si>
+  <si>
+    <t>OEP6806089</t>
+  </si>
+  <si>
+    <t>OEP6806090</t>
+  </si>
+  <si>
+    <t>OEP6806091</t>
+  </si>
+  <si>
+    <t>OEP6807077</t>
+  </si>
+  <si>
+    <t>OEP6807078</t>
+  </si>
+  <si>
+    <t>OEP6807079</t>
+  </si>
+  <si>
+    <t>OEP6807080</t>
+  </si>
+  <si>
+    <t>OEP6807087</t>
+  </si>
+  <si>
+    <t>OEP6807088</t>
+  </si>
+  <si>
+    <t>OEP6807093</t>
+  </si>
+  <si>
+    <t>OEP6807094</t>
+  </si>
+  <si>
+    <t>OEP6808046</t>
+  </si>
+  <si>
+    <t>OEP6808053</t>
+  </si>
+  <si>
+    <t>OEP6808054</t>
+  </si>
+  <si>
+    <t>OEP6808055</t>
+  </si>
+  <si>
+    <t>OEP6808056</t>
+  </si>
+  <si>
+    <t>OEP6808057</t>
+  </si>
+  <si>
+    <t>OEP6808058</t>
+  </si>
+  <si>
+    <t>OEP6808077</t>
+  </si>
+  <si>
+    <t>OEP6808078</t>
+  </si>
+  <si>
+    <t>OEP6808084</t>
+  </si>
+  <si>
+    <t>OEP6808085</t>
+  </si>
+  <si>
+    <t>OEP6808089</t>
+  </si>
+  <si>
+    <t>OEP6808091</t>
+  </si>
+  <si>
+    <t>OEP6809067</t>
+  </si>
+  <si>
+    <t>OEP6809068</t>
+  </si>
+  <si>
+    <t>OEP6809069</t>
+  </si>
+  <si>
+    <t>OEP6809070</t>
+  </si>
+  <si>
+    <t>OEP6809071</t>
+  </si>
+  <si>
+    <t>OEP6809072</t>
+  </si>
+  <si>
+    <t>OEP6809073</t>
+  </si>
+  <si>
+    <t>OEP6809074</t>
+  </si>
+  <si>
+    <t>OEP6809075</t>
+  </si>
+  <si>
+    <t>OEP6809076</t>
+  </si>
+  <si>
+    <t>OEP6809077</t>
+  </si>
+  <si>
+    <t>OEP6809078</t>
+  </si>
+  <si>
+    <t>OEP6809079</t>
+  </si>
+  <si>
+    <t>OEP6809080</t>
+  </si>
+  <si>
+    <t>OEP6809082</t>
+  </si>
+  <si>
+    <t>OEP6809083</t>
+  </si>
+  <si>
+    <t>OEP6809084</t>
+  </si>
+  <si>
+    <t>OEP6809085</t>
+  </si>
+  <si>
+    <t>OEP6809086</t>
+  </si>
+  <si>
+    <t>OEP6809092</t>
+  </si>
+  <si>
+    <t>OEP6809093</t>
+  </si>
+  <si>
+    <t>OEP6809094</t>
+  </si>
+  <si>
+    <t>OEP6809096</t>
+  </si>
+  <si>
+    <t>OEP6809097</t>
+  </si>
+  <si>
+    <t>OEP6810003</t>
+  </si>
+  <si>
+    <t>OEP6810036</t>
+  </si>
+  <si>
+    <t>OEP6810038</t>
+  </si>
+  <si>
+    <t>OEP6810043</t>
+  </si>
+  <si>
+    <t>OEP6810044</t>
+  </si>
+  <si>
+    <t>OEP6810045</t>
+  </si>
+  <si>
+    <t>OEP6810046</t>
+  </si>
+  <si>
+    <t>OEP6810047</t>
+  </si>
+  <si>
+    <t>OEP6810048</t>
+  </si>
+  <si>
+    <t>OEP6810049</t>
+  </si>
+  <si>
+    <t>OEP6810056</t>
+  </si>
+  <si>
+    <t>OEP6810062</t>
+  </si>
+  <si>
+    <t>OEP6810063</t>
+  </si>
+  <si>
+    <t>OEP6810066</t>
+  </si>
+  <si>
+    <t>OEP6810067</t>
+  </si>
+  <si>
+    <t>OEP6810068</t>
+  </si>
+  <si>
+    <t>OEP6810069</t>
+  </si>
+  <si>
+    <t>OEP6810070</t>
+  </si>
+  <si>
+    <t>OEP6810072</t>
+  </si>
+  <si>
+    <t>OEP6810073</t>
+  </si>
+  <si>
+    <t>OEP6810074</t>
+  </si>
+  <si>
+    <t>OEP6811001</t>
+  </si>
+  <si>
+    <t>OEP6811003</t>
+  </si>
+  <si>
+    <t>OEP6811020</t>
+  </si>
+  <si>
+    <t>OEP6811021</t>
+  </si>
+  <si>
+    <t>OEP6811027</t>
+  </si>
+  <si>
+    <t>OEP6811028</t>
+  </si>
+  <si>
+    <t>PR5711237</t>
+  </si>
+  <si>
+    <t>PR5810240</t>
+  </si>
+  <si>
+    <t>PR5812158/1</t>
+  </si>
+  <si>
+    <t>PV-6106105</t>
+  </si>
+  <si>
+    <t>SMJV6212023</t>
+  </si>
+  <si>
+    <t>SMJV6212024</t>
+  </si>
+  <si>
+    <t>SMPV6810005/2</t>
+  </si>
+  <si>
+    <t>CR18030032</t>
+  </si>
+  <si>
+    <t>CR18060039</t>
+  </si>
+  <si>
+    <t>CR18090037</t>
+  </si>
+  <si>
+    <t>CR22020024</t>
+  </si>
+  <si>
+    <t>CR22020025</t>
+  </si>
+  <si>
+    <t>CR22020026</t>
+  </si>
+  <si>
+    <t>CR22020027</t>
+  </si>
+  <si>
+    <t>CR22030035</t>
+  </si>
+  <si>
+    <t>CR22030036</t>
+  </si>
+  <si>
+    <t>CR22040028</t>
+  </si>
+  <si>
+    <t>CR22040029</t>
+  </si>
+  <si>
+    <t>CR22050027</t>
+  </si>
+  <si>
+    <t>CR22060036</t>
+  </si>
+  <si>
+    <t>CR22070032</t>
+  </si>
+  <si>
+    <t>CR22080026</t>
+  </si>
+  <si>
+    <t>CR22090030</t>
+  </si>
+  <si>
+    <t>CR22090031</t>
+  </si>
+  <si>
+    <t>CR22100024</t>
+  </si>
+  <si>
+    <t>CR22110028</t>
+  </si>
+  <si>
+    <t>CR23040027</t>
+  </si>
+  <si>
+    <t>CR23040031</t>
+  </si>
+  <si>
+    <t>CR23090039</t>
+  </si>
+  <si>
+    <t>CR23110025</t>
+  </si>
+  <si>
+    <t>CR23120031</t>
+  </si>
+  <si>
+    <t>CR23120049</t>
+  </si>
+  <si>
+    <t>CR23120050</t>
+  </si>
+  <si>
+    <t>CR24010028</t>
+  </si>
+  <si>
+    <t>CR24060025</t>
+  </si>
+  <si>
+    <t>CR24060026</t>
+  </si>
+  <si>
+    <t>CR24070016</t>
+  </si>
+  <si>
+    <t>CR24070017</t>
+  </si>
+  <si>
+    <t>CR24070054</t>
+  </si>
+  <si>
+    <t>CR24070061</t>
+  </si>
+  <si>
+    <t>CR24070062</t>
+  </si>
+  <si>
+    <t>CR24070079</t>
+  </si>
+  <si>
+    <t>CR24070080</t>
+  </si>
+  <si>
+    <t>CR24080023</t>
+  </si>
+  <si>
+    <t>CR24080025</t>
+  </si>
+  <si>
+    <t>CR24080026</t>
+  </si>
+  <si>
+    <t>CR24080071</t>
+  </si>
+  <si>
+    <t>CR24090001</t>
+  </si>
+  <si>
+    <t>CR24090027</t>
+  </si>
+  <si>
+    <t>CR24090028</t>
+  </si>
+  <si>
+    <t>CR24090029</t>
+  </si>
+  <si>
+    <t>CR24090030</t>
+  </si>
+  <si>
+    <t>CR24090031</t>
+  </si>
+  <si>
+    <t>CR24090032</t>
+  </si>
+  <si>
+    <t>CR24090033</t>
+  </si>
+  <si>
+    <t>CR24090034</t>
+  </si>
+  <si>
+    <t>CR24090035</t>
+  </si>
+  <si>
+    <t>CR24090048</t>
+  </si>
+  <si>
+    <t>CR24090051</t>
+  </si>
+  <si>
+    <t>CR24090053</t>
+  </si>
+  <si>
+    <t>CR24100029</t>
+  </si>
+  <si>
+    <t>CR24100033</t>
+  </si>
+  <si>
+    <t>CR24100034</t>
+  </si>
+  <si>
+    <t>CR24100035</t>
+  </si>
+  <si>
+    <t>CR24110021</t>
+  </si>
+  <si>
+    <t>CR24110022</t>
+  </si>
+  <si>
+    <t>CR24110026</t>
+  </si>
+  <si>
+    <t>CR24120030</t>
+  </si>
+  <si>
+    <t>CR24120032</t>
+  </si>
+  <si>
+    <t>CR24120037</t>
+  </si>
+  <si>
+    <t>CR24120040</t>
+  </si>
+  <si>
+    <t>CR24120046</t>
+  </si>
+  <si>
+    <t>CR25030025</t>
+  </si>
+  <si>
+    <t>CR25030026</t>
+  </si>
+  <si>
+    <t>CR25030027</t>
+  </si>
+  <si>
+    <t>CR25030028</t>
+  </si>
+  <si>
+    <t>CR25030029</t>
+  </si>
+  <si>
+    <t>CR25030032</t>
+  </si>
+  <si>
+    <t>CR25030033</t>
+  </si>
+  <si>
+    <t>CR25030034</t>
+  </si>
+  <si>
+    <t>CR25050012</t>
+  </si>
+  <si>
+    <t>CR25050013</t>
+  </si>
+  <si>
+    <t>CR25060011</t>
+  </si>
+  <si>
+    <t>CR25060012</t>
+  </si>
+  <si>
+    <t>CR25060013</t>
+  </si>
+  <si>
+    <t>CR25060014</t>
+  </si>
+  <si>
+    <t>CR25060015</t>
+  </si>
+  <si>
+    <t>CR25060016</t>
+  </si>
+  <si>
+    <t>CR25060017</t>
+  </si>
+  <si>
+    <t>CR25060018</t>
+  </si>
+  <si>
+    <t>CR25060020</t>
+  </si>
+  <si>
+    <t>CR25060021</t>
+  </si>
+  <si>
+    <t>CR25070010</t>
+  </si>
+  <si>
+    <t>CR25070011</t>
+  </si>
+  <si>
+    <t>CR25070012</t>
+  </si>
+  <si>
+    <t>CR25070013</t>
+  </si>
+  <si>
+    <t>CR25070014</t>
+  </si>
+  <si>
+    <t>CR25070016</t>
+  </si>
+  <si>
+    <t>CR25070017</t>
+  </si>
+  <si>
+    <t>CR25070018</t>
+  </si>
+  <si>
+    <t>CR25070020</t>
+  </si>
+  <si>
+    <t>CR25070021</t>
+  </si>
+  <si>
+    <t>CR25070022</t>
+  </si>
+  <si>
+    <t>CR25070024</t>
+  </si>
+  <si>
+    <t>CR25070025</t>
+  </si>
+  <si>
+    <t>CR25070026</t>
+  </si>
+  <si>
+    <t>CR25070027</t>
+  </si>
+  <si>
+    <t>CR25070028</t>
+  </si>
+  <si>
+    <t>CR25070029</t>
+  </si>
+  <si>
+    <t>CR25070030</t>
+  </si>
+  <si>
+    <t>CR25070031</t>
+  </si>
+  <si>
+    <t>CR25070032</t>
+  </si>
+  <si>
+    <t>CR25070033</t>
+  </si>
+  <si>
+    <t>CR25070034</t>
+  </si>
+  <si>
+    <t>CR25070035</t>
+  </si>
+  <si>
+    <t>CR25070036</t>
+  </si>
+  <si>
+    <t>CR25070037</t>
+  </si>
+  <si>
+    <t>CR25080013</t>
+  </si>
+  <si>
+    <t>CR25080014</t>
+  </si>
+  <si>
+    <t>CR25080015</t>
+  </si>
+  <si>
+    <t>CR25080016</t>
+  </si>
+  <si>
+    <t>CR25080022</t>
+  </si>
+  <si>
+    <t>CR25080023</t>
+  </si>
+  <si>
+    <t>CR25080024</t>
+  </si>
+  <si>
+    <t>CR25080028</t>
+  </si>
+  <si>
+    <t>CR25080031</t>
+  </si>
+  <si>
+    <t>CR25080032</t>
+  </si>
+  <si>
+    <t>CR25080033</t>
+  </si>
+  <si>
+    <t>CR25080034</t>
+  </si>
+  <si>
+    <t>CR25090002</t>
+  </si>
+  <si>
+    <t>CR25090003</t>
+  </si>
+  <si>
+    <t>CR25090004</t>
+  </si>
+  <si>
+    <t>CR25090005</t>
+  </si>
+  <si>
+    <t>CR25090006</t>
+  </si>
+  <si>
+    <t>CR25090007</t>
+  </si>
+  <si>
+    <t>CR25090008</t>
+  </si>
+  <si>
+    <t>CR25090009</t>
+  </si>
+  <si>
+    <t>CR25090010</t>
+  </si>
+  <si>
+    <t>CR25090011</t>
+  </si>
+  <si>
+    <t>CR25090012</t>
+  </si>
+  <si>
+    <t>CR25090013</t>
+  </si>
+  <si>
+    <t>CR25090014</t>
+  </si>
+  <si>
+    <t>CR25090019</t>
+  </si>
+  <si>
+    <t>CR25090020</t>
+  </si>
+  <si>
+    <t>CR25090030</t>
+  </si>
+  <si>
+    <t>CR25090031</t>
+  </si>
+  <si>
+    <t>CR25090032</t>
+  </si>
+  <si>
+    <t>CR25090033</t>
+  </si>
+  <si>
+    <t>CR25090034</t>
+  </si>
+  <si>
+    <t>CR25090035</t>
+  </si>
+  <si>
+    <t>CR25090036</t>
+  </si>
+  <si>
+    <t>CR25090037</t>
+  </si>
+  <si>
+    <t>CR25090038</t>
+  </si>
+  <si>
+    <t>CR25090039</t>
+  </si>
+  <si>
+    <t>CR25090040</t>
+  </si>
+  <si>
+    <t>CR25090041</t>
+  </si>
+  <si>
+    <t>CR25090042</t>
+  </si>
+  <si>
+    <t>CR25090043</t>
+  </si>
+  <si>
+    <t>CR25090044</t>
+  </si>
+  <si>
+    <t>CR25090045</t>
+  </si>
+  <si>
+    <t>CR25090046</t>
+  </si>
+  <si>
+    <t>CR25090047</t>
+  </si>
+  <si>
+    <t>CR25090048</t>
+  </si>
+  <si>
+    <t>CR25090049</t>
+  </si>
+  <si>
+    <t>CR25100001</t>
+  </si>
+  <si>
+    <t>CR25100002</t>
+  </si>
+  <si>
+    <t>CR25100003</t>
+  </si>
+  <si>
+    <t>CR25100004</t>
+  </si>
+  <si>
+    <t>CR25100005</t>
+  </si>
+  <si>
+    <t>CR25100006</t>
+  </si>
+  <si>
+    <t>CR25100007</t>
+  </si>
+  <si>
+    <t>CR25100008</t>
+  </si>
+  <si>
+    <t>CR25100009</t>
+  </si>
+  <si>
+    <t>CR25100010</t>
+  </si>
+  <si>
+    <t>CR25100011</t>
+  </si>
+  <si>
+    <t>CR25100012</t>
+  </si>
+  <si>
+    <t>CR25100013</t>
+  </si>
+  <si>
+    <t>CR25100014</t>
+  </si>
+  <si>
+    <t>CR25100015</t>
+  </si>
+  <si>
+    <t>CR25100016</t>
+  </si>
+  <si>
+    <t>CR25100017</t>
+  </si>
+  <si>
+    <t>CR25100018</t>
+  </si>
+  <si>
+    <t>CR25100019</t>
+  </si>
+  <si>
+    <t>CR25100020</t>
+  </si>
+  <si>
+    <t>CR25100021</t>
+  </si>
+  <si>
+    <t>CR25100022</t>
+  </si>
+  <si>
+    <t>CR25100023</t>
+  </si>
+  <si>
+    <t>CR25100024</t>
+  </si>
+  <si>
+    <t>CR25100025</t>
+  </si>
+  <si>
+    <t>CR25100026</t>
+  </si>
+  <si>
+    <t>CR25100027</t>
+  </si>
+  <si>
+    <t>CR25100028</t>
+  </si>
+  <si>
+    <t>CR25100029</t>
+  </si>
+  <si>
+    <t>CR25100030</t>
+  </si>
+  <si>
+    <t>CR25100031</t>
+  </si>
+  <si>
+    <t>CR25100032</t>
+  </si>
+  <si>
+    <t>CR25100033</t>
+  </si>
+  <si>
+    <t>CR25100034</t>
+  </si>
+  <si>
+    <t>CR25100035</t>
+  </si>
+  <si>
+    <t>CR25100036</t>
+  </si>
+  <si>
+    <t>CR25100037</t>
+  </si>
+  <si>
+    <t>CR25100038</t>
+  </si>
+  <si>
+    <t>CR25100039</t>
+  </si>
+  <si>
+    <t>CR25100040</t>
+  </si>
+  <si>
+    <t>CR25100041</t>
+  </si>
+  <si>
+    <t>PR5801502</t>
+  </si>
+  <si>
+    <t>PR5812158/2</t>
+  </si>
+  <si>
+    <t>SMJV6801014</t>
+  </si>
+  <si>
+    <t>SMJV6802001</t>
+  </si>
+  <si>
+    <t>SMJV6803001</t>
+  </si>
+  <si>
+    <t>SMJV6804001</t>
+  </si>
+  <si>
+    <t>SMJV6805001</t>
+  </si>
+  <si>
+    <t>SMJV6806003</t>
+  </si>
+  <si>
+    <t>SMJV6807017</t>
+  </si>
+  <si>
+    <t>SMJV6808007</t>
+  </si>
+  <si>
+    <t>SMJV6809001</t>
+  </si>
+  <si>
+    <t>SMJV6810002</t>
+  </si>
+  <si>
+    <t>SMJV6811004</t>
   </si>
 </sst>
 </file>
@@ -246,6 +1590,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1488,7 +2833,7 @@
   <dimension ref="A1:I6148"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1517,7 +2862,7 @@
     </row>
     <row r="2" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1531,7 +2876,7 @@
     </row>
     <row r="3" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1545,7 +2890,7 @@
     </row>
     <row r="4" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1559,7 +2904,7 @@
     </row>
     <row r="5" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -1573,7 +2918,7 @@
     </row>
     <row r="6" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -1587,7 +2932,7 @@
     </row>
     <row r="7" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -1601,7 +2946,7 @@
     </row>
     <row r="8" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -1615,7 +2960,7 @@
     </row>
     <row r="9" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
@@ -1629,7 +2974,7 @@
     </row>
     <row r="10" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
@@ -1643,7 +2988,7 @@
     </row>
     <row r="11" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
@@ -1657,7 +3002,7 @@
     </row>
     <row r="12" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2</v>
@@ -1671,7 +3016,7 @@
     </row>
     <row r="13" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
@@ -1685,7 +3030,7 @@
     </row>
     <row r="14" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
@@ -1713,7 +3058,7 @@
     </row>
     <row r="16" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
@@ -1727,7 +3072,7 @@
     </row>
     <row r="17" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2</v>
@@ -1741,7 +3086,7 @@
     </row>
     <row r="18" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2</v>
@@ -1755,7 +3100,7 @@
     </row>
     <row r="19" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>2</v>
@@ -1769,7 +3114,7 @@
     </row>
     <row r="20" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>2</v>
@@ -1783,7 +3128,7 @@
     </row>
     <row r="21" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2</v>
@@ -1797,7 +3142,7 @@
     </row>
     <row r="22" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>2</v>
@@ -1811,7 +3156,7 @@
     </row>
     <row r="23" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>2</v>
@@ -1825,7 +3170,7 @@
     </row>
     <row r="24" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>2</v>
@@ -1839,7 +3184,7 @@
     </row>
     <row r="25" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>2</v>
@@ -1850,7 +3195,7 @@
     </row>
     <row r="26" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>2</v>
@@ -1861,7 +3206,7 @@
     </row>
     <row r="27" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>2</v>
@@ -1872,7 +3217,7 @@
     </row>
     <row r="28" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>2</v>
@@ -1883,7 +3228,7 @@
     </row>
     <row r="29" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>2</v>
@@ -1894,7 +3239,7 @@
     </row>
     <row r="30" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>2</v>
@@ -1905,7 +3250,7 @@
     </row>
     <row r="31" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>2</v>
@@ -1916,7 +3261,7 @@
     </row>
     <row r="32" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>2</v>
@@ -1927,7 +3272,7 @@
     </row>
     <row r="33" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>2</v>
@@ -1938,7 +3283,7 @@
     </row>
     <row r="34" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>2</v>
@@ -1949,7 +3294,7 @@
     </row>
     <row r="35" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>2</v>
@@ -1960,7 +3305,7 @@
     </row>
     <row r="36" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>2</v>
@@ -1971,7 +3316,7 @@
     </row>
     <row r="37" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>2</v>
@@ -1982,7 +3327,7 @@
     </row>
     <row r="38" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>2</v>
@@ -1993,7 +3338,7 @@
     </row>
     <row r="39" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2</v>
@@ -2004,7 +3349,7 @@
     </row>
     <row r="40" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>2</v>
@@ -2015,7 +3360,7 @@
     </row>
     <row r="41" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>2</v>
@@ -2026,7 +3371,7 @@
     </row>
     <row r="42" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>2</v>
@@ -2037,7 +3382,7 @@
     </row>
     <row r="43" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>2</v>
@@ -2048,7 +3393,7 @@
     </row>
     <row r="44" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>2</v>
@@ -2059,7 +3404,7 @@
     </row>
     <row r="45" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>2</v>
@@ -2070,7 +3415,7 @@
     </row>
     <row r="46" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>2</v>
@@ -2081,7 +3426,7 @@
     </row>
     <row r="47" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>2</v>
@@ -2092,7 +3437,7 @@
     </row>
     <row r="48" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>2</v>
@@ -2103,7 +3448,7 @@
     </row>
     <row r="49" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>2</v>
@@ -2114,7 +3459,7 @@
     </row>
     <row r="50" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>2</v>
@@ -2125,7 +3470,7 @@
     </row>
     <row r="51" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>2</v>
@@ -2136,7 +3481,7 @@
     </row>
     <row r="52" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>2</v>
@@ -2147,7 +3492,7 @@
     </row>
     <row r="53" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>2</v>
@@ -2158,7 +3503,7 @@
     </row>
     <row r="54" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>2</v>
@@ -2169,7 +3514,7 @@
     </row>
     <row r="55" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>2</v>
@@ -2180,7 +3525,7 @@
     </row>
     <row r="56" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>2</v>
@@ -2191,7 +3536,7 @@
     </row>
     <row r="57" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>2</v>
@@ -2202,7 +3547,7 @@
     </row>
     <row r="58" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>2</v>
@@ -2213,7 +3558,7 @@
     </row>
     <row r="59" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>2</v>
@@ -2224,7 +3569,7 @@
     </row>
     <row r="60" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>2</v>
@@ -2235,7 +3580,7 @@
     </row>
     <row r="61" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>2</v>
@@ -2246,7 +3591,7 @@
     </row>
     <row r="62" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>2</v>
@@ -2257,7 +3602,7 @@
     </row>
     <row r="63" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>2</v>
@@ -2268,7 +3613,7 @@
     </row>
     <row r="64" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>2</v>
@@ -2279,7 +3624,7 @@
     </row>
     <row r="65" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>2</v>
@@ -2290,7 +3635,7 @@
     </row>
     <row r="66" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>2</v>
@@ -2301,7 +3646,7 @@
     </row>
     <row r="67" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>2</v>
@@ -2312,7 +3657,7 @@
     </row>
     <row r="68" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>2</v>
@@ -2323,7 +3668,7 @@
     </row>
     <row r="69" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>2</v>
@@ -2334,7 +3679,7 @@
     </row>
     <row r="70" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>2</v>
@@ -2345,7 +3690,7 @@
     </row>
     <row r="71" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>2</v>
@@ -2356,7 +3701,7 @@
     </row>
     <row r="72" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>2</v>
@@ -2367,7 +3712,7 @@
     </row>
     <row r="73" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>2</v>
@@ -2378,7 +3723,7 @@
     </row>
     <row r="74" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>2</v>
@@ -2389,7 +3734,7 @@
     </row>
     <row r="75" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>2</v>
@@ -2400,7 +3745,7 @@
     </row>
     <row r="76" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>2</v>
@@ -2411,7 +3756,7 @@
     </row>
     <row r="77" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>2</v>
@@ -2421,2744 +3766,3528 @@
       <c r="E77" s="3"/>
     </row>
     <row r="78" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
+      <c r="A78" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="B78" s="2"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
+      <c r="A79" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="B79" s="2"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
+      <c r="A80" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="B80" s="2"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
+      <c r="A81" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="B81" s="2"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
+      <c r="A82" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
+      <c r="A83" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="B83" s="2"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
+      <c r="A84" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="B84" s="2"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
+      <c r="A85" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="B85" s="2"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
+      <c r="A86" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
+      <c r="A87" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
+      <c r="A88" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="B88" s="2"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
+      <c r="A89" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="B89" s="2"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
+      <c r="A90" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="B90" s="2"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
+      <c r="A91" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="B91" s="2"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
+      <c r="A92" s="10" t="s">
+        <v>138</v>
+      </c>
       <c r="B92" s="2"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
+      <c r="A93" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="B93" s="2"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
+      <c r="A94" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="B94" s="2"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
+      <c r="A95" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="B95" s="2"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
+      <c r="A96" s="10" t="s">
+        <v>142</v>
+      </c>
       <c r="B96" s="2"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
+      <c r="A97" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
+      <c r="A98" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="B98" s="2"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
+      <c r="A99" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="B99" s="2"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
+      <c r="A100" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
+      <c r="A101" s="10" t="s">
+        <v>147</v>
+      </c>
       <c r="B101" s="2"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
+      <c r="A102" s="10" t="s">
+        <v>148</v>
+      </c>
       <c r="B102" s="2"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
+      <c r="A103" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
+      <c r="A104" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
+      <c r="A105" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
+      <c r="A106" s="10" t="s">
+        <v>152</v>
+      </c>
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
+      <c r="A107" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="B107" s="2"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
+      <c r="A108" s="10" t="s">
+        <v>154</v>
+      </c>
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
+      <c r="A109" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="B109" s="2"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
+      <c r="A110" s="10" t="s">
+        <v>156</v>
+      </c>
       <c r="B110" s="2"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
+      <c r="A111" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="B111" s="2"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
+      <c r="A112" s="10" t="s">
+        <v>158</v>
+      </c>
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
+      <c r="A113" s="10" t="s">
+        <v>159</v>
+      </c>
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="10"/>
+      <c r="A114" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
+      <c r="A115" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="10"/>
+      <c r="A116" s="10" t="s">
+        <v>162</v>
+      </c>
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
+      <c r="A117" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="B117" s="2"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="10"/>
+      <c r="A118" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
+      <c r="A119" s="10" t="s">
+        <v>165</v>
+      </c>
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
+      <c r="A120" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="10"/>
+      <c r="A121" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="B121" s="2"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="10"/>
+      <c r="A122" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="10"/>
+      <c r="A123" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="B123" s="2"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="10"/>
+      <c r="A124" s="10" t="s">
+        <v>170</v>
+      </c>
       <c r="B124" s="2"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
+      <c r="A125" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="B125" s="2"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="10"/>
+      <c r="A126" s="10" t="s">
+        <v>172</v>
+      </c>
       <c r="B126" s="2"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
+      <c r="A127" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="B127" s="2"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="10"/>
+      <c r="A128" s="10" t="s">
+        <v>174</v>
+      </c>
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="10"/>
+      <c r="A129" s="10" t="s">
+        <v>175</v>
+      </c>
       <c r="B129" s="2"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
     <row r="130" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
+      <c r="A130" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
     <row r="131" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="10"/>
+      <c r="A131" s="10" t="s">
+        <v>177</v>
+      </c>
       <c r="B131" s="2"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
     <row r="132" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="10"/>
+      <c r="A132" s="10" t="s">
+        <v>178</v>
+      </c>
       <c r="B132" s="2"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
     <row r="133" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="10"/>
+      <c r="A133" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="B133" s="2"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
     <row r="134" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="10"/>
+      <c r="A134" s="10" t="s">
+        <v>180</v>
+      </c>
       <c r="B134" s="2"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
     <row r="135" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="10"/>
+      <c r="A135" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="B135" s="2"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
     <row r="136" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="10"/>
+      <c r="A136" s="10" t="s">
+        <v>182</v>
+      </c>
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
     <row r="137" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="10"/>
+      <c r="A137" s="10" t="s">
+        <v>183</v>
+      </c>
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
     <row r="138" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="10"/>
+      <c r="A138" s="10" t="s">
+        <v>184</v>
+      </c>
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
     <row r="139" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="10"/>
+      <c r="A139" s="10" t="s">
+        <v>185</v>
+      </c>
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
     <row r="140" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
+      <c r="A140" s="10" t="s">
+        <v>186</v>
+      </c>
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
     <row r="141" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
+      <c r="A141" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
     <row r="142" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
+      <c r="A142" s="10" t="s">
+        <v>188</v>
+      </c>
       <c r="B142" s="2"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
     <row r="143" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="10"/>
+      <c r="A143" s="10" t="s">
+        <v>189</v>
+      </c>
       <c r="B143" s="2"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
     <row r="144" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="10"/>
+      <c r="A144" s="10" t="s">
+        <v>190</v>
+      </c>
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
     <row r="145" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="10"/>
+      <c r="A145" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="B145" s="2"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
     <row r="146" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="10"/>
+      <c r="A146" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="B146" s="2"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
     <row r="147" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="10"/>
+      <c r="A147" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="B147" s="2"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
     <row r="148" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="10"/>
+      <c r="A148" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="B148" s="2"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
     <row r="149" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="10"/>
+      <c r="A149" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="B149" s="2"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
     <row r="150" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
+      <c r="A150" s="10" t="s">
+        <v>196</v>
+      </c>
       <c r="B150" s="2"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
     <row r="151" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
+      <c r="A151" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="B151" s="2"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
     </row>
     <row r="152" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
+      <c r="A152" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="B152" s="2"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
     <row r="153" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
+      <c r="A153" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="B153" s="2"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
     <row r="154" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
+      <c r="A154" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="B154" s="2"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
     </row>
     <row r="155" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
+      <c r="A155" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="B155" s="2"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
     </row>
     <row r="156" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
+      <c r="A156" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="B156" s="2"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
     </row>
     <row r="157" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
+      <c r="A157" s="10" t="s">
+        <v>203</v>
+      </c>
       <c r="B157" s="2"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
     </row>
     <row r="158" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="10"/>
+      <c r="A158" s="10" t="s">
+        <v>204</v>
+      </c>
       <c r="B158" s="2"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
     </row>
     <row r="159" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="10"/>
+      <c r="A159" s="10" t="s">
+        <v>205</v>
+      </c>
       <c r="B159" s="2"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
     </row>
     <row r="160" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="10"/>
+      <c r="A160" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="B160" s="2"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
     </row>
     <row r="161" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="10"/>
+      <c r="A161" s="10" t="s">
+        <v>207</v>
+      </c>
       <c r="B161" s="2"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
     </row>
     <row r="162" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="10"/>
+      <c r="A162" s="10" t="s">
+        <v>208</v>
+      </c>
       <c r="B162" s="2"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
     </row>
     <row r="163" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="10"/>
+      <c r="A163" s="10" t="s">
+        <v>209</v>
+      </c>
       <c r="B163" s="2"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
     </row>
     <row r="164" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="10"/>
+      <c r="A164" s="10" t="s">
+        <v>210</v>
+      </c>
       <c r="B164" s="2"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
     </row>
     <row r="165" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="10"/>
+      <c r="A165" s="10" t="s">
+        <v>211</v>
+      </c>
       <c r="B165" s="2"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
     </row>
     <row r="166" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="10"/>
+      <c r="A166" s="10" t="s">
+        <v>212</v>
+      </c>
       <c r="B166" s="2"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
     </row>
     <row r="167" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="10"/>
+      <c r="A167" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="B167" s="2"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
     </row>
     <row r="168" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="10"/>
+      <c r="A168" s="10" t="s">
+        <v>214</v>
+      </c>
       <c r="B168" s="2"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
     </row>
     <row r="169" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="10"/>
+      <c r="A169" s="10" t="s">
+        <v>215</v>
+      </c>
       <c r="B169" s="2"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
     </row>
     <row r="170" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="10"/>
+      <c r="A170" s="10" t="s">
+        <v>216</v>
+      </c>
       <c r="B170" s="2"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
     </row>
     <row r="171" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="10"/>
+      <c r="A171" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="B171" s="2"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
     </row>
     <row r="172" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="10"/>
+      <c r="A172" s="10" t="s">
+        <v>218</v>
+      </c>
       <c r="B172" s="2"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
     </row>
     <row r="173" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="10"/>
+      <c r="A173" s="10" t="s">
+        <v>219</v>
+      </c>
       <c r="B173" s="2"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
     </row>
     <row r="174" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="10"/>
+      <c r="A174" s="10" t="s">
+        <v>220</v>
+      </c>
       <c r="B174" s="2"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
     </row>
     <row r="175" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="10"/>
+      <c r="A175" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="B175" s="2"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
     </row>
     <row r="176" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="10"/>
+      <c r="A176" s="10" t="s">
+        <v>222</v>
+      </c>
       <c r="B176" s="2"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
     </row>
     <row r="177" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="10"/>
+      <c r="A177" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="B177" s="2"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
     </row>
     <row r="178" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="10"/>
+      <c r="A178" s="10" t="s">
+        <v>224</v>
+      </c>
       <c r="B178" s="2"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
     </row>
     <row r="179" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="10"/>
+      <c r="A179" s="10" t="s">
+        <v>225</v>
+      </c>
       <c r="B179" s="2"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
     </row>
     <row r="180" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="10"/>
+      <c r="A180" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="B180" s="2"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
     </row>
     <row r="181" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="10"/>
+      <c r="A181" s="10" t="s">
+        <v>227</v>
+      </c>
       <c r="B181" s="2"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
     </row>
     <row r="182" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="10"/>
+      <c r="A182" s="10" t="s">
+        <v>228</v>
+      </c>
       <c r="B182" s="2"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
     </row>
     <row r="183" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="10"/>
+      <c r="A183" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="B183" s="2"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
     </row>
     <row r="184" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="10"/>
+      <c r="A184" s="10" t="s">
+        <v>230</v>
+      </c>
       <c r="B184" s="2"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
     </row>
     <row r="185" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="10"/>
+      <c r="A185" s="10" t="s">
+        <v>231</v>
+      </c>
       <c r="B185" s="2"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
     </row>
     <row r="186" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="10"/>
+      <c r="A186" s="10" t="s">
+        <v>232</v>
+      </c>
       <c r="B186" s="2"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
     </row>
     <row r="187" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="10"/>
+      <c r="A187" s="10" t="s">
+        <v>233</v>
+      </c>
       <c r="B187" s="2"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
     </row>
     <row r="188" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="10"/>
+      <c r="A188" s="10" t="s">
+        <v>234</v>
+      </c>
       <c r="B188" s="2"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
     </row>
     <row r="189" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="10"/>
+      <c r="A189" s="10" t="s">
+        <v>235</v>
+      </c>
       <c r="B189" s="2"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
     </row>
     <row r="190" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="10"/>
+      <c r="A190" s="10" t="s">
+        <v>236</v>
+      </c>
       <c r="B190" s="2"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
     </row>
     <row r="191" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="10"/>
+      <c r="A191" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="B191" s="2"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
     </row>
     <row r="192" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="10"/>
+      <c r="A192" s="10" t="s">
+        <v>238</v>
+      </c>
       <c r="B192" s="2"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
     </row>
     <row r="193" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="10"/>
+      <c r="A193" s="10" t="s">
+        <v>239</v>
+      </c>
       <c r="B193" s="2"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
     </row>
     <row r="194" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="10"/>
+      <c r="A194" s="10" t="s">
+        <v>240</v>
+      </c>
       <c r="B194" s="2"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
     </row>
     <row r="195" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="10"/>
+      <c r="A195" s="10" t="s">
+        <v>241</v>
+      </c>
       <c r="B195" s="2"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
     </row>
     <row r="196" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="10"/>
+      <c r="A196" s="10" t="s">
+        <v>242</v>
+      </c>
       <c r="B196" s="2"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
     </row>
     <row r="197" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="10"/>
+      <c r="A197" s="10" t="s">
+        <v>243</v>
+      </c>
       <c r="B197" s="2"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
     </row>
     <row r="198" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="10"/>
+      <c r="A198" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="B198" s="2"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
     </row>
     <row r="199" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="10"/>
+      <c r="A199" s="10" t="s">
+        <v>245</v>
+      </c>
       <c r="B199" s="2"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
     </row>
     <row r="200" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="10"/>
+      <c r="A200" s="10" t="s">
+        <v>246</v>
+      </c>
       <c r="B200" s="2"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
     </row>
     <row r="201" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="10"/>
+      <c r="A201" s="10" t="s">
+        <v>247</v>
+      </c>
       <c r="B201" s="2"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
     </row>
     <row r="202" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="10"/>
+      <c r="A202" s="10" t="s">
+        <v>248</v>
+      </c>
       <c r="B202" s="2"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
     </row>
     <row r="203" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="10"/>
+      <c r="A203" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="B203" s="2"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
     </row>
     <row r="204" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="10"/>
+      <c r="A204" s="10" t="s">
+        <v>250</v>
+      </c>
       <c r="B204" s="2"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
     </row>
     <row r="205" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="10"/>
+      <c r="A205" s="10" t="s">
+        <v>251</v>
+      </c>
       <c r="B205" s="2"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
     </row>
     <row r="206" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="10"/>
+      <c r="A206" s="10" t="s">
+        <v>252</v>
+      </c>
       <c r="B206" s="2"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
     </row>
     <row r="207" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="10"/>
+      <c r="A207" s="10" t="s">
+        <v>253</v>
+      </c>
       <c r="B207" s="2"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
     </row>
     <row r="208" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="10"/>
+      <c r="A208" s="10" t="s">
+        <v>254</v>
+      </c>
       <c r="B208" s="2"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
     </row>
     <row r="209" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="10"/>
+      <c r="A209" s="10" t="s">
+        <v>255</v>
+      </c>
       <c r="B209" s="2"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
     </row>
     <row r="210" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="10"/>
+      <c r="A210" s="10" t="s">
+        <v>256</v>
+      </c>
       <c r="B210" s="2"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
     </row>
     <row r="211" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="10"/>
+      <c r="A211" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="B211" s="2"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
     </row>
     <row r="212" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="10"/>
+      <c r="A212" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="B212" s="2"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
     </row>
     <row r="213" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="10"/>
+      <c r="A213" s="10" t="s">
+        <v>259</v>
+      </c>
       <c r="B213" s="2"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
     </row>
     <row r="214" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="10"/>
+      <c r="A214" s="10" t="s">
+        <v>260</v>
+      </c>
       <c r="B214" s="2"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
     </row>
     <row r="215" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="10"/>
+      <c r="A215" s="10" t="s">
+        <v>261</v>
+      </c>
       <c r="B215" s="2"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
     </row>
     <row r="216" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="10"/>
+      <c r="A216" s="10" t="s">
+        <v>262</v>
+      </c>
       <c r="B216" s="2"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
     </row>
     <row r="217" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="10"/>
+      <c r="A217" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="B217" s="2"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
     </row>
     <row r="218" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="10"/>
+      <c r="A218" s="10" t="s">
+        <v>264</v>
+      </c>
       <c r="B218" s="2"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
     </row>
     <row r="219" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="10"/>
+      <c r="A219" s="10" t="s">
+        <v>265</v>
+      </c>
       <c r="B219" s="2"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
     </row>
     <row r="220" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="10"/>
+      <c r="A220" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="B220" s="2"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
     </row>
     <row r="221" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="10"/>
+      <c r="A221" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="B221" s="2"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
     </row>
     <row r="222" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="10"/>
+      <c r="A222" s="10" t="s">
+        <v>268</v>
+      </c>
       <c r="B222" s="2"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
     </row>
     <row r="223" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="10"/>
+      <c r="A223" s="10" t="s">
+        <v>269</v>
+      </c>
       <c r="B223" s="2"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
     </row>
     <row r="224" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="10"/>
+      <c r="A224" s="10" t="s">
+        <v>270</v>
+      </c>
       <c r="B224" s="2"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
     </row>
     <row r="225" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="10"/>
+      <c r="A225" s="10" t="s">
+        <v>271</v>
+      </c>
       <c r="B225" s="2"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
     </row>
     <row r="226" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="10"/>
+      <c r="A226" s="10" t="s">
+        <v>272</v>
+      </c>
       <c r="B226" s="2"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
     </row>
     <row r="227" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="10"/>
+      <c r="A227" s="10" t="s">
+        <v>273</v>
+      </c>
       <c r="B227" s="2"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
     </row>
     <row r="228" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="10"/>
+      <c r="A228" s="10" t="s">
+        <v>274</v>
+      </c>
       <c r="B228" s="2"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
     </row>
     <row r="229" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="10"/>
+      <c r="A229" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="B229" s="2"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
     </row>
     <row r="230" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="10"/>
+      <c r="A230" s="10" t="s">
+        <v>276</v>
+      </c>
       <c r="B230" s="2"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
     </row>
     <row r="231" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="10"/>
+      <c r="A231" s="10" t="s">
+        <v>277</v>
+      </c>
       <c r="B231" s="2"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
     </row>
     <row r="232" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="10"/>
+      <c r="A232" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="B232" s="2"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
     </row>
     <row r="233" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="10"/>
+      <c r="A233" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="B233" s="2"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
     </row>
     <row r="234" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="10"/>
+      <c r="A234" s="10" t="s">
+        <v>280</v>
+      </c>
       <c r="B234" s="2"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
     </row>
     <row r="235" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="10"/>
+      <c r="A235" s="10" t="s">
+        <v>281</v>
+      </c>
       <c r="B235" s="2"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
     </row>
     <row r="236" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="10"/>
+      <c r="A236" s="10" t="s">
+        <v>282</v>
+      </c>
       <c r="B236" s="2"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
     </row>
     <row r="237" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="10"/>
+      <c r="A237" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="B237" s="2"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
     </row>
     <row r="238" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="10"/>
+      <c r="A238" s="10" t="s">
+        <v>284</v>
+      </c>
       <c r="B238" s="2"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
     </row>
     <row r="239" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="10"/>
+      <c r="A239" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="B239" s="2"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
     </row>
     <row r="240" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="10"/>
+      <c r="A240" s="10" t="s">
+        <v>286</v>
+      </c>
       <c r="B240" s="2"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
     </row>
     <row r="241" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="10"/>
+      <c r="A241" s="10" t="s">
+        <v>287</v>
+      </c>
       <c r="B241" s="2"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
     </row>
     <row r="242" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="10"/>
+      <c r="A242" s="10" t="s">
+        <v>288</v>
+      </c>
       <c r="B242" s="2"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
     </row>
     <row r="243" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="10"/>
+      <c r="A243" s="10" t="s">
+        <v>289</v>
+      </c>
       <c r="B243" s="2"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
     </row>
     <row r="244" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="10"/>
+      <c r="A244" s="10" t="s">
+        <v>290</v>
+      </c>
       <c r="B244" s="2"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
     </row>
     <row r="245" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="10"/>
+      <c r="A245" s="10" t="s">
+        <v>291</v>
+      </c>
       <c r="B245" s="2"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
     </row>
     <row r="246" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="10"/>
+      <c r="A246" s="10" t="s">
+        <v>292</v>
+      </c>
       <c r="B246" s="2"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
     </row>
     <row r="247" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="10"/>
+      <c r="A247" s="10" t="s">
+        <v>293</v>
+      </c>
       <c r="B247" s="2"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
     </row>
     <row r="248" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="10"/>
+      <c r="A248" s="10" t="s">
+        <v>294</v>
+      </c>
       <c r="B248" s="2"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
     </row>
     <row r="249" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="10"/>
+      <c r="A249" s="10" t="s">
+        <v>295</v>
+      </c>
       <c r="B249" s="2"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
     </row>
     <row r="250" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="10"/>
+      <c r="A250" s="10" t="s">
+        <v>296</v>
+      </c>
       <c r="B250" s="2"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
     </row>
     <row r="251" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="10"/>
+      <c r="A251" s="10" t="s">
+        <v>297</v>
+      </c>
       <c r="B251" s="2"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
     </row>
     <row r="252" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="10"/>
+      <c r="A252" s="10" t="s">
+        <v>298</v>
+      </c>
       <c r="B252" s="2"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
     </row>
     <row r="253" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="10"/>
+      <c r="A253" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="B253" s="2"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
     </row>
     <row r="254" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="10"/>
+      <c r="A254" s="10" t="s">
+        <v>300</v>
+      </c>
       <c r="B254" s="2"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
     </row>
     <row r="255" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="10"/>
+      <c r="A255" s="10" t="s">
+        <v>301</v>
+      </c>
       <c r="B255" s="2"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
     </row>
     <row r="256" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="10"/>
+      <c r="A256" s="10" t="s">
+        <v>302</v>
+      </c>
       <c r="B256" s="2"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
     </row>
     <row r="257" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="10"/>
+      <c r="A257" s="10" t="s">
+        <v>303</v>
+      </c>
       <c r="B257" s="2"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
     </row>
     <row r="258" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="10"/>
+      <c r="A258" s="10" t="s">
+        <v>304</v>
+      </c>
       <c r="B258" s="2"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
     </row>
     <row r="259" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="10"/>
+      <c r="A259" s="10" t="s">
+        <v>305</v>
+      </c>
       <c r="B259" s="2"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
     </row>
     <row r="260" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="10"/>
+      <c r="A260" s="10" t="s">
+        <v>306</v>
+      </c>
       <c r="B260" s="2"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
     </row>
     <row r="261" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="10"/>
+      <c r="A261" s="10" t="s">
+        <v>307</v>
+      </c>
       <c r="B261" s="2"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
     </row>
     <row r="262" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="10"/>
+      <c r="A262" s="10" t="s">
+        <v>308</v>
+      </c>
       <c r="B262" s="2"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
     </row>
     <row r="263" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="10"/>
+      <c r="A263" s="10" t="s">
+        <v>309</v>
+      </c>
       <c r="B263" s="2"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
     </row>
     <row r="264" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="10"/>
+      <c r="A264" s="10" t="s">
+        <v>310</v>
+      </c>
       <c r="B264" s="2"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
     </row>
     <row r="265" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="10"/>
+      <c r="A265" s="10" t="s">
+        <v>311</v>
+      </c>
       <c r="B265" s="2"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
     </row>
     <row r="266" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="10"/>
+      <c r="A266" s="10" t="s">
+        <v>312</v>
+      </c>
       <c r="B266" s="2"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
     </row>
     <row r="267" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="10"/>
+      <c r="A267" s="10" t="s">
+        <v>313</v>
+      </c>
       <c r="B267" s="2"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
     </row>
     <row r="268" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="10"/>
+      <c r="A268" s="10" t="s">
+        <v>314</v>
+      </c>
       <c r="B268" s="2"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
     </row>
     <row r="269" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="10"/>
+      <c r="A269" s="10" t="s">
+        <v>315</v>
+      </c>
       <c r="B269" s="2"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
     </row>
     <row r="270" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="10"/>
+      <c r="A270" s="10" t="s">
+        <v>316</v>
+      </c>
       <c r="B270" s="2"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
     </row>
     <row r="271" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="10"/>
+      <c r="A271" s="10" t="s">
+        <v>317</v>
+      </c>
       <c r="B271" s="2"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
     </row>
     <row r="272" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="10"/>
+      <c r="A272" s="10" t="s">
+        <v>318</v>
+      </c>
       <c r="B272" s="2"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
     </row>
     <row r="273" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="10"/>
+      <c r="A273" s="10" t="s">
+        <v>319</v>
+      </c>
       <c r="B273" s="2"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
     </row>
     <row r="274" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="10"/>
+      <c r="A274" s="10" t="s">
+        <v>320</v>
+      </c>
       <c r="B274" s="2"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
     </row>
     <row r="275" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="10"/>
+      <c r="A275" s="10" t="s">
+        <v>321</v>
+      </c>
       <c r="B275" s="2"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
     </row>
     <row r="276" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="10"/>
+      <c r="A276" s="10" t="s">
+        <v>322</v>
+      </c>
       <c r="B276" s="2"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
     </row>
     <row r="277" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="10"/>
+      <c r="A277" s="10" t="s">
+        <v>323</v>
+      </c>
       <c r="B277" s="2"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
     </row>
     <row r="278" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="10"/>
+      <c r="A278" s="10" t="s">
+        <v>324</v>
+      </c>
       <c r="B278" s="2"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
     </row>
     <row r="279" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="10"/>
+      <c r="A279" s="10" t="s">
+        <v>325</v>
+      </c>
       <c r="B279" s="2"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
     </row>
     <row r="280" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="10"/>
+      <c r="A280" s="10" t="s">
+        <v>326</v>
+      </c>
       <c r="B280" s="2"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
     </row>
     <row r="281" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="10"/>
+      <c r="A281" s="10" t="s">
+        <v>327</v>
+      </c>
       <c r="B281" s="2"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
     </row>
     <row r="282" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="10"/>
+      <c r="A282" s="10" t="s">
+        <v>328</v>
+      </c>
       <c r="B282" s="2"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
     </row>
     <row r="283" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="10"/>
+      <c r="A283" s="10" t="s">
+        <v>329</v>
+      </c>
       <c r="B283" s="2"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
     </row>
     <row r="284" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="10"/>
+      <c r="A284" s="10" t="s">
+        <v>330</v>
+      </c>
       <c r="B284" s="2"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
     </row>
     <row r="285" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="10"/>
+      <c r="A285" s="10" t="s">
+        <v>331</v>
+      </c>
       <c r="B285" s="2"/>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
     </row>
     <row r="286" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="10"/>
+      <c r="A286" s="10" t="s">
+        <v>332</v>
+      </c>
       <c r="B286" s="2"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
     </row>
     <row r="287" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="10"/>
+      <c r="A287" s="10" t="s">
+        <v>333</v>
+      </c>
       <c r="B287" s="2"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
     </row>
     <row r="288" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="10"/>
+      <c r="A288" s="10" t="s">
+        <v>334</v>
+      </c>
       <c r="B288" s="2"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
     </row>
     <row r="289" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="10"/>
+      <c r="A289" s="10" t="s">
+        <v>335</v>
+      </c>
       <c r="B289" s="2"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
     </row>
     <row r="290" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="10"/>
+      <c r="A290" s="10" t="s">
+        <v>336</v>
+      </c>
       <c r="B290" s="2"/>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
     </row>
     <row r="291" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="10"/>
+      <c r="A291" s="10" t="s">
+        <v>337</v>
+      </c>
       <c r="B291" s="2"/>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
     </row>
     <row r="292" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="10"/>
+      <c r="A292" s="10" t="s">
+        <v>338</v>
+      </c>
       <c r="B292" s="2"/>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
     </row>
     <row r="293" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="10"/>
+      <c r="A293" s="10" t="s">
+        <v>339</v>
+      </c>
       <c r="B293" s="2"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
     </row>
     <row r="294" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="10"/>
+      <c r="A294" s="10" t="s">
+        <v>340</v>
+      </c>
       <c r="B294" s="2"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
     </row>
     <row r="295" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="10"/>
+      <c r="A295" s="10" t="s">
+        <v>341</v>
+      </c>
       <c r="B295" s="2"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
     </row>
     <row r="296" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="10"/>
+      <c r="A296" s="10" t="s">
+        <v>342</v>
+      </c>
       <c r="B296" s="2"/>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
     </row>
     <row r="297" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="10"/>
+      <c r="A297" s="10" t="s">
+        <v>343</v>
+      </c>
       <c r="B297" s="2"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
     </row>
     <row r="298" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="10"/>
+      <c r="A298" s="10" t="s">
+        <v>344</v>
+      </c>
       <c r="B298" s="2"/>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
     </row>
     <row r="299" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="10"/>
+      <c r="A299" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B299" s="2"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
     </row>
     <row r="300" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="10"/>
+      <c r="A300" s="10" t="s">
+        <v>346</v>
+      </c>
       <c r="B300" s="2"/>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
     </row>
     <row r="301" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="10"/>
+      <c r="A301" s="10" t="s">
+        <v>347</v>
+      </c>
       <c r="B301" s="2"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
     </row>
     <row r="302" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="10"/>
+      <c r="A302" s="10" t="s">
+        <v>348</v>
+      </c>
       <c r="B302" s="2"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
     </row>
     <row r="303" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="10"/>
+      <c r="A303" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="B303" s="2"/>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
     </row>
     <row r="304" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="10"/>
+      <c r="A304" s="10" t="s">
+        <v>350</v>
+      </c>
       <c r="B304" s="2"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
     </row>
     <row r="305" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="10"/>
+      <c r="A305" s="10" t="s">
+        <v>351</v>
+      </c>
       <c r="B305" s="2"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
     </row>
     <row r="306" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="10"/>
+      <c r="A306" s="10" t="s">
+        <v>352</v>
+      </c>
       <c r="B306" s="2"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
     </row>
     <row r="307" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="10"/>
+      <c r="A307" s="10" t="s">
+        <v>353</v>
+      </c>
       <c r="B307" s="2"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
     </row>
     <row r="308" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="10"/>
+      <c r="A308" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="B308" s="2"/>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
     </row>
     <row r="309" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="10"/>
+      <c r="A309" s="10" t="s">
+        <v>355</v>
+      </c>
       <c r="B309" s="2"/>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
     </row>
     <row r="310" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="10"/>
+      <c r="A310" s="10" t="s">
+        <v>356</v>
+      </c>
       <c r="B310" s="2"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
     </row>
     <row r="311" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="10"/>
+      <c r="A311" s="10" t="s">
+        <v>357</v>
+      </c>
       <c r="B311" s="2"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
     </row>
     <row r="312" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="10"/>
+      <c r="A312" s="10" t="s">
+        <v>358</v>
+      </c>
       <c r="B312" s="2"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
     </row>
     <row r="313" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="10"/>
+      <c r="A313" s="10" t="s">
+        <v>359</v>
+      </c>
       <c r="B313" s="2"/>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
     </row>
     <row r="314" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="10"/>
+      <c r="A314" s="10" t="s">
+        <v>360</v>
+      </c>
       <c r="B314" s="2"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
     </row>
     <row r="315" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="10"/>
+      <c r="A315" s="10" t="s">
+        <v>361</v>
+      </c>
       <c r="B315" s="2"/>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
     </row>
     <row r="316" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="10"/>
+      <c r="A316" s="10" t="s">
+        <v>362</v>
+      </c>
       <c r="B316" s="2"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
     </row>
     <row r="317" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="10"/>
+      <c r="A317" s="10" t="s">
+        <v>363</v>
+      </c>
       <c r="B317" s="2"/>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
     </row>
     <row r="318" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="10"/>
+      <c r="A318" s="10" t="s">
+        <v>364</v>
+      </c>
       <c r="B318" s="2"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
     </row>
     <row r="319" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="10"/>
+      <c r="A319" s="10" t="s">
+        <v>365</v>
+      </c>
       <c r="B319" s="2"/>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
     </row>
     <row r="320" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="10"/>
+      <c r="A320" s="10" t="s">
+        <v>366</v>
+      </c>
       <c r="B320" s="2"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
     </row>
     <row r="321" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="10"/>
+      <c r="A321" s="10" t="s">
+        <v>367</v>
+      </c>
       <c r="B321" s="2"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
     </row>
     <row r="322" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="10"/>
+      <c r="A322" s="10" t="s">
+        <v>368</v>
+      </c>
       <c r="B322" s="2"/>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
     </row>
     <row r="323" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="10"/>
+      <c r="A323" s="10" t="s">
+        <v>369</v>
+      </c>
       <c r="B323" s="2"/>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
     </row>
     <row r="324" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="10"/>
+      <c r="A324" s="10" t="s">
+        <v>370</v>
+      </c>
       <c r="B324" s="2"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
     </row>
     <row r="325" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="10"/>
+      <c r="A325" s="10" t="s">
+        <v>371</v>
+      </c>
       <c r="B325" s="2"/>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
     </row>
     <row r="326" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="10"/>
+      <c r="A326" s="10" t="s">
+        <v>372</v>
+      </c>
       <c r="B326" s="2"/>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
     </row>
     <row r="327" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="10"/>
+      <c r="A327" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="B327" s="2"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
     </row>
     <row r="328" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="10"/>
+      <c r="A328" s="10" t="s">
+        <v>374</v>
+      </c>
       <c r="B328" s="2"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
     </row>
     <row r="329" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="10"/>
+      <c r="A329" s="10" t="s">
+        <v>375</v>
+      </c>
       <c r="B329" s="2"/>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
     </row>
     <row r="330" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="10"/>
+      <c r="A330" s="10" t="s">
+        <v>376</v>
+      </c>
       <c r="B330" s="2"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
     </row>
     <row r="331" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="10"/>
+      <c r="A331" s="10" t="s">
+        <v>377</v>
+      </c>
       <c r="B331" s="2"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
     </row>
     <row r="332" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="10"/>
+      <c r="A332" s="10" t="s">
+        <v>378</v>
+      </c>
       <c r="B332" s="2"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
     </row>
     <row r="333" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="10"/>
+      <c r="A333" s="10" t="s">
+        <v>379</v>
+      </c>
       <c r="B333" s="2"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
     </row>
     <row r="334" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="10"/>
+      <c r="A334" s="10" t="s">
+        <v>380</v>
+      </c>
       <c r="B334" s="2"/>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
     </row>
     <row r="335" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="10"/>
+      <c r="A335" s="10" t="s">
+        <v>381</v>
+      </c>
       <c r="B335" s="2"/>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
     </row>
     <row r="336" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="10"/>
+      <c r="A336" s="10" t="s">
+        <v>382</v>
+      </c>
       <c r="B336" s="2"/>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
     </row>
     <row r="337" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="10"/>
+      <c r="A337" s="10" t="s">
+        <v>383</v>
+      </c>
       <c r="B337" s="2"/>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
     </row>
     <row r="338" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="10"/>
+      <c r="A338" s="10" t="s">
+        <v>384</v>
+      </c>
       <c r="B338" s="2"/>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
     </row>
     <row r="339" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="10"/>
+      <c r="A339" s="10" t="s">
+        <v>385</v>
+      </c>
       <c r="B339" s="2"/>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
     </row>
     <row r="340" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="10"/>
+      <c r="A340" s="10" t="s">
+        <v>386</v>
+      </c>
       <c r="B340" s="2"/>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
     </row>
     <row r="341" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="10"/>
+      <c r="A341" s="10" t="s">
+        <v>387</v>
+      </c>
       <c r="B341" s="2"/>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
     </row>
     <row r="342" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="10"/>
+      <c r="A342" s="10" t="s">
+        <v>388</v>
+      </c>
       <c r="B342" s="2"/>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
     </row>
     <row r="343" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="10"/>
+      <c r="A343" s="10" t="s">
+        <v>389</v>
+      </c>
       <c r="B343" s="2"/>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
     </row>
     <row r="344" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="10"/>
+      <c r="A344" s="10" t="s">
+        <v>390</v>
+      </c>
       <c r="B344" s="2"/>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
     </row>
     <row r="345" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="10"/>
+      <c r="A345" s="10" t="s">
+        <v>391</v>
+      </c>
       <c r="B345" s="2"/>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
     </row>
     <row r="346" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="10"/>
+      <c r="A346" s="10" t="s">
+        <v>392</v>
+      </c>
       <c r="B346" s="2"/>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
     </row>
     <row r="347" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="10"/>
+      <c r="A347" s="10" t="s">
+        <v>393</v>
+      </c>
       <c r="B347" s="2"/>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
     </row>
     <row r="348" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="10"/>
+      <c r="A348" s="10" t="s">
+        <v>394</v>
+      </c>
       <c r="B348" s="2"/>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
     </row>
     <row r="349" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="10"/>
+      <c r="A349" s="10" t="s">
+        <v>395</v>
+      </c>
       <c r="B349" s="2"/>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
     </row>
     <row r="350" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="10"/>
+      <c r="A350" s="10" t="s">
+        <v>396</v>
+      </c>
       <c r="B350" s="2"/>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
     </row>
     <row r="351" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="10"/>
+      <c r="A351" s="10" t="s">
+        <v>397</v>
+      </c>
       <c r="B351" s="2"/>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
     </row>
     <row r="352" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="10"/>
+      <c r="A352" s="10" t="s">
+        <v>398</v>
+      </c>
       <c r="B352" s="2"/>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
     </row>
     <row r="353" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="10"/>
+      <c r="A353" s="10" t="s">
+        <v>399</v>
+      </c>
       <c r="B353" s="2"/>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
     </row>
     <row r="354" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="10"/>
+      <c r="A354" s="10" t="s">
+        <v>400</v>
+      </c>
       <c r="B354" s="2"/>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
     </row>
     <row r="355" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="10"/>
+      <c r="A355" s="10" t="s">
+        <v>401</v>
+      </c>
       <c r="B355" s="2"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
     </row>
     <row r="356" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="10"/>
+      <c r="A356" s="10" t="s">
+        <v>402</v>
+      </c>
       <c r="B356" s="2"/>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
     </row>
     <row r="357" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="10"/>
+      <c r="A357" s="10" t="s">
+        <v>403</v>
+      </c>
       <c r="B357" s="2"/>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
     </row>
     <row r="358" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="10"/>
+      <c r="A358" s="10" t="s">
+        <v>404</v>
+      </c>
       <c r="B358" s="2"/>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
     </row>
     <row r="359" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="10"/>
+      <c r="A359" s="10" t="s">
+        <v>405</v>
+      </c>
       <c r="B359" s="2"/>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
     </row>
     <row r="360" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="10"/>
+      <c r="A360" s="10" t="s">
+        <v>406</v>
+      </c>
       <c r="B360" s="2"/>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
     </row>
     <row r="361" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="10"/>
+      <c r="A361" s="10" t="s">
+        <v>407</v>
+      </c>
       <c r="B361" s="2"/>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
     </row>
     <row r="362" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="10"/>
+      <c r="A362" s="10" t="s">
+        <v>408</v>
+      </c>
       <c r="B362" s="2"/>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
     </row>
     <row r="363" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="10"/>
+      <c r="A363" s="10" t="s">
+        <v>409</v>
+      </c>
       <c r="B363" s="2"/>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
     </row>
     <row r="364" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="10"/>
+      <c r="A364" s="10" t="s">
+        <v>410</v>
+      </c>
       <c r="B364" s="2"/>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
     </row>
     <row r="365" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="10"/>
+      <c r="A365" s="10" t="s">
+        <v>411</v>
+      </c>
       <c r="B365" s="2"/>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
     </row>
     <row r="366" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="10"/>
+      <c r="A366" s="10" t="s">
+        <v>412</v>
+      </c>
       <c r="B366" s="2"/>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
     </row>
     <row r="367" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="10"/>
+      <c r="A367" s="10" t="s">
+        <v>413</v>
+      </c>
       <c r="B367" s="2"/>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
     </row>
     <row r="368" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="10"/>
+      <c r="A368" s="10" t="s">
+        <v>414</v>
+      </c>
       <c r="B368" s="2"/>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
     </row>
     <row r="369" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="10"/>
+      <c r="A369" s="10" t="s">
+        <v>415</v>
+      </c>
       <c r="B369" s="2"/>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
     </row>
     <row r="370" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="10"/>
+      <c r="A370" s="10" t="s">
+        <v>416</v>
+      </c>
       <c r="B370" s="2"/>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
     </row>
     <row r="371" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="10"/>
+      <c r="A371" s="10" t="s">
+        <v>417</v>
+      </c>
       <c r="B371" s="2"/>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
     </row>
     <row r="372" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="10"/>
+      <c r="A372" s="10" t="s">
+        <v>418</v>
+      </c>
       <c r="B372" s="2"/>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
     </row>
     <row r="373" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="10"/>
+      <c r="A373" s="10" t="s">
+        <v>419</v>
+      </c>
       <c r="B373" s="2"/>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
     </row>
     <row r="374" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="10"/>
+      <c r="A374" s="10" t="s">
+        <v>420</v>
+      </c>
       <c r="B374" s="2"/>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
     </row>
     <row r="375" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="10"/>
+      <c r="A375" s="10" t="s">
+        <v>421</v>
+      </c>
       <c r="B375" s="2"/>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
     </row>
     <row r="376" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="10"/>
+      <c r="A376" s="10" t="s">
+        <v>422</v>
+      </c>
       <c r="B376" s="2"/>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
     </row>
     <row r="377" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="10"/>
+      <c r="A377" s="10" t="s">
+        <v>423</v>
+      </c>
       <c r="B377" s="2"/>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
     </row>
     <row r="378" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="10"/>
+      <c r="A378" s="10" t="s">
+        <v>424</v>
+      </c>
       <c r="B378" s="2"/>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
     </row>
     <row r="379" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="10"/>
+      <c r="A379" s="10" t="s">
+        <v>425</v>
+      </c>
       <c r="B379" s="2"/>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
     </row>
     <row r="380" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="10"/>
+      <c r="A380" s="10" t="s">
+        <v>426</v>
+      </c>
       <c r="B380" s="2"/>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
     </row>
     <row r="381" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="10"/>
+      <c r="A381" s="10" t="s">
+        <v>427</v>
+      </c>
       <c r="B381" s="2"/>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
     </row>
     <row r="382" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="10"/>
+      <c r="A382" s="10" t="s">
+        <v>428</v>
+      </c>
       <c r="B382" s="2"/>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
     </row>
     <row r="383" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="10"/>
+      <c r="A383" s="10" t="s">
+        <v>429</v>
+      </c>
       <c r="B383" s="2"/>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
     </row>
     <row r="384" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="10"/>
+      <c r="A384" s="10" t="s">
+        <v>430</v>
+      </c>
       <c r="B384" s="2"/>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
     </row>
     <row r="385" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="10"/>
+      <c r="A385" s="10" t="s">
+        <v>431</v>
+      </c>
       <c r="B385" s="2"/>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
     </row>
     <row r="386" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="10"/>
+      <c r="A386" s="10" t="s">
+        <v>432</v>
+      </c>
       <c r="B386" s="2"/>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
     </row>
     <row r="387" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="10"/>
+      <c r="A387" s="10" t="s">
+        <v>433</v>
+      </c>
       <c r="B387" s="2"/>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
     </row>
     <row r="388" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="10"/>
+      <c r="A388" s="10" t="s">
+        <v>434</v>
+      </c>
       <c r="B388" s="2"/>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
     </row>
     <row r="389" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="10"/>
+      <c r="A389" s="10" t="s">
+        <v>435</v>
+      </c>
       <c r="B389" s="2"/>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
     </row>
     <row r="390" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="10"/>
+      <c r="A390" s="10" t="s">
+        <v>436</v>
+      </c>
       <c r="B390" s="2"/>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
     </row>
     <row r="391" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="10"/>
+      <c r="A391" s="10" t="s">
+        <v>437</v>
+      </c>
       <c r="B391" s="2"/>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
     </row>
     <row r="392" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="10"/>
+      <c r="A392" s="10" t="s">
+        <v>438</v>
+      </c>
       <c r="B392" s="2"/>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
     </row>
     <row r="393" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="10"/>
+      <c r="A393" s="10" t="s">
+        <v>439</v>
+      </c>
       <c r="B393" s="2"/>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
     </row>
     <row r="394" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="10"/>
+      <c r="A394" s="10" t="s">
+        <v>440</v>
+      </c>
       <c r="B394" s="2"/>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
     </row>
     <row r="395" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="10"/>
+      <c r="A395" s="10" t="s">
+        <v>441</v>
+      </c>
       <c r="B395" s="2"/>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
     </row>
     <row r="396" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="10"/>
+      <c r="A396" s="10" t="s">
+        <v>442</v>
+      </c>
       <c r="B396" s="2"/>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
     </row>
     <row r="397" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="10"/>
+      <c r="A397" s="10" t="s">
+        <v>443</v>
+      </c>
       <c r="B397" s="2"/>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
     </row>
     <row r="398" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="10"/>
+      <c r="A398" s="10" t="s">
+        <v>444</v>
+      </c>
       <c r="B398" s="2"/>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
     </row>
     <row r="399" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="10"/>
+      <c r="A399" s="10" t="s">
+        <v>445</v>
+      </c>
       <c r="B399" s="2"/>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
     </row>
     <row r="400" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="10"/>
+      <c r="A400" s="10" t="s">
+        <v>446</v>
+      </c>
       <c r="B400" s="2"/>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
     </row>
     <row r="401" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="10"/>
+      <c r="A401" s="10" t="s">
+        <v>447</v>
+      </c>
       <c r="B401" s="2"/>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
     </row>
     <row r="402" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="10"/>
+      <c r="A402" s="10" t="s">
+        <v>448</v>
+      </c>
       <c r="B402" s="2"/>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
     </row>
     <row r="403" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="10"/>
+      <c r="A403" s="10" t="s">
+        <v>449</v>
+      </c>
       <c r="B403" s="2"/>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
     </row>
     <row r="404" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="10"/>
+      <c r="A404" s="10" t="s">
+        <v>450</v>
+      </c>
       <c r="B404" s="2"/>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
     </row>
     <row r="405" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="10"/>
+      <c r="A405" s="10" t="s">
+        <v>451</v>
+      </c>
       <c r="B405" s="2"/>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
     </row>
     <row r="406" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="10"/>
+      <c r="A406" s="10" t="s">
+        <v>452</v>
+      </c>
       <c r="B406" s="2"/>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
     </row>
     <row r="407" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="10"/>
+      <c r="A407" s="10" t="s">
+        <v>453</v>
+      </c>
       <c r="B407" s="2"/>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
     </row>
     <row r="408" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="10"/>
+      <c r="A408" s="10" t="s">
+        <v>454</v>
+      </c>
       <c r="B408" s="2"/>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
     </row>
     <row r="409" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="10"/>
+      <c r="A409" s="10" t="s">
+        <v>455</v>
+      </c>
       <c r="B409" s="2"/>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
     </row>
     <row r="410" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="10"/>
+      <c r="A410" s="10" t="s">
+        <v>456</v>
+      </c>
       <c r="B410" s="2"/>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
     </row>
     <row r="411" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="10"/>
+      <c r="A411" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="B411" s="2"/>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
     </row>
     <row r="412" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="10"/>
+      <c r="A412" s="10" t="s">
+        <v>458</v>
+      </c>
       <c r="B412" s="2"/>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
     </row>
     <row r="413" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="10"/>
+      <c r="A413" s="10" t="s">
+        <v>459</v>
+      </c>
       <c r="B413" s="2"/>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
     </row>
     <row r="414" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="10"/>
+      <c r="A414" s="10" t="s">
+        <v>460</v>
+      </c>
       <c r="B414" s="2"/>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
     </row>
     <row r="415" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="10"/>
+      <c r="A415" s="10" t="s">
+        <v>461</v>
+      </c>
       <c r="B415" s="2"/>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
     </row>
     <row r="416" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="10"/>
+      <c r="A416" s="10" t="s">
+        <v>462</v>
+      </c>
       <c r="B416" s="2"/>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
     </row>
     <row r="417" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="10"/>
+      <c r="A417" s="10" t="s">
+        <v>463</v>
+      </c>
       <c r="B417" s="2"/>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
     </row>
     <row r="418" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="10"/>
+      <c r="A418" s="10" t="s">
+        <v>464</v>
+      </c>
       <c r="B418" s="2"/>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
     </row>
     <row r="419" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="10"/>
+      <c r="A419" s="10" t="s">
+        <v>465</v>
+      </c>
       <c r="B419" s="2"/>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
     </row>
     <row r="420" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="10"/>
+      <c r="A420" s="10" t="s">
+        <v>466</v>
+      </c>
       <c r="B420" s="2"/>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
     </row>
     <row r="421" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="10"/>
+      <c r="A421" s="10" t="s">
+        <v>467</v>
+      </c>
       <c r="B421" s="2"/>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
     </row>
     <row r="422" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="10"/>
+      <c r="A422" s="10" t="s">
+        <v>468</v>
+      </c>
       <c r="B422" s="2"/>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
     </row>
     <row r="423" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="10"/>
+      <c r="A423" s="10" t="s">
+        <v>469</v>
+      </c>
       <c r="B423" s="2"/>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
     </row>
     <row r="424" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="10"/>
+      <c r="A424" s="10" t="s">
+        <v>470</v>
+      </c>
       <c r="B424" s="2"/>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
     </row>
     <row r="425" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="10"/>
+      <c r="A425" s="10" t="s">
+        <v>471</v>
+      </c>
       <c r="B425" s="2"/>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
     </row>
     <row r="426" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="10"/>
+      <c r="A426" s="10" t="s">
+        <v>472</v>
+      </c>
       <c r="B426" s="2"/>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
     </row>
     <row r="427" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="10"/>
+      <c r="A427" s="10" t="s">
+        <v>473</v>
+      </c>
       <c r="B427" s="2"/>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
     </row>
     <row r="428" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="10"/>
+      <c r="A428" s="10" t="s">
+        <v>474</v>
+      </c>
       <c r="B428" s="2"/>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
     </row>
     <row r="429" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="10"/>
+      <c r="A429" s="10" t="s">
+        <v>475</v>
+      </c>
       <c r="B429" s="2"/>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
     </row>
     <row r="430" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="10"/>
+      <c r="A430" s="10" t="s">
+        <v>476</v>
+      </c>
       <c r="B430" s="2"/>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
     </row>
     <row r="431" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="10"/>
+      <c r="A431" s="10" t="s">
+        <v>477</v>
+      </c>
       <c r="B431" s="2"/>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
     </row>
     <row r="432" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="10"/>
+      <c r="A432" s="10" t="s">
+        <v>478</v>
+      </c>
       <c r="B432" s="2"/>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
     </row>
     <row r="433" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="10"/>
+      <c r="A433" s="10" t="s">
+        <v>479</v>
+      </c>
       <c r="B433" s="2"/>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
     </row>
     <row r="434" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="10"/>
+      <c r="A434" s="10" t="s">
+        <v>480</v>
+      </c>
       <c r="B434" s="2"/>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
     </row>
     <row r="435" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="10"/>
+      <c r="A435" s="10" t="s">
+        <v>481</v>
+      </c>
       <c r="B435" s="2"/>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
     </row>
     <row r="436" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="10"/>
+      <c r="A436" s="10" t="s">
+        <v>482</v>
+      </c>
       <c r="B436" s="2"/>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
     </row>
     <row r="437" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="10"/>
+      <c r="A437" s="10" t="s">
+        <v>483</v>
+      </c>
       <c r="B437" s="2"/>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
     </row>
     <row r="438" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="10"/>
+      <c r="A438" s="10" t="s">
+        <v>484</v>
+      </c>
       <c r="B438" s="2"/>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
     </row>
     <row r="439" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="10"/>
+      <c r="A439" s="10" t="s">
+        <v>485</v>
+      </c>
       <c r="B439" s="2"/>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
     </row>
     <row r="440" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="10"/>
+      <c r="A440" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="B440" s="2"/>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
     </row>
     <row r="441" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="10"/>
+      <c r="A441" s="10" t="s">
+        <v>487</v>
+      </c>
       <c r="B441" s="2"/>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
     </row>
     <row r="442" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="10"/>
+      <c r="A442" s="10" t="s">
+        <v>488</v>
+      </c>
       <c r="B442" s="2"/>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
     </row>
     <row r="443" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="10"/>
+      <c r="A443" s="10" t="s">
+        <v>489</v>
+      </c>
       <c r="B443" s="2"/>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
     </row>
     <row r="444" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="10"/>
+      <c r="A444" s="10" t="s">
+        <v>490</v>
+      </c>
       <c r="B444" s="2"/>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
     </row>
     <row r="445" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="10"/>
+      <c r="A445" s="10" t="s">
+        <v>491</v>
+      </c>
       <c r="B445" s="2"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
     </row>
     <row r="446" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="10"/>
+      <c r="A446" s="10" t="s">
+        <v>492</v>
+      </c>
       <c r="B446" s="2"/>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
     </row>
     <row r="447" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="10"/>
+      <c r="A447" s="10" t="s">
+        <v>493</v>
+      </c>
       <c r="B447" s="2"/>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
     </row>
     <row r="448" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="10"/>
+      <c r="A448" s="10" t="s">
+        <v>494</v>
+      </c>
       <c r="B448" s="2"/>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
     </row>
     <row r="449" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="10"/>
+      <c r="A449" s="10" t="s">
+        <v>495</v>
+      </c>
       <c r="B449" s="2"/>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
     </row>
     <row r="450" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="10"/>
+      <c r="A450" s="10" t="s">
+        <v>496</v>
+      </c>
       <c r="B450" s="2"/>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
     </row>
     <row r="451" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="10"/>
+      <c r="A451" s="10" t="s">
+        <v>497</v>
+      </c>
       <c r="B451" s="2"/>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
     </row>
     <row r="452" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="10"/>
+      <c r="A452" s="10" t="s">
+        <v>498</v>
+      </c>
       <c r="B452" s="2"/>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
     </row>
     <row r="453" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="10"/>
+      <c r="A453" s="10" t="s">
+        <v>499</v>
+      </c>
       <c r="B453" s="2"/>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
     </row>
     <row r="454" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="10"/>
+      <c r="A454" s="10" t="s">
+        <v>500</v>
+      </c>
       <c r="B454" s="2"/>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
     </row>
     <row r="455" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="10"/>
+      <c r="A455" s="10" t="s">
+        <v>501</v>
+      </c>
       <c r="B455" s="2"/>
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
     </row>
     <row r="456" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="10"/>
+      <c r="A456" s="10" t="s">
+        <v>502</v>
+      </c>
       <c r="B456" s="2"/>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
     </row>
     <row r="457" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="10"/>
+      <c r="A457" s="10" t="s">
+        <v>503</v>
+      </c>
       <c r="B457" s="2"/>
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
     </row>
     <row r="458" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="10"/>
+      <c r="A458" s="10" t="s">
+        <v>504</v>
+      </c>
       <c r="B458" s="2"/>
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
     </row>
     <row r="459" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="10"/>
+      <c r="A459" s="10" t="s">
+        <v>505</v>
+      </c>
       <c r="B459" s="2"/>
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
     </row>
     <row r="460" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="10"/>
+      <c r="A460" s="10" t="s">
+        <v>506</v>
+      </c>
       <c r="B460" s="2"/>
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
     </row>
     <row r="461" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="10"/>
+      <c r="A461" s="10" t="s">
+        <v>507</v>
+      </c>
       <c r="B461" s="2"/>
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
     </row>
     <row r="462" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="10"/>
+      <c r="A462" s="10" t="s">
+        <v>508</v>
+      </c>
       <c r="B462" s="2"/>
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
     </row>
     <row r="463" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="10"/>
+      <c r="A463" s="10" t="s">
+        <v>509</v>
+      </c>
       <c r="B463" s="2"/>
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
     </row>
     <row r="464" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="10"/>
+      <c r="A464" s="10" t="s">
+        <v>510</v>
+      </c>
       <c r="B464" s="2"/>
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
     </row>
     <row r="465" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="10"/>
+      <c r="A465" s="10" t="s">
+        <v>511</v>
+      </c>
       <c r="B465" s="2"/>
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
     </row>
     <row r="466" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="10"/>
+      <c r="A466" s="10" t="s">
+        <v>512</v>
+      </c>
       <c r="B466" s="2"/>
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
     </row>
     <row r="467" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="10"/>
+      <c r="A467" s="10" t="s">
+        <v>513</v>
+      </c>
       <c r="B467" s="2"/>
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
     </row>
     <row r="468" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="10"/>
+      <c r="A468" s="10" t="s">
+        <v>514</v>
+      </c>
       <c r="B468" s="2"/>
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
     </row>
     <row r="469" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="10"/>
+      <c r="A469" s="10" t="s">
+        <v>515</v>
+      </c>
       <c r="B469" s="2"/>
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
